--- a/Materion/fastenal-schema.xlsx
+++ b/Materion/fastenal-schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaston.alvarado\Desktop\cwbootcamp\Pandas-Challenge\Materion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{16D81B4F-BA35-467D-BA3A-CE82D032D5DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2A92245-4E76-44A9-B9E6-29C5EF5F4423}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="1560" windowWidth="28035" windowHeight="17445" xr2:uid="{91177500-F52C-7E43-A586-6BE502B18688}"/>
   </bookViews>
@@ -2163,7 +2163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2209,6 +2209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2291,7 +2297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2301,31 +2307,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2335,6 +2326,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2654,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4FA1FC-BDFD-A94E-A433-4E97674F119E}">
   <dimension ref="A1:H562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B227" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:D81"/>
+    <sheetView tabSelected="1" topLeftCell="B207" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2669,20 +2681,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>695</v>
       </c>
     </row>
@@ -2690,10 +2702,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
@@ -2704,8 +2716,8 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" t="s">
         <v>135</v>
       </c>
@@ -2714,8 +2726,8 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="20"/>
       <c r="E4" t="s">
         <v>136</v>
       </c>
@@ -2724,8 +2736,8 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="20"/>
       <c r="E5" t="s">
         <v>137</v>
       </c>
@@ -2734,8 +2746,8 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
       <c r="E6" t="s">
         <v>138</v>
       </c>
@@ -2744,8 +2756,8 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
       <c r="E7" t="s">
         <v>139</v>
       </c>
@@ -2754,8 +2766,8 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="20"/>
       <c r="E8" t="s">
         <v>140</v>
       </c>
@@ -2764,8 +2776,8 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20"/>
       <c r="E9" t="s">
         <v>141</v>
       </c>
@@ -2774,8 +2786,8 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20"/>
       <c r="E10" t="s">
         <v>142</v>
       </c>
@@ -2784,8 +2796,8 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
       <c r="E11" t="s">
         <v>143</v>
       </c>
@@ -2794,8 +2806,8 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
       <c r="E12" t="s">
         <v>144</v>
       </c>
@@ -2804,8 +2816,8 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20"/>
       <c r="E13" t="s">
         <v>145</v>
       </c>
@@ -2814,8 +2826,8 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20"/>
       <c r="E14" t="s">
         <v>146</v>
       </c>
@@ -2824,8 +2836,8 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20"/>
       <c r="E15" t="s">
         <v>147</v>
       </c>
@@ -2834,8 +2846,8 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="20"/>
       <c r="E16" t="s">
         <v>148</v>
       </c>
@@ -2844,8 +2856,8 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="20"/>
       <c r="E17" t="s">
         <v>149</v>
       </c>
@@ -2854,8 +2866,8 @@
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" t="s">
         <v>150</v>
       </c>
@@ -2864,8 +2876,8 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="20"/>
       <c r="E19" t="s">
         <v>151</v>
       </c>
@@ -2874,8 +2886,8 @@
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="20"/>
       <c r="E20" t="s">
         <v>152</v>
       </c>
@@ -2884,8 +2896,8 @@
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="20"/>
       <c r="E21" t="s">
         <v>153</v>
       </c>
@@ -2894,8 +2906,8 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="s">
@@ -2906,8 +2918,8 @@
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="20"/>
       <c r="E23" t="s">
         <v>504</v>
       </c>
@@ -2916,8 +2928,8 @@
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="20"/>
       <c r="E24" t="s">
         <v>505</v>
       </c>
@@ -2926,8 +2938,8 @@
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="20"/>
       <c r="E25" t="s">
         <v>506</v>
       </c>
@@ -2936,8 +2948,8 @@
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="20"/>
       <c r="E26" t="s">
         <v>507</v>
       </c>
@@ -2946,8 +2958,8 @@
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="20"/>
       <c r="E27" t="s">
         <v>508</v>
       </c>
@@ -2956,8 +2968,8 @@
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="20"/>
       <c r="E28" t="s">
         <v>509</v>
       </c>
@@ -2966,8 +2978,8 @@
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="20"/>
       <c r="E29" t="s">
         <v>510</v>
       </c>
@@ -2976,8 +2988,8 @@
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="20"/>
       <c r="E30" t="s">
         <v>511</v>
       </c>
@@ -2986,24 +2998,24 @@
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="20"/>
       <c r="E31" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="20"/>
       <c r="E32" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E33" t="s">
@@ -3012,40 +3024,40 @@
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="20"/>
       <c r="E34" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="20"/>
       <c r="E35" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="20"/>
       <c r="E36" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="20"/>
       <c r="E37" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E38" t="s">
@@ -3054,120 +3066,120 @@
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="20"/>
       <c r="E39" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="20"/>
       <c r="E40" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="20"/>
       <c r="E41" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="20"/>
       <c r="E42" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="20"/>
       <c r="E43" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="20"/>
       <c r="E44" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
       <c r="E45" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="16"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
       <c r="E46" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="16"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
       <c r="E47" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="20"/>
       <c r="E48" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="20"/>
       <c r="E49" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
       <c r="E50" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
       <c r="E51" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
       <c r="E52" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="16" t="s">
+      <c r="C53" s="18"/>
+      <c r="D53" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E53" t="s">
@@ -3176,129 +3188,129 @@
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="16"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
       <c r="E54" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="16"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="20"/>
       <c r="E55" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="16"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="20"/>
       <c r="E56" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="16"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="20"/>
       <c r="E57" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="16"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="20"/>
       <c r="E58" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="16"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="20"/>
       <c r="E59" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="16"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
       <c r="E60" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="16"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
       <c r="E61" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="23"/>
-      <c r="D62" s="16"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
       <c r="E62" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="23"/>
-      <c r="D63" s="16"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="20"/>
       <c r="E63" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="23"/>
-      <c r="D64" s="16"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="20"/>
       <c r="E64" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="23"/>
-      <c r="D65" s="16"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
       <c r="E65" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="23"/>
-      <c r="D66" s="16"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
       <c r="E66" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="23"/>
-      <c r="D67" s="16"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
       <c r="E67" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="23"/>
-      <c r="D68" s="16"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
       <c r="E68" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C69" s="23"/>
-      <c r="D69" s="21" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H69" s="7" t="s">
@@ -3306,13 +3318,13 @@
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="23"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10" t="s">
+      <c r="C70" s="18"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H70" s="7" t="s">
@@ -3320,13 +3332,13 @@
       </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="23"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="12" t="s">
+      <c r="C71" s="18"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H71" s="7" t="s">
@@ -3334,28 +3346,28 @@
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C72" s="23"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="10" t="s">
+      <c r="C72" s="18"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="G72" s="15" t="s">
+      <c r="F72" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G72" s="13" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="23"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="9" t="s">
+      <c r="C73" s="18"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H73" s="7" t="s">
@@ -3363,13 +3375,13 @@
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="23"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10" t="s">
+      <c r="C74" s="18"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H74" s="7" t="s">
@@ -3377,13 +3389,13 @@
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C75" s="23"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="12" t="s">
+      <c r="C75" s="18"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H75" s="7" t="s">
@@ -3391,28 +3403,28 @@
       </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C76" s="23"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="10" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="G76" s="15" t="s">
+      <c r="F76" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G76" s="13" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="23"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="9" t="s">
+      <c r="C77" s="18"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H77" s="7" t="s">
@@ -3420,13 +3432,13 @@
       </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="23"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="10" t="s">
+      <c r="C78" s="18"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="G78" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -3434,13 +3446,13 @@
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="23"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="12" t="s">
+      <c r="C79" s="18"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H79" s="7" t="s">
@@ -3448,43 +3460,43 @@
       </c>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C80" s="23"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="10" t="s">
+      <c r="C80" s="18"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F80" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="G80" s="15" t="s">
+      <c r="F80" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G80" s="13" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="23"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="12" t="s">
+      <c r="C81" s="18"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="G81" s="15" t="s">
+      <c r="F81" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G81" s="13" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C82" s="23"/>
-      <c r="D82" s="21" t="s">
+      <c r="C82" s="18"/>
+      <c r="D82" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H82" s="7" t="s">
@@ -3492,13 +3504,13 @@
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="23"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="10" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H83" s="7" t="s">
@@ -3506,13 +3518,13 @@
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="23"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="12" t="s">
+      <c r="C84" s="18"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H84" s="7" t="s">
@@ -3520,15 +3532,15 @@
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="23"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="13" t="s">
+      <c r="C85" s="18"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -3536,13 +3548,13 @@
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C86" s="23"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="12" t="s">
+      <c r="C86" s="18"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H86" s="7" t="s">
@@ -3550,13 +3562,13 @@
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C87" s="23"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="10" t="s">
+      <c r="C87" s="18"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H87" s="7" t="s">
@@ -3564,13 +3576,13 @@
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C88" s="23"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="12" t="s">
+      <c r="C88" s="18"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H88" s="7" t="s">
@@ -3578,13 +3590,13 @@
       </c>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C89" s="23"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="10" t="s">
+      <c r="C89" s="18"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H89" s="7" t="s">
@@ -3592,13 +3604,13 @@
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="23"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="12" t="s">
+      <c r="C90" s="18"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="G90" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H90" s="7" t="s">
@@ -3606,13 +3618,13 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C91" s="23"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="10" t="s">
+      <c r="C91" s="18"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H91" s="7" t="s">
@@ -3620,15 +3632,15 @@
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="23"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="9" t="s">
+      <c r="C92" s="18"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H92" s="7" t="s">
@@ -3636,13 +3648,13 @@
       </c>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C93" s="23"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="10" t="s">
+      <c r="C93" s="18"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H93" s="7" t="s">
@@ -3650,13 +3662,13 @@
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C94" s="23"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="12" t="s">
+      <c r="C94" s="18"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="G94" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H94" s="7" t="s">
@@ -3664,13 +3676,13 @@
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C95" s="23"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="10" t="s">
+      <c r="C95" s="18"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H95" s="7" t="s">
@@ -3678,13 +3690,13 @@
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="23"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="12" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H96" s="7" t="s">
@@ -3692,13 +3704,13 @@
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C97" s="23"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="10" t="s">
+      <c r="C97" s="18"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H97" s="7" t="s">
@@ -3706,13 +3718,13 @@
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C98" s="23"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="12" t="s">
+      <c r="C98" s="18"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H98" s="7" t="s">
@@ -3720,15 +3732,15 @@
       </c>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C99" s="23"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="9" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="G99" s="11" t="s">
+      <c r="G99" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H99" s="7" t="s">
@@ -3736,13 +3748,13 @@
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C100" s="23"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="12" t="s">
+      <c r="C100" s="18"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="G100" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H100" s="7" t="s">
@@ -3750,13 +3762,13 @@
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C101" s="23"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10" t="s">
+      <c r="C101" s="18"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H101" s="7" t="s">
@@ -3764,13 +3776,13 @@
       </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C102" s="23"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="12" t="s">
+      <c r="C102" s="18"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="G102" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H102" s="7" t="s">
@@ -3778,13 +3790,13 @@
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C103" s="23"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="10" t="s">
+      <c r="C103" s="18"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H103" s="7" t="s">
@@ -3792,99 +3804,99 @@
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C104" s="23"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="13" t="s">
+      <c r="C104" s="18"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="F104" s="12" t="s">
+      <c r="F104" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="G104" s="10"/>
+      <c r="G104" s="9"/>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="23"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="10" t="s">
+      <c r="C105" s="18"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="G105" s="10"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C106" s="23"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="12" t="s">
+      <c r="C106" s="18"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="G106" s="10"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C107" s="23"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="10" t="s">
+      <c r="C107" s="18"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="G107" s="10"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C108" s="23"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="12" t="s">
+      <c r="C108" s="18"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="G108" s="10"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C109" s="23"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="10" t="s">
+      <c r="C109" s="18"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="G109" s="10"/>
+      <c r="G109" s="9"/>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="23"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="12" t="s">
+      <c r="C110" s="18"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="G110" s="10"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="23"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="12" t="s">
+      <c r="C111" s="18"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="G111" s="15" t="s">
+      <c r="F111" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G111" s="13" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C112" s="23"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="10" t="s">
+      <c r="C112" s="18"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F112" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="G112" s="15" t="s">
+      <c r="F112" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G112" s="13" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="23"/>
-      <c r="D113" s="17" t="s">
+      <c r="C113" s="18"/>
+      <c r="D113" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E113" t="s">
@@ -3892,127 +3904,127 @@
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C114" s="23"/>
-      <c r="D114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="24"/>
       <c r="E114" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C115" s="23"/>
-      <c r="D115" s="17"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="24"/>
       <c r="E115" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="116" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="23"/>
-      <c r="D116" s="17"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="24"/>
       <c r="E116" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="117" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="23"/>
-      <c r="D117" s="17"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="24"/>
       <c r="E117" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="118" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="23"/>
-      <c r="D118" s="17"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="24"/>
       <c r="E118" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="119" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="23"/>
-      <c r="D119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="24"/>
       <c r="E119" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="23"/>
-      <c r="D120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="24"/>
       <c r="E120" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="121" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="23"/>
-      <c r="D121" s="17"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="24"/>
       <c r="E121" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="122" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="23"/>
-      <c r="D122" s="17"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="24"/>
       <c r="E122" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C123" s="23"/>
-      <c r="D123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="24"/>
       <c r="E123" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C124" s="23"/>
-      <c r="D124" s="17"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="24"/>
       <c r="E124" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C125" s="23"/>
-      <c r="D125" s="17"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="24"/>
       <c r="E125" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C126" s="23"/>
-      <c r="D126" s="17"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="24"/>
       <c r="E126" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C127" s="23"/>
-      <c r="D127" s="17"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="24"/>
       <c r="E127" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C128" s="23"/>
-      <c r="D128" s="17"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="24"/>
       <c r="E128" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C129" s="23"/>
-      <c r="D129" s="17"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="24"/>
       <c r="E129" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C130" s="23"/>
-      <c r="D130" s="17"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="24"/>
       <c r="E130" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C131" s="23"/>
-      <c r="D131" s="16" t="s">
+      <c r="C131" s="18"/>
+      <c r="D131" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E131" t="s">
@@ -4020,162 +4032,162 @@
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C132" s="23"/>
-      <c r="D132" s="16"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="20"/>
       <c r="E132" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C133" s="23"/>
-      <c r="D133" s="16"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="20"/>
       <c r="E133" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C134" s="23"/>
-      <c r="D134" s="16"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="20"/>
       <c r="E134" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C135" s="23"/>
-      <c r="D135" s="16"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="20"/>
       <c r="E135" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C136" s="23"/>
-      <c r="D136" s="16"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="20"/>
       <c r="E136" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C137" s="23"/>
-      <c r="D137" s="16"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="20"/>
       <c r="E137" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C138" s="23"/>
-      <c r="D138" s="16"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="20"/>
       <c r="E138" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C139" s="23"/>
-      <c r="D139" s="16"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="20"/>
       <c r="E139" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C140" s="23"/>
-      <c r="D140" s="16"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="20"/>
       <c r="E140" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C141" s="23"/>
-      <c r="D141" s="16"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="20"/>
       <c r="E141" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C142" s="23"/>
-      <c r="D142" s="16"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="20"/>
       <c r="E142" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C143" s="23"/>
-      <c r="D143" s="16"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="20"/>
       <c r="E143" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C144" s="23"/>
-      <c r="D144" s="16"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="20"/>
       <c r="E144" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C145" s="23"/>
-      <c r="D145" s="16"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="20"/>
       <c r="E145" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C146" s="23"/>
-      <c r="D146" s="16"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="20"/>
       <c r="E146" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C147" s="23"/>
-      <c r="D147" s="16"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="20"/>
       <c r="E147" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C148" s="23"/>
-      <c r="D148" s="16"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="20"/>
       <c r="E148" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C149" s="23"/>
-      <c r="D149" s="16"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="20"/>
       <c r="E149" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C150" s="23"/>
-      <c r="D150" s="16"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="20"/>
       <c r="E150" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C151" s="23"/>
-      <c r="D151" s="16"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="20"/>
       <c r="E151" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C152" s="23"/>
-      <c r="D152" s="16"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="20"/>
       <c r="E152" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C153" s="23"/>
-      <c r="D153" s="16"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="20"/>
       <c r="E153" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C154" s="23"/>
-      <c r="D154" s="16" t="s">
+      <c r="C154" s="18"/>
+      <c r="D154" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E154" t="s">
@@ -4183,78 +4195,78 @@
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C155" s="23"/>
-      <c r="D155" s="16"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="20"/>
       <c r="E155" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="23"/>
-      <c r="D156" s="16"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="20"/>
       <c r="E156" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C157" s="23"/>
-      <c r="D157" s="16"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="20"/>
       <c r="E157" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C158" s="23"/>
-      <c r="D158" s="16"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="20"/>
       <c r="E158" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C159" s="23"/>
-      <c r="D159" s="16"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="20"/>
       <c r="E159" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C160" s="23"/>
-      <c r="D160" s="16"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="20"/>
       <c r="E160" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C161" s="23"/>
-      <c r="D161" s="16"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="20"/>
       <c r="E161" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C162" s="23"/>
-      <c r="D162" s="16"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="20"/>
       <c r="E162" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C163" s="23"/>
-      <c r="D163" s="16"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="20"/>
       <c r="E163" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C164" s="23"/>
-      <c r="D164" s="16"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="20"/>
       <c r="E164" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="23"/>
-      <c r="D165" s="16" t="s">
+      <c r="C165" s="18"/>
+      <c r="D165" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E165" t="s">
@@ -4262,57 +4274,57 @@
       </c>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="23"/>
-      <c r="D166" s="16"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="20"/>
       <c r="E166" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="23"/>
-      <c r="D167" s="16"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="20"/>
       <c r="E167" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="23"/>
-      <c r="D168" s="16"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="20"/>
       <c r="E168" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="23"/>
-      <c r="D169" s="16"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="20"/>
       <c r="E169" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="23"/>
-      <c r="D170" s="16"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="20"/>
       <c r="E170" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="23"/>
-      <c r="D171" s="16"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="20"/>
       <c r="E171" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="23"/>
-      <c r="D172" s="16"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="20"/>
       <c r="E172" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="23"/>
-      <c r="D173" s="16" t="s">
+      <c r="C173" s="18"/>
+      <c r="D173" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E173" t="s">
@@ -4320,113 +4332,113 @@
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="23"/>
-      <c r="D174" s="16"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="20"/>
       <c r="E174" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="23"/>
-      <c r="D175" s="16"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="20"/>
       <c r="E175" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="23"/>
-      <c r="D176" s="16"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="20"/>
       <c r="E176" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="23"/>
-      <c r="D177" s="16"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="20"/>
       <c r="E177" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="23"/>
-      <c r="D178" s="16"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="20"/>
       <c r="E178" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="23"/>
-      <c r="D179" s="16"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="20"/>
       <c r="E179" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="23"/>
-      <c r="D180" s="16"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="20"/>
       <c r="E180" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="23"/>
-      <c r="D181" s="16"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="20"/>
       <c r="E181" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="23"/>
-      <c r="D182" s="16"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="20"/>
       <c r="E182" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="23"/>
-      <c r="D183" s="16"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="20"/>
       <c r="E183" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="23"/>
-      <c r="D184" s="16"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="20"/>
       <c r="E184" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="23"/>
-      <c r="D185" s="16"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="20"/>
       <c r="E185" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="23"/>
-      <c r="D186" s="16"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="20"/>
       <c r="E186" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="23"/>
-      <c r="D187" s="16"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="20"/>
       <c r="E187" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="23"/>
-      <c r="D188" s="16"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="20"/>
       <c r="E188" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="23"/>
-      <c r="D189" s="16" t="s">
+      <c r="C189" s="18"/>
+      <c r="D189" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E189" t="s">
@@ -4434,64 +4446,64 @@
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="23"/>
-      <c r="D190" s="16"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="20"/>
       <c r="E190" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C191" s="23"/>
-      <c r="D191" s="16"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="20"/>
       <c r="E191" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C192" s="23"/>
-      <c r="D192" s="16"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="20"/>
       <c r="E192" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="193" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C193" s="23"/>
-      <c r="D193" s="16"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="20"/>
       <c r="E193" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C194" s="23"/>
-      <c r="D194" s="16"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="20"/>
       <c r="E194" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C195" s="23"/>
-      <c r="D195" s="16"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="20"/>
       <c r="E195" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C196" s="23"/>
-      <c r="D196" s="16"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="20"/>
       <c r="E196" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C197" s="23"/>
-      <c r="D197" s="16"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="20"/>
       <c r="E197" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C198" s="23"/>
-      <c r="D198" s="16" t="s">
+      <c r="C198" s="18"/>
+      <c r="D198" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E198" t="s">
@@ -4499,92 +4511,92 @@
       </c>
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C199" s="23"/>
-      <c r="D199" s="16"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="20"/>
       <c r="E199" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C200" s="23"/>
-      <c r="D200" s="16"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="20"/>
       <c r="E200" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C201" s="23"/>
-      <c r="D201" s="16"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="20"/>
       <c r="E201" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C202" s="23"/>
-      <c r="D202" s="16"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="20"/>
       <c r="E202" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C203" s="23"/>
-      <c r="D203" s="16"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="20"/>
       <c r="E203" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C204" s="23"/>
-      <c r="D204" s="16"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="20"/>
       <c r="E204" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C205" s="23"/>
-      <c r="D205" s="16"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="20"/>
       <c r="E205" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C206" s="23"/>
-      <c r="D206" s="16"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="20"/>
       <c r="E206" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C207" s="23"/>
-      <c r="D207" s="16"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="20"/>
       <c r="E207" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C208" s="23"/>
-      <c r="D208" s="16"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="20"/>
       <c r="E208" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="209" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C209" s="23"/>
-      <c r="D209" s="16"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="20"/>
       <c r="E209" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="210" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C210" s="23"/>
-      <c r="D210" s="16"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="20"/>
       <c r="E210" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="211" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C211" s="23"/>
-      <c r="D211" s="16" t="s">
+      <c r="C211" s="18"/>
+      <c r="D211" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E211" t="s">
@@ -4592,24 +4604,24 @@
       </c>
     </row>
     <row r="212" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C212" s="23"/>
-      <c r="D212" s="16"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="20"/>
       <c r="E212" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="213" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C213" s="23"/>
-      <c r="D213" s="21" t="s">
+      <c r="C213" s="18"/>
+      <c r="D213" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E213" s="9" t="s">
+      <c r="E213" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F213" s="12" t="s">
+      <c r="F213" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="G213" s="11" t="s">
+      <c r="G213" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H213" s="7" t="s">
@@ -4617,13 +4629,13 @@
       </c>
     </row>
     <row r="214" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C214" s="23"/>
-      <c r="D214" s="21"/>
-      <c r="E214" s="9"/>
-      <c r="F214" s="10" t="s">
+      <c r="C214" s="18"/>
+      <c r="D214" s="25"/>
+      <c r="E214" s="26"/>
+      <c r="F214" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="G214" s="11" t="s">
+      <c r="G214" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H214" s="7" t="s">
@@ -4631,13 +4643,13 @@
       </c>
     </row>
     <row r="215" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C215" s="23"/>
-      <c r="D215" s="21"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="12" t="s">
+      <c r="C215" s="18"/>
+      <c r="D215" s="25"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="G215" s="11" t="s">
+      <c r="G215" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H215" s="7" t="s">
@@ -4645,13 +4657,13 @@
       </c>
     </row>
     <row r="216" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C216" s="23"/>
-      <c r="D216" s="21"/>
-      <c r="E216" s="9"/>
-      <c r="F216" s="10" t="s">
+      <c r="C216" s="18"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="G216" s="11" t="s">
+      <c r="G216" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H216" s="7" t="s">
@@ -4659,13 +4671,13 @@
       </c>
     </row>
     <row r="217" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C217" s="23"/>
-      <c r="D217" s="21"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="12" t="s">
+      <c r="C217" s="18"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="G217" s="11" t="s">
+      <c r="G217" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H217" s="7" t="s">
@@ -4673,13 +4685,13 @@
       </c>
     </row>
     <row r="218" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C218" s="23"/>
-      <c r="D218" s="21"/>
-      <c r="E218" s="9"/>
-      <c r="F218" s="10" t="s">
+      <c r="C218" s="18"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="G218" s="11" t="s">
+      <c r="G218" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H218" s="7" t="s">
@@ -4687,13 +4699,13 @@
       </c>
     </row>
     <row r="219" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C219" s="23"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="12" t="s">
+      <c r="C219" s="18"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="G219" s="11" t="s">
+      <c r="G219" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H219" s="7" t="s">
@@ -4701,13 +4713,13 @@
       </c>
     </row>
     <row r="220" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C220" s="23"/>
-      <c r="D220" s="21"/>
-      <c r="E220" s="9"/>
-      <c r="F220" s="10" t="s">
+      <c r="C220" s="18"/>
+      <c r="D220" s="25"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="G220" s="11" t="s">
+      <c r="G220" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H220" s="7" t="s">
@@ -4715,13 +4727,13 @@
       </c>
     </row>
     <row r="221" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C221" s="23"/>
-      <c r="D221" s="21"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="12" t="s">
+      <c r="C221" s="18"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="G221" s="11" t="s">
+      <c r="G221" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H221" s="7" t="s">
@@ -4729,13 +4741,13 @@
       </c>
     </row>
     <row r="222" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C222" s="23"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="10" t="s">
+      <c r="C222" s="18"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="26"/>
+      <c r="F222" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="G222" s="11" t="s">
+      <c r="G222" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H222" s="7" t="s">
@@ -4743,13 +4755,13 @@
       </c>
     </row>
     <row r="223" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C223" s="23"/>
-      <c r="D223" s="21"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="12" t="s">
+      <c r="C223" s="18"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="26"/>
+      <c r="F223" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="G223" s="11" t="s">
+      <c r="G223" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H223" s="7" t="s">
@@ -4757,13 +4769,13 @@
       </c>
     </row>
     <row r="224" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C224" s="23"/>
-      <c r="D224" s="21"/>
-      <c r="E224" s="9"/>
-      <c r="F224" s="10" t="s">
+      <c r="C224" s="18"/>
+      <c r="D224" s="25"/>
+      <c r="E224" s="26"/>
+      <c r="F224" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G224" s="11" t="s">
+      <c r="G224" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H224" s="7" t="s">
@@ -4771,13 +4783,13 @@
       </c>
     </row>
     <row r="225" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C225" s="23"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="9"/>
-      <c r="F225" s="12" t="s">
+      <c r="C225" s="18"/>
+      <c r="D225" s="25"/>
+      <c r="E225" s="26"/>
+      <c r="F225" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="G225" s="11" t="s">
+      <c r="G225" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H225" s="7" t="s">
@@ -4785,13 +4797,13 @@
       </c>
     </row>
     <row r="226" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C226" s="23"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="10" t="s">
+      <c r="C226" s="18"/>
+      <c r="D226" s="25"/>
+      <c r="E226" s="26"/>
+      <c r="F226" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="G226" s="11" t="s">
+      <c r="G226" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H226" s="7" t="s">
@@ -4799,13 +4811,13 @@
       </c>
     </row>
     <row r="227" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C227" s="23"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="9"/>
-      <c r="F227" s="12" t="s">
+      <c r="C227" s="18"/>
+      <c r="D227" s="25"/>
+      <c r="E227" s="26"/>
+      <c r="F227" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="G227" s="11" t="s">
+      <c r="G227" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H227" s="7" t="s">
@@ -4813,13 +4825,13 @@
       </c>
     </row>
     <row r="228" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C228" s="23"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="9"/>
-      <c r="F228" s="10" t="s">
+      <c r="C228" s="18"/>
+      <c r="D228" s="25"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="G228" s="11" t="s">
+      <c r="G228" s="10" t="s">
         <v>550</v>
       </c>
       <c r="H228" s="7" t="s">
@@ -4827,12 +4839,12 @@
       </c>
     </row>
     <row r="229" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C229" s="23"/>
-      <c r="D229" s="21"/>
-      <c r="E229" s="10" t="s">
+      <c r="C229" s="18"/>
+      <c r="D229" s="25"/>
+      <c r="E229" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F229" s="11" t="s">
+      <c r="F229" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G229" s="7" t="s">
@@ -4840,12 +4852,12 @@
       </c>
     </row>
     <row r="230" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C230" s="23"/>
-      <c r="D230" s="21"/>
-      <c r="E230" s="12" t="s">
+      <c r="C230" s="18"/>
+      <c r="D230" s="25"/>
+      <c r="E230" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F230" s="11" t="s">
+      <c r="F230" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G230" s="7" t="s">
@@ -4853,12 +4865,12 @@
       </c>
     </row>
     <row r="231" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C231" s="23"/>
-      <c r="D231" s="21"/>
-      <c r="E231" s="10" t="s">
+      <c r="C231" s="18"/>
+      <c r="D231" s="25"/>
+      <c r="E231" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F231" s="11" t="s">
+      <c r="F231" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G231" s="7" t="s">
@@ -4866,12 +4878,12 @@
       </c>
     </row>
     <row r="232" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C232" s="23"/>
-      <c r="D232" s="21"/>
-      <c r="E232" s="9" t="s">
+      <c r="C232" s="18"/>
+      <c r="D232" s="25"/>
+      <c r="E232" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F232" s="10" t="s">
+      <c r="F232" s="9" t="s">
         <v>554</v>
       </c>
       <c r="G232" s="6" t="s">
@@ -4882,10 +4894,10 @@
       </c>
     </row>
     <row r="233" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C233" s="23"/>
-      <c r="D233" s="21"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="10" t="s">
+      <c r="C233" s="18"/>
+      <c r="D233" s="25"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="9" t="s">
         <v>555</v>
       </c>
       <c r="G233" s="6" t="s">
@@ -4896,10 +4908,10 @@
       </c>
     </row>
     <row r="234" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C234" s="23"/>
-      <c r="D234" s="21"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="10" t="s">
+      <c r="C234" s="18"/>
+      <c r="D234" s="25"/>
+      <c r="E234" s="16"/>
+      <c r="F234" s="9" t="s">
         <v>556</v>
       </c>
       <c r="G234" s="6" t="s">
@@ -4910,12 +4922,12 @@
       </c>
     </row>
     <row r="235" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C235" s="23"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="10" t="s">
+      <c r="C235" s="18"/>
+      <c r="D235" s="25"/>
+      <c r="E235" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F235" s="11" t="s">
+      <c r="F235" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G235" s="8" t="s">
@@ -4923,12 +4935,12 @@
       </c>
     </row>
     <row r="236" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C236" s="23"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="9" t="s">
+      <c r="C236" s="18"/>
+      <c r="D236" s="25"/>
+      <c r="E236" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F236" s="10" t="s">
+      <c r="F236" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G236" s="6" t="s">
@@ -4939,10 +4951,10 @@
       </c>
     </row>
     <row r="237" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C237" s="23"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="10" t="s">
+      <c r="C237" s="18"/>
+      <c r="D237" s="25"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="9" t="s">
         <v>562</v>
       </c>
       <c r="G237" s="6" t="s">
@@ -4953,10 +4965,10 @@
       </c>
     </row>
     <row r="238" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C238" s="23"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="10" t="s">
+      <c r="C238" s="18"/>
+      <c r="D238" s="25"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="9" t="s">
         <v>563</v>
       </c>
       <c r="G238" s="6" t="s">
@@ -4967,10 +4979,10 @@
       </c>
     </row>
     <row r="239" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C239" s="23"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="9"/>
-      <c r="F239" s="10" t="s">
+      <c r="C239" s="18"/>
+      <c r="D239" s="25"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="9" t="s">
         <v>564</v>
       </c>
       <c r="G239" s="6" t="s">
@@ -4981,10 +4993,10 @@
       </c>
     </row>
     <row r="240" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C240" s="23"/>
-      <c r="D240" s="21"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="10" t="s">
+      <c r="C240" s="18"/>
+      <c r="D240" s="25"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="9" t="s">
         <v>565</v>
       </c>
       <c r="G240" s="6" t="s">
@@ -4995,10 +5007,10 @@
       </c>
     </row>
     <row r="241" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C241" s="23"/>
-      <c r="D241" s="21"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="10" t="s">
+      <c r="C241" s="18"/>
+      <c r="D241" s="25"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="9" t="s">
         <v>98</v>
       </c>
       <c r="G241" s="6" t="s">
@@ -5009,12 +5021,12 @@
       </c>
     </row>
     <row r="242" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C242" s="23"/>
-      <c r="D242" s="21"/>
-      <c r="E242" s="10" t="s">
+      <c r="C242" s="18"/>
+      <c r="D242" s="25"/>
+      <c r="E242" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F242" s="11" t="s">
+      <c r="F242" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G242" s="7" t="s">
@@ -5022,12 +5034,12 @@
       </c>
     </row>
     <row r="243" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C243" s="23"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="12" t="s">
+      <c r="C243" s="18"/>
+      <c r="D243" s="25"/>
+      <c r="E243" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F243" s="11" t="s">
+      <c r="F243" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G243" s="7" t="s">
@@ -5035,12 +5047,12 @@
       </c>
     </row>
     <row r="244" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C244" s="23"/>
-      <c r="D244" s="21"/>
-      <c r="E244" s="13" t="s">
+      <c r="C244" s="18"/>
+      <c r="D244" s="25"/>
+      <c r="E244" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F244" s="10" t="s">
+      <c r="F244" s="9" t="s">
         <v>574</v>
       </c>
       <c r="G244" s="6" t="s">
@@ -5051,10 +5063,10 @@
       </c>
     </row>
     <row r="245" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C245" s="23"/>
-      <c r="D245" s="21"/>
-      <c r="E245" s="13"/>
-      <c r="F245" s="10" t="s">
+      <c r="C245" s="18"/>
+      <c r="D245" s="25"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="9" t="s">
         <v>575</v>
       </c>
       <c r="G245" s="6" t="s">
@@ -5065,10 +5077,10 @@
       </c>
     </row>
     <row r="246" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C246" s="23"/>
-      <c r="D246" s="21"/>
-      <c r="E246" s="13"/>
-      <c r="F246" s="10" t="s">
+      <c r="C246" s="18"/>
+      <c r="D246" s="25"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="9" t="s">
         <v>576</v>
       </c>
       <c r="G246" s="6" t="s">
@@ -5079,10 +5091,10 @@
       </c>
     </row>
     <row r="247" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C247" s="23"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="13"/>
-      <c r="F247" s="10" t="s">
+      <c r="C247" s="18"/>
+      <c r="D247" s="25"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="9" t="s">
         <v>577</v>
       </c>
       <c r="G247" s="6" t="s">
@@ -5093,10 +5105,10 @@
       </c>
     </row>
     <row r="248" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C248" s="23"/>
-      <c r="D248" s="21"/>
-      <c r="E248" s="13"/>
-      <c r="F248" s="10" t="s">
+      <c r="C248" s="18"/>
+      <c r="D248" s="25"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="9" t="s">
         <v>244</v>
       </c>
       <c r="G248" s="6" t="s">
@@ -5107,10 +5119,10 @@
       </c>
     </row>
     <row r="249" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C249" s="23"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="10" t="s">
+      <c r="C249" s="18"/>
+      <c r="D249" s="25"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="9" t="s">
         <v>578</v>
       </c>
       <c r="G249" s="6" t="s">
@@ -5121,10 +5133,10 @@
       </c>
     </row>
     <row r="250" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C250" s="23"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="10" t="s">
+      <c r="C250" s="18"/>
+      <c r="D250" s="25"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="9" t="s">
         <v>579</v>
       </c>
       <c r="G250" s="6" t="s">
@@ -5135,12 +5147,12 @@
       </c>
     </row>
     <row r="251" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C251" s="23"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="12" t="s">
+      <c r="C251" s="18"/>
+      <c r="D251" s="25"/>
+      <c r="E251" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F251" s="11" t="s">
+      <c r="F251" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G251" s="7" t="s">
@@ -5148,12 +5160,12 @@
       </c>
     </row>
     <row r="252" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C252" s="23"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="10" t="s">
+      <c r="C252" s="18"/>
+      <c r="D252" s="25"/>
+      <c r="E252" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F252" s="11" t="s">
+      <c r="F252" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G252" s="7" t="s">
@@ -5161,12 +5173,12 @@
       </c>
     </row>
     <row r="253" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C253" s="23"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="12" t="s">
+      <c r="C253" s="18"/>
+      <c r="D253" s="25"/>
+      <c r="E253" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F253" s="11" t="s">
+      <c r="F253" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G253" s="7" t="s">
@@ -5174,12 +5186,12 @@
       </c>
     </row>
     <row r="254" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C254" s="23"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="10" t="s">
+      <c r="C254" s="18"/>
+      <c r="D254" s="25"/>
+      <c r="E254" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F254" s="11" t="s">
+      <c r="F254" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G254" s="7" t="s">
@@ -5187,12 +5199,12 @@
       </c>
     </row>
     <row r="255" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C255" s="23"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="12" t="s">
+      <c r="C255" s="18"/>
+      <c r="D255" s="25"/>
+      <c r="E255" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F255" s="11" t="s">
+      <c r="F255" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G255" s="7" t="s">
@@ -5200,12 +5212,12 @@
       </c>
     </row>
     <row r="256" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C256" s="23"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="10" t="s">
+      <c r="C256" s="18"/>
+      <c r="D256" s="25"/>
+      <c r="E256" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F256" s="11" t="s">
+      <c r="F256" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G256" s="7" t="s">
@@ -5213,12 +5225,12 @@
       </c>
     </row>
     <row r="257" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C257" s="23"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="12" t="s">
+      <c r="C257" s="18"/>
+      <c r="D257" s="25"/>
+      <c r="E257" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F257" s="11" t="s">
+      <c r="F257" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G257" s="7" t="s">
@@ -5226,12 +5238,12 @@
       </c>
     </row>
     <row r="258" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C258" s="23"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="10" t="s">
+      <c r="C258" s="18"/>
+      <c r="D258" s="25"/>
+      <c r="E258" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F258" s="11" t="s">
+      <c r="F258" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G258" s="7" t="s">
@@ -5239,12 +5251,12 @@
       </c>
     </row>
     <row r="259" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C259" s="23"/>
-      <c r="D259" s="21"/>
-      <c r="E259" s="12" t="s">
+      <c r="C259" s="18"/>
+      <c r="D259" s="25"/>
+      <c r="E259" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F259" s="11" t="s">
+      <c r="F259" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G259" s="7" t="s">
@@ -5252,12 +5264,12 @@
       </c>
     </row>
     <row r="260" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C260" s="23"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="10" t="s">
+      <c r="C260" s="18"/>
+      <c r="D260" s="25"/>
+      <c r="E260" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F260" s="11" t="s">
+      <c r="F260" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G260" s="7" t="s">
@@ -5265,12 +5277,12 @@
       </c>
     </row>
     <row r="261" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C261" s="23"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="12" t="s">
+      <c r="C261" s="18"/>
+      <c r="D261" s="25"/>
+      <c r="E261" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F261" s="11" t="s">
+      <c r="F261" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G261" s="7" t="s">
@@ -5278,12 +5290,12 @@
       </c>
     </row>
     <row r="262" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C262" s="23"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="10" t="s">
+      <c r="C262" s="18"/>
+      <c r="D262" s="25"/>
+      <c r="E262" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F262" s="11" t="s">
+      <c r="F262" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G262" s="7" t="s">
@@ -5291,12 +5303,12 @@
       </c>
     </row>
     <row r="263" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C263" s="23"/>
-      <c r="D263" s="21"/>
-      <c r="E263" s="12" t="s">
+      <c r="C263" s="18"/>
+      <c r="D263" s="25"/>
+      <c r="E263" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F263" s="11" t="s">
+      <c r="F263" s="10" t="s">
         <v>550</v>
       </c>
       <c r="G263" s="7" t="s">
@@ -5304,12 +5316,12 @@
       </c>
     </row>
     <row r="264" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C264" s="23"/>
-      <c r="D264" s="21"/>
-      <c r="E264" s="10" t="s">
+      <c r="C264" s="18"/>
+      <c r="D264" s="25"/>
+      <c r="E264" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F264" s="14" t="s">
+      <c r="F264" s="12" t="s">
         <v>601</v>
       </c>
       <c r="G264" s="7" t="s">
@@ -5317,8 +5329,8 @@
       </c>
     </row>
     <row r="265" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C265" s="23"/>
-      <c r="D265" s="16" t="s">
+      <c r="C265" s="18"/>
+      <c r="D265" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E265" t="s">
@@ -5326,106 +5338,106 @@
       </c>
     </row>
     <row r="266" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C266" s="23"/>
-      <c r="D266" s="16"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="20"/>
       <c r="E266" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="267" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C267" s="23"/>
-      <c r="D267" s="16"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="20"/>
       <c r="E267" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="268" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C268" s="23"/>
-      <c r="D268" s="16"/>
+      <c r="C268" s="18"/>
+      <c r="D268" s="20"/>
       <c r="E268" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="269" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C269" s="23"/>
-      <c r="D269" s="16"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="20"/>
       <c r="E269" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="270" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C270" s="23"/>
-      <c r="D270" s="16"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="20"/>
       <c r="E270" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="271" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C271" s="23"/>
-      <c r="D271" s="16"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="20"/>
       <c r="E271" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="272" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C272" s="23"/>
-      <c r="D272" s="16"/>
+      <c r="C272" s="18"/>
+      <c r="D272" s="20"/>
       <c r="E272" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="273" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C273" s="23"/>
-      <c r="D273" s="16"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="20"/>
       <c r="E273" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="274" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C274" s="23"/>
-      <c r="D274" s="16"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="20"/>
       <c r="E274" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="275" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C275" s="23"/>
-      <c r="D275" s="16"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="20"/>
       <c r="E275" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="276" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C276" s="23"/>
-      <c r="D276" s="16"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="20"/>
       <c r="E276" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="277" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C277" s="23"/>
-      <c r="D277" s="16"/>
+      <c r="C277" s="18"/>
+      <c r="D277" s="20"/>
       <c r="E277" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="278" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C278" s="23"/>
-      <c r="D278" s="16"/>
+      <c r="C278" s="18"/>
+      <c r="D278" s="20"/>
       <c r="E278" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="279" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C279" s="23"/>
-      <c r="D279" s="16"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="20"/>
       <c r="E279" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="280" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C280" s="23"/>
-      <c r="D280" s="16" t="s">
+      <c r="C280" s="18"/>
+      <c r="D280" s="20" t="s">
         <v>53</v>
       </c>
       <c r="E280" t="s">
@@ -5433,64 +5445,64 @@
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C281" s="23"/>
-      <c r="D281" s="16"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="20"/>
       <c r="E281" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="282" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C282" s="23"/>
-      <c r="D282" s="16"/>
+      <c r="C282" s="18"/>
+      <c r="D282" s="20"/>
       <c r="E282" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="283" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C283" s="23"/>
-      <c r="D283" s="16"/>
+      <c r="C283" s="18"/>
+      <c r="D283" s="20"/>
       <c r="E283" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C284" s="23"/>
-      <c r="D284" s="16"/>
+      <c r="C284" s="18"/>
+      <c r="D284" s="20"/>
       <c r="E284" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="285" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C285" s="23"/>
-      <c r="D285" s="16"/>
+      <c r="C285" s="18"/>
+      <c r="D285" s="20"/>
       <c r="E285" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="286" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C286" s="23"/>
-      <c r="D286" s="16"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="20"/>
       <c r="E286" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="287" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C287" s="23"/>
-      <c r="D287" s="16"/>
+      <c r="C287" s="18"/>
+      <c r="D287" s="20"/>
       <c r="E287" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C288" s="23"/>
-      <c r="D288" s="16"/>
+      <c r="C288" s="18"/>
+      <c r="D288" s="20"/>
       <c r="E288" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="289" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C289" s="23"/>
-      <c r="D289" s="16" t="s">
+      <c r="C289" s="18"/>
+      <c r="D289" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E289" t="s">
@@ -5498,29 +5510,29 @@
       </c>
     </row>
     <row r="290" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C290" s="23"/>
-      <c r="D290" s="16"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="20"/>
       <c r="E290" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C291" s="23"/>
-      <c r="D291" s="16"/>
+      <c r="C291" s="18"/>
+      <c r="D291" s="20"/>
       <c r="E291" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="292" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C292" s="23"/>
-      <c r="D292" s="16"/>
+      <c r="C292" s="18"/>
+      <c r="D292" s="20"/>
       <c r="E292" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C293" s="23"/>
-      <c r="D293" s="16" t="s">
+      <c r="C293" s="18"/>
+      <c r="D293" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E293" t="s">
@@ -5528,106 +5540,106 @@
       </c>
     </row>
     <row r="294" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C294" s="23"/>
-      <c r="D294" s="16"/>
+      <c r="C294" s="18"/>
+      <c r="D294" s="20"/>
       <c r="E294" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="295" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C295" s="23"/>
-      <c r="D295" s="16"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="20"/>
       <c r="E295" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C296" s="23"/>
-      <c r="D296" s="16"/>
+      <c r="C296" s="18"/>
+      <c r="D296" s="20"/>
       <c r="E296" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="297" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C297" s="23"/>
-      <c r="D297" s="16"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="20"/>
       <c r="E297" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C298" s="23"/>
-      <c r="D298" s="16"/>
+      <c r="C298" s="18"/>
+      <c r="D298" s="20"/>
       <c r="E298" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="299" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C299" s="23"/>
-      <c r="D299" s="16"/>
+      <c r="C299" s="18"/>
+      <c r="D299" s="20"/>
       <c r="E299" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="300" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C300" s="23"/>
-      <c r="D300" s="16"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="20"/>
       <c r="E300" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="301" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C301" s="23"/>
-      <c r="D301" s="16"/>
+      <c r="C301" s="18"/>
+      <c r="D301" s="20"/>
       <c r="E301" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C302" s="23"/>
-      <c r="D302" s="16"/>
+      <c r="C302" s="18"/>
+      <c r="D302" s="20"/>
       <c r="E302" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="303" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C303" s="23"/>
-      <c r="D303" s="16"/>
+      <c r="C303" s="18"/>
+      <c r="D303" s="20"/>
       <c r="E303" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="304" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C304" s="23"/>
-      <c r="D304" s="16"/>
+      <c r="C304" s="18"/>
+      <c r="D304" s="20"/>
       <c r="E304" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C305" s="23"/>
-      <c r="D305" s="16"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="20"/>
       <c r="E305" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="306" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C306" s="23"/>
-      <c r="D306" s="16"/>
+      <c r="C306" s="18"/>
+      <c r="D306" s="20"/>
       <c r="E306" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="307" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C307" s="23"/>
-      <c r="D307" s="16"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="20"/>
       <c r="E307" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C308" s="23"/>
-      <c r="D308" s="16" t="s">
+      <c r="C308" s="18"/>
+      <c r="D308" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E308" t="s">
@@ -5635,77 +5647,77 @@
       </c>
     </row>
     <row r="309" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C309" s="23"/>
-      <c r="D309" s="16"/>
+      <c r="C309" s="18"/>
+      <c r="D309" s="20"/>
       <c r="E309" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="310" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C310" s="23"/>
-      <c r="D310" s="16"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="20"/>
       <c r="E310" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C311" s="23"/>
-      <c r="D311" s="16"/>
+      <c r="C311" s="18"/>
+      <c r="D311" s="20"/>
       <c r="E311" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="312" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C312" s="23"/>
-      <c r="D312" s="16"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="20"/>
       <c r="E312" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="313" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C313" s="23"/>
-      <c r="D313" s="16"/>
+      <c r="C313" s="18"/>
+      <c r="D313" s="20"/>
       <c r="E313" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="314" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C314" s="23"/>
-      <c r="D314" s="16"/>
+      <c r="C314" s="18"/>
+      <c r="D314" s="20"/>
       <c r="E314" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C315" s="23"/>
-      <c r="D315" s="16"/>
+      <c r="C315" s="18"/>
+      <c r="D315" s="20"/>
       <c r="E315" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C316" s="23"/>
-      <c r="D316" s="16"/>
+      <c r="C316" s="18"/>
+      <c r="D316" s="20"/>
       <c r="E316" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="317" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C317" s="23"/>
-      <c r="D317" s="16"/>
+      <c r="C317" s="18"/>
+      <c r="D317" s="20"/>
       <c r="E317" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="318" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C318" s="23"/>
-      <c r="D318" s="16"/>
+      <c r="C318" s="18"/>
+      <c r="D318" s="20"/>
       <c r="E318" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C319" s="23"/>
+      <c r="C319" s="18"/>
       <c r="D319" s="5" t="s">
         <v>63</v>
       </c>
@@ -5714,8 +5726,8 @@
       </c>
     </row>
     <row r="320" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C320" s="23"/>
-      <c r="D320" s="16" t="s">
+      <c r="C320" s="18"/>
+      <c r="D320" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E320" t="s">
@@ -5723,57 +5735,57 @@
       </c>
     </row>
     <row r="321" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C321" s="23"/>
-      <c r="D321" s="16"/>
+      <c r="C321" s="18"/>
+      <c r="D321" s="20"/>
       <c r="E321" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="322" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C322" s="23"/>
-      <c r="D322" s="16"/>
+      <c r="C322" s="18"/>
+      <c r="D322" s="20"/>
       <c r="E322" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="323" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C323" s="23"/>
-      <c r="D323" s="16"/>
+      <c r="C323" s="18"/>
+      <c r="D323" s="20"/>
       <c r="E323" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="324" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C324" s="23"/>
-      <c r="D324" s="16"/>
+      <c r="C324" s="18"/>
+      <c r="D324" s="20"/>
       <c r="E324" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="325" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C325" s="23"/>
-      <c r="D325" s="16"/>
+      <c r="C325" s="18"/>
+      <c r="D325" s="20"/>
       <c r="E325" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="326" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C326" s="23"/>
-      <c r="D326" s="16"/>
+      <c r="C326" s="18"/>
+      <c r="D326" s="20"/>
       <c r="E326" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="327" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C327" s="23"/>
-      <c r="D327" s="16"/>
+      <c r="C327" s="18"/>
+      <c r="D327" s="20"/>
       <c r="E327" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="328" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C328" s="23"/>
-      <c r="D328" s="16" t="s">
+      <c r="C328" s="18"/>
+      <c r="D328" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E328" t="s">
@@ -5781,99 +5793,99 @@
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C329" s="23"/>
-      <c r="D329" s="16"/>
+      <c r="C329" s="18"/>
+      <c r="D329" s="20"/>
       <c r="E329" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="330" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C330" s="23"/>
-      <c r="D330" s="16"/>
+      <c r="C330" s="18"/>
+      <c r="D330" s="20"/>
       <c r="E330" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="331" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C331" s="23"/>
-      <c r="D331" s="16"/>
+      <c r="C331" s="18"/>
+      <c r="D331" s="20"/>
       <c r="E331" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C332" s="23"/>
-      <c r="D332" s="16"/>
+      <c r="C332" s="18"/>
+      <c r="D332" s="20"/>
       <c r="E332" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="333" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C333" s="23"/>
-      <c r="D333" s="16"/>
+      <c r="C333" s="18"/>
+      <c r="D333" s="20"/>
       <c r="E333" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C334" s="23"/>
-      <c r="D334" s="16"/>
+      <c r="C334" s="18"/>
+      <c r="D334" s="20"/>
       <c r="E334" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="335" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C335" s="23"/>
-      <c r="D335" s="16"/>
+      <c r="C335" s="18"/>
+      <c r="D335" s="20"/>
       <c r="E335" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="336" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C336" s="23"/>
-      <c r="D336" s="16"/>
+      <c r="C336" s="18"/>
+      <c r="D336" s="20"/>
       <c r="E336" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C337" s="23"/>
-      <c r="D337" s="16"/>
+      <c r="C337" s="18"/>
+      <c r="D337" s="20"/>
       <c r="E337" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="338" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C338" s="23"/>
-      <c r="D338" s="16"/>
+      <c r="C338" s="18"/>
+      <c r="D338" s="20"/>
       <c r="E338" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="339" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C339" s="23"/>
-      <c r="D339" s="16"/>
+      <c r="C339" s="18"/>
+      <c r="D339" s="20"/>
       <c r="E339" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="340" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C340" s="23"/>
-      <c r="D340" s="16"/>
+      <c r="C340" s="18"/>
+      <c r="D340" s="20"/>
       <c r="E340" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="341" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C341" s="23"/>
-      <c r="D341" s="16"/>
+      <c r="C341" s="18"/>
+      <c r="D341" s="20"/>
       <c r="E341" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="342" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C342" s="23"/>
-      <c r="D342" s="18" t="s">
+      <c r="C342" s="18"/>
+      <c r="D342" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E342" t="s">
@@ -5881,15 +5893,15 @@
       </c>
     </row>
     <row r="343" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C343" s="23"/>
-      <c r="D343" s="18"/>
+      <c r="C343" s="18"/>
+      <c r="D343" s="23"/>
       <c r="E343" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C344" s="23"/>
-      <c r="D344" s="16" t="s">
+      <c r="C344" s="18"/>
+      <c r="D344" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E344" t="s">
@@ -5897,92 +5909,92 @@
       </c>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C345" s="23"/>
-      <c r="D345" s="16"/>
+      <c r="C345" s="18"/>
+      <c r="D345" s="20"/>
       <c r="E345" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C346" s="23"/>
-      <c r="D346" s="16"/>
+      <c r="C346" s="18"/>
+      <c r="D346" s="20"/>
       <c r="E346" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C347" s="23"/>
-      <c r="D347" s="16"/>
+      <c r="C347" s="18"/>
+      <c r="D347" s="20"/>
       <c r="E347" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="348" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C348" s="23"/>
-      <c r="D348" s="16"/>
+      <c r="C348" s="18"/>
+      <c r="D348" s="20"/>
       <c r="E348" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="349" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C349" s="23"/>
-      <c r="D349" s="16"/>
+      <c r="C349" s="18"/>
+      <c r="D349" s="20"/>
       <c r="E349" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="350" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C350" s="23"/>
-      <c r="D350" s="16"/>
+      <c r="C350" s="18"/>
+      <c r="D350" s="20"/>
       <c r="E350" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C351" s="23"/>
-      <c r="D351" s="16"/>
+      <c r="C351" s="18"/>
+      <c r="D351" s="20"/>
       <c r="E351" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C352" s="23"/>
-      <c r="D352" s="16"/>
+      <c r="C352" s="18"/>
+      <c r="D352" s="20"/>
       <c r="E352" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C353" s="23"/>
-      <c r="D353" s="16"/>
+      <c r="C353" s="18"/>
+      <c r="D353" s="20"/>
       <c r="E353" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C354" s="23"/>
-      <c r="D354" s="16"/>
+      <c r="C354" s="18"/>
+      <c r="D354" s="20"/>
       <c r="E354" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C355" s="23"/>
-      <c r="D355" s="16"/>
+      <c r="C355" s="18"/>
+      <c r="D355" s="20"/>
       <c r="E355" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="356" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C356" s="23"/>
-      <c r="D356" s="16"/>
+      <c r="C356" s="18"/>
+      <c r="D356" s="20"/>
       <c r="E356" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="357" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C357" s="23"/>
-      <c r="D357" s="16" t="s">
+      <c r="C357" s="18"/>
+      <c r="D357" s="20" t="s">
         <v>33</v>
       </c>
       <c r="E357" t="s">
@@ -5990,70 +6002,70 @@
       </c>
     </row>
     <row r="358" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C358" s="23"/>
-      <c r="D358" s="16"/>
+      <c r="C358" s="18"/>
+      <c r="D358" s="20"/>
       <c r="E358" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="359" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C359" s="23"/>
-      <c r="D359" s="16"/>
+      <c r="C359" s="18"/>
+      <c r="D359" s="20"/>
       <c r="E359" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C360" s="23"/>
-      <c r="D360" s="16"/>
+      <c r="C360" s="18"/>
+      <c r="D360" s="20"/>
       <c r="E360" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C361" s="23"/>
-      <c r="D361" s="16"/>
+      <c r="C361" s="18"/>
+      <c r="D361" s="20"/>
       <c r="E361" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="362" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C362" s="23"/>
-      <c r="D362" s="16"/>
+      <c r="C362" s="18"/>
+      <c r="D362" s="20"/>
       <c r="E362" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="363" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C363" s="23"/>
-      <c r="D363" s="16"/>
+      <c r="C363" s="18"/>
+      <c r="D363" s="20"/>
       <c r="E363" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="364" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C364" s="23"/>
-      <c r="D364" s="16"/>
+      <c r="C364" s="18"/>
+      <c r="D364" s="20"/>
       <c r="E364" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="365" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C365" s="23"/>
-      <c r="D365" s="16"/>
+      <c r="C365" s="18"/>
+      <c r="D365" s="20"/>
       <c r="E365" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C366" s="23"/>
-      <c r="D366" s="16"/>
+      <c r="C366" s="18"/>
+      <c r="D366" s="20"/>
       <c r="E366" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="367" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C367" s="23"/>
+      <c r="C367" s="18"/>
       <c r="D367" s="5" t="s">
         <v>73</v>
       </c>
@@ -6062,8 +6074,8 @@
       </c>
     </row>
     <row r="368" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C368" s="23"/>
-      <c r="D368" s="16" t="s">
+      <c r="C368" s="18"/>
+      <c r="D368" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E368" t="s">
@@ -6071,330 +6083,330 @@
       </c>
     </row>
     <row r="369" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C369" s="23"/>
-      <c r="D369" s="16"/>
+      <c r="C369" s="18"/>
+      <c r="D369" s="20"/>
       <c r="E369" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="370" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C370" s="23"/>
-      <c r="D370" s="16"/>
+      <c r="C370" s="18"/>
+      <c r="D370" s="20"/>
       <c r="E370" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C371" s="23"/>
-      <c r="D371" s="16"/>
+      <c r="C371" s="18"/>
+      <c r="D371" s="20"/>
       <c r="E371" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="372" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C372" s="23"/>
-      <c r="D372" s="16"/>
+      <c r="C372" s="18"/>
+      <c r="D372" s="20"/>
       <c r="E372" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="373" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C373" s="23"/>
-      <c r="D373" s="16"/>
+      <c r="C373" s="18"/>
+      <c r="D373" s="20"/>
       <c r="E373" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C374" s="23"/>
-      <c r="D374" s="16"/>
+      <c r="C374" s="18"/>
+      <c r="D374" s="20"/>
       <c r="E374" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="375" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C375" s="23"/>
-      <c r="D375" s="16"/>
+      <c r="C375" s="18"/>
+      <c r="D375" s="20"/>
       <c r="E375" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="376" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C376" s="23"/>
-      <c r="D376" s="16"/>
+      <c r="C376" s="18"/>
+      <c r="D376" s="20"/>
       <c r="E376" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C377" s="23"/>
-      <c r="D377" s="16"/>
+      <c r="C377" s="18"/>
+      <c r="D377" s="20"/>
       <c r="E377" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="378" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C378" s="23"/>
-      <c r="D378" s="16"/>
+      <c r="C378" s="18"/>
+      <c r="D378" s="20"/>
       <c r="E378" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="379" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C379" s="23"/>
-      <c r="D379" s="16"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="20"/>
       <c r="E379" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C380" s="23"/>
-      <c r="D380" s="16"/>
+      <c r="C380" s="18"/>
+      <c r="D380" s="20"/>
       <c r="E380" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="381" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C381" s="23"/>
-      <c r="D381" s="16"/>
+      <c r="C381" s="18"/>
+      <c r="D381" s="20"/>
       <c r="E381" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="382" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C382" s="23"/>
-      <c r="D382" s="16"/>
+      <c r="C382" s="18"/>
+      <c r="D382" s="20"/>
       <c r="E382" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C383" s="23"/>
-      <c r="D383" s="16"/>
+      <c r="C383" s="18"/>
+      <c r="D383" s="20"/>
       <c r="E383" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="384" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C384" s="23"/>
-      <c r="D384" s="16"/>
+      <c r="C384" s="18"/>
+      <c r="D384" s="20"/>
       <c r="E384" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="385" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C385" s="23"/>
-      <c r="D385" s="16"/>
+      <c r="C385" s="18"/>
+      <c r="D385" s="20"/>
       <c r="E385" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C386" s="23"/>
-      <c r="D386" s="16"/>
+      <c r="C386" s="18"/>
+      <c r="D386" s="20"/>
       <c r="E386" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="387" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C387" s="23"/>
-      <c r="D387" s="16"/>
+      <c r="C387" s="18"/>
+      <c r="D387" s="20"/>
       <c r="E387" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="388" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C388" s="23"/>
-      <c r="D388" s="16"/>
+      <c r="C388" s="18"/>
+      <c r="D388" s="20"/>
       <c r="E388" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C389" s="23"/>
-      <c r="D389" s="16"/>
+      <c r="C389" s="18"/>
+      <c r="D389" s="20"/>
       <c r="E389" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="390" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C390" s="23"/>
-      <c r="D390" s="16"/>
+      <c r="C390" s="18"/>
+      <c r="D390" s="20"/>
       <c r="E390" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="391" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C391" s="23"/>
-      <c r="D391" s="16"/>
+      <c r="C391" s="18"/>
+      <c r="D391" s="20"/>
       <c r="E391" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C392" s="23"/>
-      <c r="D392" s="16"/>
+      <c r="C392" s="18"/>
+      <c r="D392" s="20"/>
       <c r="E392" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="393" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C393" s="23"/>
-      <c r="D393" s="16"/>
+      <c r="C393" s="18"/>
+      <c r="D393" s="20"/>
       <c r="E393" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="394" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C394" s="23"/>
-      <c r="D394" s="16"/>
+      <c r="C394" s="18"/>
+      <c r="D394" s="20"/>
       <c r="E394" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C395" s="23"/>
-      <c r="D395" s="16"/>
+      <c r="C395" s="18"/>
+      <c r="D395" s="20"/>
       <c r="E395" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="396" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C396" s="23"/>
-      <c r="D396" s="16"/>
+      <c r="C396" s="18"/>
+      <c r="D396" s="20"/>
       <c r="E396" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="397" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C397" s="23"/>
-      <c r="D397" s="16"/>
+      <c r="C397" s="18"/>
+      <c r="D397" s="20"/>
       <c r="E397" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="398" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C398" s="23"/>
-      <c r="D398" s="16"/>
+      <c r="C398" s="18"/>
+      <c r="D398" s="20"/>
       <c r="E398" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C399" s="23"/>
-      <c r="D399" s="16"/>
+      <c r="C399" s="18"/>
+      <c r="D399" s="20"/>
       <c r="E399" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="400" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C400" s="23"/>
-      <c r="D400" s="16"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="20"/>
       <c r="E400" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C401" s="23"/>
-      <c r="D401" s="16"/>
+      <c r="C401" s="18"/>
+      <c r="D401" s="20"/>
       <c r="E401" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="402" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C402" s="23"/>
-      <c r="D402" s="16"/>
+      <c r="C402" s="18"/>
+      <c r="D402" s="20"/>
       <c r="E402" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="403" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C403" s="23"/>
-      <c r="D403" s="16"/>
+      <c r="C403" s="18"/>
+      <c r="D403" s="20"/>
       <c r="E403" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="404" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C404" s="23"/>
-      <c r="D404" s="16"/>
+      <c r="C404" s="18"/>
+      <c r="D404" s="20"/>
       <c r="E404" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C405" s="23"/>
-      <c r="D405" s="16"/>
+      <c r="C405" s="18"/>
+      <c r="D405" s="20"/>
       <c r="E405" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C406" s="23"/>
-      <c r="D406" s="16"/>
+      <c r="C406" s="18"/>
+      <c r="D406" s="20"/>
       <c r="E406" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C407" s="23"/>
-      <c r="D407" s="16"/>
+      <c r="C407" s="18"/>
+      <c r="D407" s="20"/>
       <c r="E407" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C408" s="23"/>
-      <c r="D408" s="16"/>
+      <c r="C408" s="18"/>
+      <c r="D408" s="20"/>
       <c r="E408" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="409" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C409" s="23"/>
-      <c r="D409" s="16"/>
+      <c r="C409" s="18"/>
+      <c r="D409" s="20"/>
       <c r="E409" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="410" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C410" s="23"/>
-      <c r="D410" s="16"/>
+      <c r="C410" s="18"/>
+      <c r="D410" s="20"/>
       <c r="E410" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C411" s="23"/>
-      <c r="D411" s="16"/>
+      <c r="C411" s="18"/>
+      <c r="D411" s="20"/>
       <c r="E411" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="412" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C412" s="23"/>
-      <c r="D412" s="16"/>
+      <c r="C412" s="18"/>
+      <c r="D412" s="20"/>
       <c r="E412" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="413" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C413" s="23"/>
-      <c r="D413" s="16"/>
+      <c r="C413" s="18"/>
+      <c r="D413" s="20"/>
       <c r="E413" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="414" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C414" s="23"/>
-      <c r="D414" s="16"/>
+      <c r="C414" s="18"/>
+      <c r="D414" s="20"/>
       <c r="E414" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="415" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C415" s="23"/>
-      <c r="D415" s="16" t="s">
+      <c r="C415" s="18"/>
+      <c r="D415" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E415" t="s">
@@ -6402,29 +6414,29 @@
       </c>
     </row>
     <row r="416" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C416" s="23"/>
-      <c r="D416" s="16"/>
+      <c r="C416" s="18"/>
+      <c r="D416" s="20"/>
       <c r="E416" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="417" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C417" s="23"/>
-      <c r="D417" s="16"/>
+      <c r="C417" s="18"/>
+      <c r="D417" s="20"/>
       <c r="E417" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C418" s="23"/>
-      <c r="D418" s="16"/>
+      <c r="C418" s="18"/>
+      <c r="D418" s="20"/>
       <c r="E418" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="419" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C419" s="23"/>
-      <c r="D419" s="16" t="s">
+      <c r="C419" s="18"/>
+      <c r="D419" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E419" t="s">
@@ -6432,22 +6444,22 @@
       </c>
     </row>
     <row r="420" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C420" s="23"/>
-      <c r="D420" s="16"/>
+      <c r="C420" s="18"/>
+      <c r="D420" s="20"/>
       <c r="E420" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="421" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C421" s="23"/>
-      <c r="D421" s="16"/>
+      <c r="C421" s="18"/>
+      <c r="D421" s="20"/>
       <c r="E421" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C422" s="23"/>
-      <c r="D422" s="16" t="s">
+      <c r="C422" s="18"/>
+      <c r="D422" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E422" t="s">
@@ -6455,49 +6467,49 @@
       </c>
     </row>
     <row r="423" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C423" s="23"/>
-      <c r="D423" s="16"/>
+      <c r="C423" s="18"/>
+      <c r="D423" s="20"/>
       <c r="E423" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="424" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C424" s="23"/>
-      <c r="D424" s="16"/>
+      <c r="C424" s="18"/>
+      <c r="D424" s="20"/>
       <c r="E424" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C425" s="23"/>
-      <c r="D425" s="16"/>
+      <c r="C425" s="18"/>
+      <c r="D425" s="20"/>
       <c r="E425" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="426" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C426" s="23"/>
-      <c r="D426" s="16"/>
+      <c r="C426" s="18"/>
+      <c r="D426" s="20"/>
       <c r="E426" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="427" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C427" s="23"/>
-      <c r="D427" s="16"/>
+      <c r="C427" s="18"/>
+      <c r="D427" s="20"/>
       <c r="E427" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="428" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C428" s="23"/>
-      <c r="D428" s="16"/>
+      <c r="C428" s="18"/>
+      <c r="D428" s="20"/>
       <c r="E428" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C429" s="23"/>
+      <c r="C429" s="18"/>
       <c r="D429" s="5" t="s">
         <v>72</v>
       </c>
@@ -6506,7 +6518,7 @@
       </c>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C430" s="23"/>
+      <c r="C430" s="18"/>
       <c r="D430" s="5" t="s">
         <v>62</v>
       </c>
@@ -6515,8 +6527,8 @@
       </c>
     </row>
     <row r="431" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C431" s="23"/>
-      <c r="D431" s="16" t="s">
+      <c r="C431" s="18"/>
+      <c r="D431" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E431" t="s">
@@ -6524,71 +6536,71 @@
       </c>
     </row>
     <row r="432" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C432" s="23"/>
-      <c r="D432" s="16"/>
+      <c r="C432" s="18"/>
+      <c r="D432" s="20"/>
       <c r="E432" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C433" s="23"/>
-      <c r="D433" s="16"/>
+      <c r="C433" s="18"/>
+      <c r="D433" s="20"/>
       <c r="E433" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="434" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C434" s="23"/>
-      <c r="D434" s="16"/>
+      <c r="C434" s="18"/>
+      <c r="D434" s="20"/>
       <c r="E434" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="435" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C435" s="23"/>
-      <c r="D435" s="16"/>
+      <c r="C435" s="18"/>
+      <c r="D435" s="20"/>
       <c r="E435" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="436" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C436" s="23"/>
-      <c r="D436" s="16"/>
+      <c r="C436" s="18"/>
+      <c r="D436" s="20"/>
       <c r="E436" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="437" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C437" s="23"/>
-      <c r="D437" s="16"/>
+      <c r="C437" s="18"/>
+      <c r="D437" s="20"/>
       <c r="E437" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="438" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C438" s="23"/>
-      <c r="D438" s="16"/>
+      <c r="C438" s="18"/>
+      <c r="D438" s="20"/>
       <c r="E438" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="439" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C439" s="23"/>
-      <c r="D439" s="16"/>
+      <c r="C439" s="18"/>
+      <c r="D439" s="20"/>
       <c r="E439" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="440" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C440" s="23"/>
-      <c r="D440" s="16"/>
+      <c r="C440" s="18"/>
+      <c r="D440" s="20"/>
       <c r="E440" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="441" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C441" s="23"/>
-      <c r="D441" s="16" t="s">
+      <c r="C441" s="18"/>
+      <c r="D441" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E441" t="s">
@@ -6596,134 +6608,134 @@
       </c>
     </row>
     <row r="442" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C442" s="23"/>
-      <c r="D442" s="16"/>
+      <c r="C442" s="18"/>
+      <c r="D442" s="20"/>
       <c r="E442" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="443" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C443" s="23"/>
-      <c r="D443" s="16"/>
+      <c r="C443" s="18"/>
+      <c r="D443" s="20"/>
       <c r="E443" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="444" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C444" s="23"/>
-      <c r="D444" s="16"/>
+      <c r="C444" s="18"/>
+      <c r="D444" s="20"/>
       <c r="E444" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="445" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C445" s="23"/>
-      <c r="D445" s="16"/>
+      <c r="C445" s="18"/>
+      <c r="D445" s="20"/>
       <c r="E445" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="446" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C446" s="23"/>
-      <c r="D446" s="16"/>
+      <c r="C446" s="18"/>
+      <c r="D446" s="20"/>
       <c r="E446" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="447" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C447" s="23"/>
-      <c r="D447" s="16"/>
+      <c r="C447" s="18"/>
+      <c r="D447" s="20"/>
       <c r="E447" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="448" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C448" s="23"/>
-      <c r="D448" s="16"/>
+      <c r="C448" s="18"/>
+      <c r="D448" s="20"/>
       <c r="E448" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="449" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C449" s="23"/>
-      <c r="D449" s="16"/>
+      <c r="C449" s="18"/>
+      <c r="D449" s="20"/>
       <c r="E449" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="450" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C450" s="23"/>
-      <c r="D450" s="16"/>
+      <c r="C450" s="18"/>
+      <c r="D450" s="20"/>
       <c r="E450" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="451" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C451" s="23"/>
-      <c r="D451" s="16"/>
+      <c r="C451" s="18"/>
+      <c r="D451" s="20"/>
       <c r="E451" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="452" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C452" s="23"/>
-      <c r="D452" s="16"/>
+      <c r="C452" s="18"/>
+      <c r="D452" s="20"/>
       <c r="E452" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="453" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C453" s="23"/>
-      <c r="D453" s="16"/>
+      <c r="C453" s="18"/>
+      <c r="D453" s="20"/>
       <c r="E453" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="454" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C454" s="23"/>
-      <c r="D454" s="16"/>
+      <c r="C454" s="18"/>
+      <c r="D454" s="20"/>
       <c r="E454" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="455" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C455" s="23"/>
-      <c r="D455" s="16"/>
+      <c r="C455" s="18"/>
+      <c r="D455" s="20"/>
       <c r="E455" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="456" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C456" s="23"/>
-      <c r="D456" s="16"/>
+      <c r="C456" s="18"/>
+      <c r="D456" s="20"/>
       <c r="E456" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="457" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C457" s="23"/>
-      <c r="D457" s="16"/>
+      <c r="C457" s="18"/>
+      <c r="D457" s="20"/>
       <c r="E457" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="458" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C458" s="23"/>
-      <c r="D458" s="16"/>
+      <c r="C458" s="18"/>
+      <c r="D458" s="20"/>
       <c r="E458" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="459" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C459" s="23"/>
-      <c r="D459" s="16"/>
+      <c r="C459" s="18"/>
+      <c r="D459" s="20"/>
       <c r="E459" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="460" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C460" s="23"/>
-      <c r="D460" s="16" t="s">
+      <c r="C460" s="18"/>
+      <c r="D460" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E460" t="s">
@@ -6731,15 +6743,15 @@
       </c>
     </row>
     <row r="461" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C461" s="23"/>
-      <c r="D461" s="16"/>
+      <c r="C461" s="18"/>
+      <c r="D461" s="20"/>
       <c r="E461" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="462" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C462" s="23"/>
-      <c r="D462" s="16" t="s">
+      <c r="C462" s="18"/>
+      <c r="D462" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E462" t="s">
@@ -6747,43 +6759,43 @@
       </c>
     </row>
     <row r="463" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C463" s="23"/>
-      <c r="D463" s="16"/>
+      <c r="C463" s="18"/>
+      <c r="D463" s="20"/>
       <c r="E463" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="464" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C464" s="23"/>
-      <c r="D464" s="16"/>
+      <c r="C464" s="18"/>
+      <c r="D464" s="20"/>
       <c r="E464" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="465" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C465" s="23"/>
-      <c r="D465" s="16"/>
+      <c r="C465" s="18"/>
+      <c r="D465" s="20"/>
       <c r="E465" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="466" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C466" s="23"/>
-      <c r="D466" s="16"/>
+      <c r="C466" s="18"/>
+      <c r="D466" s="20"/>
       <c r="E466" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="467" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C467" s="23"/>
-      <c r="D467" s="16"/>
+      <c r="C467" s="18"/>
+      <c r="D467" s="20"/>
       <c r="E467" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C468" s="23"/>
-      <c r="D468" s="16" t="s">
+      <c r="C468" s="18"/>
+      <c r="D468" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E468" t="s">
@@ -6791,113 +6803,113 @@
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C469" s="23"/>
-      <c r="D469" s="16"/>
+      <c r="C469" s="18"/>
+      <c r="D469" s="20"/>
       <c r="E469" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="470" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C470" s="23"/>
-      <c r="D470" s="16"/>
+      <c r="C470" s="18"/>
+      <c r="D470" s="20"/>
       <c r="E470" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="471" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C471" s="23"/>
-      <c r="D471" s="16"/>
+      <c r="C471" s="18"/>
+      <c r="D471" s="20"/>
       <c r="E471" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="472" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C472" s="23"/>
-      <c r="D472" s="16"/>
+      <c r="C472" s="18"/>
+      <c r="D472" s="20"/>
       <c r="E472" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="473" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C473" s="23"/>
-      <c r="D473" s="16"/>
+      <c r="C473" s="18"/>
+      <c r="D473" s="20"/>
       <c r="E473" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="474" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C474" s="23"/>
-      <c r="D474" s="16"/>
+      <c r="C474" s="18"/>
+      <c r="D474" s="20"/>
       <c r="E474" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="475" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C475" s="23"/>
-      <c r="D475" s="16"/>
+      <c r="C475" s="18"/>
+      <c r="D475" s="20"/>
       <c r="E475" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="476" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C476" s="23"/>
-      <c r="D476" s="16"/>
+      <c r="C476" s="18"/>
+      <c r="D476" s="20"/>
       <c r="E476" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="477" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C477" s="23"/>
-      <c r="D477" s="16"/>
+      <c r="C477" s="18"/>
+      <c r="D477" s="20"/>
       <c r="E477" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="478" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C478" s="23"/>
-      <c r="D478" s="16"/>
+      <c r="C478" s="18"/>
+      <c r="D478" s="20"/>
       <c r="E478" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="479" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C479" s="23"/>
-      <c r="D479" s="16"/>
+      <c r="C479" s="18"/>
+      <c r="D479" s="20"/>
       <c r="E479" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C480" s="23"/>
-      <c r="D480" s="16"/>
+      <c r="C480" s="18"/>
+      <c r="D480" s="20"/>
       <c r="E480" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="481" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C481" s="23"/>
-      <c r="D481" s="16"/>
+      <c r="C481" s="18"/>
+      <c r="D481" s="20"/>
       <c r="E481" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C482" s="23"/>
-      <c r="D482" s="16"/>
+      <c r="C482" s="18"/>
+      <c r="D482" s="20"/>
       <c r="E482" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="483" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C483" s="23"/>
-      <c r="D483" s="16"/>
+      <c r="C483" s="18"/>
+      <c r="D483" s="20"/>
       <c r="E483" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C484" s="23"/>
-      <c r="D484" s="16" t="s">
+      <c r="C484" s="18"/>
+      <c r="D484" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E484" t="s">
@@ -6905,92 +6917,92 @@
       </c>
     </row>
     <row r="485" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C485" s="23"/>
-      <c r="D485" s="16"/>
+      <c r="C485" s="18"/>
+      <c r="D485" s="20"/>
       <c r="E485" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="486" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C486" s="23"/>
-      <c r="D486" s="16"/>
+      <c r="C486" s="18"/>
+      <c r="D486" s="20"/>
       <c r="E486" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="487" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C487" s="23"/>
-      <c r="D487" s="16"/>
+      <c r="C487" s="18"/>
+      <c r="D487" s="20"/>
       <c r="E487" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="488" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C488" s="23"/>
-      <c r="D488" s="16"/>
+      <c r="C488" s="18"/>
+      <c r="D488" s="20"/>
       <c r="E488" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="489" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C489" s="23"/>
-      <c r="D489" s="16"/>
+      <c r="C489" s="18"/>
+      <c r="D489" s="20"/>
       <c r="E489" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="490" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C490" s="23"/>
-      <c r="D490" s="16"/>
+      <c r="C490" s="18"/>
+      <c r="D490" s="20"/>
       <c r="E490" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="491" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C491" s="23"/>
-      <c r="D491" s="16"/>
+      <c r="C491" s="18"/>
+      <c r="D491" s="20"/>
       <c r="E491" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="492" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C492" s="23"/>
-      <c r="D492" s="16"/>
+      <c r="C492" s="18"/>
+      <c r="D492" s="20"/>
       <c r="E492" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="493" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C493" s="23"/>
-      <c r="D493" s="16"/>
+      <c r="C493" s="18"/>
+      <c r="D493" s="20"/>
       <c r="E493" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="494" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C494" s="23"/>
-      <c r="D494" s="16"/>
+      <c r="C494" s="18"/>
+      <c r="D494" s="20"/>
       <c r="E494" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="495" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C495" s="23"/>
-      <c r="D495" s="16"/>
+      <c r="C495" s="18"/>
+      <c r="D495" s="20"/>
       <c r="E495" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="496" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C496" s="23"/>
-      <c r="D496" s="16"/>
+      <c r="C496" s="18"/>
+      <c r="D496" s="20"/>
       <c r="E496" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="497" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C497" s="23"/>
-      <c r="D497" s="16" t="s">
+      <c r="C497" s="18"/>
+      <c r="D497" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E497" t="s">
@@ -6998,43 +7010,43 @@
       </c>
     </row>
     <row r="498" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C498" s="23"/>
-      <c r="D498" s="16"/>
+      <c r="C498" s="18"/>
+      <c r="D498" s="20"/>
       <c r="E498" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="499" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C499" s="23"/>
-      <c r="D499" s="16"/>
+      <c r="C499" s="18"/>
+      <c r="D499" s="20"/>
       <c r="E499" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="500" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C500" s="23"/>
-      <c r="D500" s="16"/>
+      <c r="C500" s="18"/>
+      <c r="D500" s="20"/>
       <c r="E500" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="501" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C501" s="23"/>
-      <c r="D501" s="16"/>
+      <c r="C501" s="18"/>
+      <c r="D501" s="20"/>
       <c r="E501" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="502" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C502" s="23"/>
-      <c r="D502" s="16"/>
+      <c r="C502" s="18"/>
+      <c r="D502" s="20"/>
       <c r="E502" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="503" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C503" s="23"/>
-      <c r="D503" s="16" t="s">
+      <c r="C503" s="18"/>
+      <c r="D503" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E503" t="s">
@@ -7042,36 +7054,36 @@
       </c>
     </row>
     <row r="504" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C504" s="23"/>
-      <c r="D504" s="16"/>
+      <c r="C504" s="18"/>
+      <c r="D504" s="20"/>
       <c r="E504" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="505" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C505" s="23"/>
-      <c r="D505" s="16"/>
+      <c r="C505" s="18"/>
+      <c r="D505" s="20"/>
       <c r="E505" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="506" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C506" s="23"/>
-      <c r="D506" s="16"/>
+      <c r="C506" s="18"/>
+      <c r="D506" s="20"/>
       <c r="E506" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="507" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C507" s="23"/>
-      <c r="D507" s="16"/>
+      <c r="C507" s="18"/>
+      <c r="D507" s="20"/>
       <c r="E507" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="508" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C508" s="23"/>
-      <c r="D508" s="16" t="s">
+      <c r="C508" s="18"/>
+      <c r="D508" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E508" t="s">
@@ -7079,71 +7091,71 @@
       </c>
     </row>
     <row r="509" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C509" s="23"/>
-      <c r="D509" s="16"/>
+      <c r="C509" s="18"/>
+      <c r="D509" s="20"/>
       <c r="E509" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="510" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C510" s="23"/>
-      <c r="D510" s="16"/>
+      <c r="C510" s="18"/>
+      <c r="D510" s="20"/>
       <c r="E510" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="511" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C511" s="23"/>
-      <c r="D511" s="16"/>
+      <c r="C511" s="18"/>
+      <c r="D511" s="20"/>
       <c r="E511" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="512" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C512" s="23"/>
-      <c r="D512" s="16"/>
+      <c r="C512" s="18"/>
+      <c r="D512" s="20"/>
       <c r="E512" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="513" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C513" s="23"/>
-      <c r="D513" s="16"/>
+      <c r="C513" s="18"/>
+      <c r="D513" s="20"/>
       <c r="E513" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="514" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C514" s="23"/>
-      <c r="D514" s="16"/>
+      <c r="C514" s="18"/>
+      <c r="D514" s="20"/>
       <c r="E514" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="515" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C515" s="23"/>
-      <c r="D515" s="16"/>
+      <c r="C515" s="18"/>
+      <c r="D515" s="20"/>
       <c r="E515" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="516" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C516" s="23"/>
-      <c r="D516" s="16"/>
+      <c r="C516" s="18"/>
+      <c r="D516" s="20"/>
       <c r="E516" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="517" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C517" s="23"/>
-      <c r="D517" s="16"/>
+      <c r="C517" s="18"/>
+      <c r="D517" s="20"/>
       <c r="E517" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="518" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C518" s="23"/>
-      <c r="D518" s="16" t="s">
+      <c r="C518" s="18"/>
+      <c r="D518" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E518" t="s">
@@ -7151,50 +7163,50 @@
       </c>
     </row>
     <row r="519" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C519" s="23"/>
-      <c r="D519" s="16"/>
+      <c r="C519" s="18"/>
+      <c r="D519" s="20"/>
       <c r="E519" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="520" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C520" s="23"/>
-      <c r="D520" s="16"/>
+      <c r="C520" s="18"/>
+      <c r="D520" s="20"/>
       <c r="E520" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="521" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C521" s="23"/>
-      <c r="D521" s="16"/>
+      <c r="C521" s="18"/>
+      <c r="D521" s="20"/>
       <c r="E521" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="522" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C522" s="23"/>
-      <c r="D522" s="16"/>
+      <c r="C522" s="18"/>
+      <c r="D522" s="20"/>
       <c r="E522" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="523" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C523" s="23"/>
-      <c r="D523" s="16"/>
+      <c r="C523" s="18"/>
+      <c r="D523" s="20"/>
       <c r="E523" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="524" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C524" s="23"/>
-      <c r="D524" s="16"/>
+      <c r="C524" s="18"/>
+      <c r="D524" s="20"/>
       <c r="E524" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="525" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C525" s="24"/>
-      <c r="D525" s="16"/>
+      <c r="C525" s="19"/>
+      <c r="D525" s="20"/>
       <c r="E525" t="s">
         <v>123</v>
       </c>
@@ -7315,6 +7327,43 @@
     <sortCondition ref="I2"/>
   </sortState>
   <mergeCells count="53">
+    <mergeCell ref="D518:D525"/>
+    <mergeCell ref="D357:D366"/>
+    <mergeCell ref="D2:D21"/>
+    <mergeCell ref="D293:D307"/>
+    <mergeCell ref="D484:D496"/>
+    <mergeCell ref="D69:D81"/>
+    <mergeCell ref="D82:D112"/>
+    <mergeCell ref="D328:D341"/>
+    <mergeCell ref="D189:D197"/>
+    <mergeCell ref="D131:D153"/>
+    <mergeCell ref="D508:D517"/>
+    <mergeCell ref="D265:D279"/>
+    <mergeCell ref="D165:D172"/>
+    <mergeCell ref="D441:D459"/>
+    <mergeCell ref="D344:D356"/>
+    <mergeCell ref="D503:D507"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D419:D421"/>
+    <mergeCell ref="D422:D428"/>
+    <mergeCell ref="D368:D414"/>
+    <mergeCell ref="D53:D68"/>
+    <mergeCell ref="D280:D288"/>
+    <mergeCell ref="D38:D52"/>
+    <mergeCell ref="D431:D440"/>
+    <mergeCell ref="D462:D467"/>
+    <mergeCell ref="D173:D188"/>
+    <mergeCell ref="D320:D327"/>
+    <mergeCell ref="D308:D318"/>
+    <mergeCell ref="D468:D483"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="D154:D164"/>
+    <mergeCell ref="D415:D418"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="D342:D343"/>
+    <mergeCell ref="D113:D130"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="C2:C525"/>
     <mergeCell ref="D22:D32"/>
@@ -7331,43 +7380,6 @@
     <mergeCell ref="E92:E98"/>
     <mergeCell ref="E99:E103"/>
     <mergeCell ref="E104:E110"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="D154:D164"/>
-    <mergeCell ref="D415:D418"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="D342:D343"/>
-    <mergeCell ref="D441:D459"/>
-    <mergeCell ref="D344:D356"/>
-    <mergeCell ref="D503:D507"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D419:D421"/>
-    <mergeCell ref="D422:D428"/>
-    <mergeCell ref="D368:D414"/>
-    <mergeCell ref="D53:D68"/>
-    <mergeCell ref="D280:D288"/>
-    <mergeCell ref="D38:D52"/>
-    <mergeCell ref="D431:D440"/>
-    <mergeCell ref="D462:D467"/>
-    <mergeCell ref="D173:D188"/>
-    <mergeCell ref="D320:D327"/>
-    <mergeCell ref="D308:D318"/>
-    <mergeCell ref="D468:D483"/>
-    <mergeCell ref="D113:D130"/>
-    <mergeCell ref="D518:D525"/>
-    <mergeCell ref="D357:D366"/>
-    <mergeCell ref="D2:D21"/>
-    <mergeCell ref="D293:D307"/>
-    <mergeCell ref="D484:D496"/>
-    <mergeCell ref="D69:D81"/>
-    <mergeCell ref="D82:D112"/>
-    <mergeCell ref="D328:D341"/>
-    <mergeCell ref="D189:D197"/>
-    <mergeCell ref="D131:D153"/>
-    <mergeCell ref="D508:D517"/>
-    <mergeCell ref="D265:D279"/>
-    <mergeCell ref="D165:D172"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G229" r:id="rId1" xr:uid="{105A5CE9-5B4A-4D01-BFEB-C6477A1A279C}"/>

--- a/Materion/fastenal-schema.xlsx
+++ b/Materion/fastenal-schema.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaston.alvarado\Desktop\cwbootcamp\Pandas-Challenge\Materion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2A92245-4E76-44A9-B9E6-29C5EF5F4423}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E022AA7-0D1E-4D95-A951-EDDFFCCD87F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="1560" windowWidth="28035" windowHeight="17445" xr2:uid="{91177500-F52C-7E43-A586-6BE502B18688}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fastenal" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="704">
   <si>
     <t>Abrasives</t>
   </si>
@@ -2113,6 +2113,30 @@
   </si>
   <si>
     <t>Level 5</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/product/safety/eye-protection/lens-cleaning-products/lens-cleaning-stations/600627?categoryId=600627&amp;level=4&amp;isExpanded=true</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/product/safety/eye-protection/lens-cleaning-products/lens-cleaning-fluids/605706?categoryId=605706&amp;level=4&amp;isExpanded=true</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/product/safety/eye-protection/lens-cleaning-products/lens-cleaning-tissue/600626?categoryId=600626&amp;level=4&amp;isExpanded=true</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/product/safety/eye-protection/lens-cleaning-products/lens-cleaning-station-refills/600625?categoryId=600625&amp;level=4&amp;isExpanded=true</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/product/safety/eye-protection/lens-cleaning-products/lens-cleaning-solution-pumps/600628?categoryId=600628&amp;level=4&amp;isExpanded=true</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/product/safety/eye-protection/lens-cleaning-products/lens-cleaning-station-keys/612482?categoryId=612482&amp;level=4&amp;isExpanded=true</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/product/safety/eye-protection/lens-cleaning-products/scratch-removal-systems/612715?categoryId=612715&amp;level=4&amp;isExpanded=true</t>
+  </si>
+  <si>
+    <t>End url</t>
   </si>
 </sst>
 </file>
@@ -2219,7 +2243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2243,10 +2267,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2256,38 +2280,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2297,57 +2295,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2664,4746 +2684,6126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4FA1FC-BDFD-A94E-A433-4E97674F119E}">
-  <dimension ref="A1:H562"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B207" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="140.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="168" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="151.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="8" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="25" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="20"/>
-      <c r="E3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20"/>
-      <c r="E4" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="25" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
-      <c r="E5" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="25" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
-      <c r="E6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="25" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="25" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
-      <c r="E9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="25" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="25" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
-      <c r="E11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="25" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="25" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
-      <c r="E13" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="25" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
-      <c r="E15" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="25" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
-      <c r="E16" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="25" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
-      <c r="E19" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="25" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
-      <c r="E21" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="25" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20"/>
-      <c r="E23" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="25" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
-      <c r="E24" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="25" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
-      <c r="E25" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="25" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20"/>
-      <c r="E26" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="25" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="20"/>
-      <c r="E27" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="25" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="20"/>
-      <c r="E28" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="25" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="20"/>
-      <c r="E29" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="25" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="20"/>
-      <c r="E30" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="25" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="20"/>
-      <c r="E31" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="25" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="20"/>
-      <c r="E32" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="25" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="20" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" s="25" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="20"/>
-      <c r="E34" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="25" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="20"/>
-      <c r="E35" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="25" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="20"/>
-      <c r="E36" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="25" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="20"/>
-      <c r="E37" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="25" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="20" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38" s="25" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="20"/>
-      <c r="E39" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="25" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="20"/>
-      <c r="E40" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="25" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="20"/>
-      <c r="E41" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="25" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="20"/>
-      <c r="E42" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="25" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="20"/>
-      <c r="E43" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="25" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="20"/>
-      <c r="E44" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="25" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="20"/>
-      <c r="E45" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="25" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="20"/>
-      <c r="E46" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="25" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
-      <c r="E47" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="25" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="20"/>
-      <c r="E48" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="25" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="20"/>
-      <c r="E49" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="25" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="20"/>
-      <c r="E50" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="25" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="20"/>
-      <c r="E51" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="25" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E51" s="4"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="20"/>
-      <c r="E52" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="25" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E52" s="4"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="20" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D53" s="25" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E53" s="4"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="20"/>
-      <c r="E54" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="25" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E54" s="4"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="20"/>
-      <c r="E55" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="25" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E55" s="4"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="20"/>
-      <c r="E56" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="25" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E56" s="4"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="20"/>
-      <c r="E57" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="25" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E57" s="4"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="20"/>
-      <c r="E58" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="25" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E58" s="4"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="20"/>
-      <c r="E59" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="25" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E59" s="4"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="20"/>
-      <c r="E60" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="25" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E60" s="4"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="20"/>
-      <c r="E61" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="25" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="18"/>
-      <c r="D62" s="20"/>
-      <c r="E62" t="s">
+      <c r="E61" s="4"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="25" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="18"/>
-      <c r="D63" s="20"/>
-      <c r="E63" t="s">
+      <c r="E62" s="4"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="25" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="18"/>
-      <c r="D64" s="20"/>
-      <c r="E64" t="s">
+      <c r="E63" s="4"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="25" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="18"/>
-      <c r="D65" s="20"/>
-      <c r="E65" t="s">
+      <c r="E64" s="4"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="25" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="18"/>
-      <c r="D66" s="20"/>
-      <c r="E66" t="s">
+      <c r="E65" s="4"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="25" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="18"/>
-      <c r="D67" s="20"/>
-      <c r="E67" t="s">
+      <c r="E66" s="4"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="25" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="18"/>
-      <c r="D68" s="20"/>
-      <c r="E68" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="25" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C69" s="18"/>
-      <c r="D69" s="22" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="D69" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="E69" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="F69" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="18"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="9" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H70" s="7" t="s">
+      <c r="F70" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="18"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="11" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="F71" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C72" s="18"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="9" t="s">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G72" s="13" t="s">
+      <c r="E72" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="6" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="18"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="16" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="E73" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="F73" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="18"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="9" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H74" s="7" t="s">
+      <c r="F74" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C75" s="18"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="11" t="s">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H75" s="7" t="s">
+      <c r="F75" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C76" s="18"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="9" t="s">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G76" s="13" t="s">
+      <c r="E76" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F76" s="20"/>
+      <c r="G76" s="6" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="18"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="16" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="E77" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="G77" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H77" s="7" t="s">
+      <c r="F77" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="18"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="9" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H78" s="7" t="s">
+      <c r="F78" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="18"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="11" t="s">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="G79" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H79" s="7" t="s">
+      <c r="F79" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C80" s="18"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="9" t="s">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G80" s="13" t="s">
+      <c r="E80" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F80" s="20"/>
+      <c r="G80" s="6" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="18"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="11" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G81" s="13" t="s">
+      <c r="E81" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F81" s="20"/>
+      <c r="G81" s="6" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C82" s="18"/>
-      <c r="D82" s="22" t="s">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="10"/>
+      <c r="C82" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="D82" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="E82" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G82" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H82" s="7" t="s">
+      <c r="F82" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="18"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="9" t="s">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="G83" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H83" s="7" t="s">
+      <c r="F83" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="18"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="11" t="s">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="G84" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H84" s="7" t="s">
+      <c r="F84" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="18"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="21" t="s">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="E85" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="G85" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H85" s="7" t="s">
+      <c r="F85" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C86" s="18"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="11" t="s">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="G86" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H86" s="7" t="s">
+      <c r="F86" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C87" s="18"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="9" t="s">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="G87" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H87" s="7" t="s">
+      <c r="F87" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C88" s="18"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="11" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="G88" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H88" s="7" t="s">
+      <c r="F88" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C89" s="18"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="9" t="s">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="G89" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H89" s="7" t="s">
+      <c r="F89" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="18"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="11" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="G90" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H90" s="7" t="s">
+      <c r="F90" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C91" s="18"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="9" t="s">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="G91" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H91" s="7" t="s">
+      <c r="F91" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="18"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="16" t="s">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="E92" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="G92" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H92" s="7" t="s">
+      <c r="F92" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C93" s="18"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="9" t="s">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="G93" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H93" s="7" t="s">
+      <c r="F93" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C94" s="18"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="11" t="s">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="G94" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H94" s="7" t="s">
+      <c r="F94" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C95" s="18"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="9" t="s">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="G95" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H95" s="7" t="s">
+      <c r="F95" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="18"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="11" t="s">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="G96" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H96" s="7" t="s">
+      <c r="F96" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C97" s="18"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="9" t="s">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="G97" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H97" s="7" t="s">
+      <c r="F97" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C98" s="18"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="11" t="s">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="G98" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H98" s="7" t="s">
+      <c r="F98" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C99" s="18"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="16" t="s">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="E99" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G99" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H99" s="7" t="s">
+      <c r="F99" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C100" s="18"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="11" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="G100" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H100" s="7" t="s">
+      <c r="F100" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G100" s="6" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C101" s="18"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="9" t="s">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G101" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H101" s="7" t="s">
+      <c r="F101" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C102" s="18"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="11" t="s">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="10"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="G102" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H102" s="7" t="s">
+      <c r="F102" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C103" s="18"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="9" t="s">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G103" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H103" s="7" t="s">
+      <c r="F103" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C104" s="18"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="21" t="s">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="E104" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C105" s="18"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="9" t="s">
+      <c r="F104" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="10"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C106" s="18"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="11" t="s">
+      <c r="F105" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C107" s="18"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="9" t="s">
+      <c r="F106" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C108" s="18"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="11" t="s">
+      <c r="F107" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C109" s="18"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="9" t="s">
+      <c r="F108" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="10"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C110" s="18"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="11" t="s">
+      <c r="F109" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="10"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C111" s="18"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="11" t="s">
+      <c r="F110" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F111" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G111" s="13" t="s">
+      <c r="E111" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F111" s="20"/>
+      <c r="G111" s="6" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C112" s="18"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="9" t="s">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F112" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G112" s="13" t="s">
+      <c r="E112" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="G112" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="18"/>
-      <c r="D113" s="24" t="s">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="10"/>
+      <c r="C113" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D113" s="25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C114" s="18"/>
-      <c r="D114" s="24"/>
-      <c r="E114" t="s">
+      <c r="E113" s="4"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="10"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C115" s="18"/>
-      <c r="D115" s="24"/>
-      <c r="E115" t="s">
+      <c r="E114" s="4"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="10"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="116" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="18"/>
-      <c r="D116" s="24"/>
-      <c r="E116" t="s">
+      <c r="E115" s="4"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="10"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="117" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="18"/>
-      <c r="D117" s="24"/>
-      <c r="E117" t="s">
+      <c r="E116" s="4"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="10"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="118" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="18"/>
-      <c r="D118" s="24"/>
-      <c r="E118" t="s">
+      <c r="E117" s="4"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="10"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="119" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="18"/>
-      <c r="D119" s="24"/>
-      <c r="E119" t="s">
+      <c r="E118" s="4"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="10"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="120" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="18"/>
-      <c r="D120" s="24"/>
-      <c r="E120" t="s">
+      <c r="E119" s="4"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="10"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="121" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="18"/>
-      <c r="D121" s="24"/>
-      <c r="E121" t="s">
+      <c r="E120" s="4"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="10"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="122" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="18"/>
-      <c r="D122" s="24"/>
-      <c r="E122" t="s">
+      <c r="E121" s="4"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="10"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C123" s="18"/>
-      <c r="D123" s="24"/>
-      <c r="E123" t="s">
+      <c r="E122" s="4"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="10"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C124" s="18"/>
-      <c r="D124" s="24"/>
-      <c r="E124" t="s">
+      <c r="E123" s="4"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="10"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C125" s="18"/>
-      <c r="D125" s="24"/>
-      <c r="E125" t="s">
+      <c r="E124" s="4"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="10"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C126" s="18"/>
-      <c r="D126" s="24"/>
-      <c r="E126" t="s">
+      <c r="E125" s="4"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="10"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="25" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C127" s="18"/>
-      <c r="D127" s="24"/>
-      <c r="E127" t="s">
+      <c r="E126" s="4"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="10"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C128" s="18"/>
-      <c r="D128" s="24"/>
-      <c r="E128" t="s">
+      <c r="E127" s="4"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="10"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C129" s="18"/>
-      <c r="D129" s="24"/>
-      <c r="E129" t="s">
+      <c r="E128" s="4"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="10"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C130" s="18"/>
-      <c r="D130" s="24"/>
-      <c r="E130" t="s">
+      <c r="E129" s="4"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="10"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C131" s="18"/>
-      <c r="D131" s="20" t="s">
+      <c r="E130" s="4"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="10"/>
+      <c r="C131" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D131" s="25" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C132" s="18"/>
-      <c r="D132" s="20"/>
-      <c r="E132" t="s">
+      <c r="E131" s="4"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="10"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="25" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C133" s="18"/>
-      <c r="D133" s="20"/>
-      <c r="E133" t="s">
+      <c r="E132" s="4"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="10"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="25" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C134" s="18"/>
-      <c r="D134" s="20"/>
-      <c r="E134" t="s">
+      <c r="E133" s="4"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="10"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="25" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C135" s="18"/>
-      <c r="D135" s="20"/>
-      <c r="E135" t="s">
+      <c r="E134" s="4"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C136" s="18"/>
-      <c r="D136" s="20"/>
-      <c r="E136" t="s">
+      <c r="E135" s="4"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="10"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="25" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C137" s="18"/>
-      <c r="D137" s="20"/>
-      <c r="E137" t="s">
+      <c r="E136" s="4"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="10"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="25" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C138" s="18"/>
-      <c r="D138" s="20"/>
-      <c r="E138" t="s">
+      <c r="E137" s="4"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="10"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="25" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C139" s="18"/>
-      <c r="D139" s="20"/>
-      <c r="E139" t="s">
+      <c r="E138" s="4"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="10"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="25" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C140" s="18"/>
-      <c r="D140" s="20"/>
-      <c r="E140" t="s">
+      <c r="E139" s="4"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="10"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="25" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C141" s="18"/>
-      <c r="D141" s="20"/>
-      <c r="E141" t="s">
+      <c r="E140" s="4"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="10"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="25" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C142" s="18"/>
-      <c r="D142" s="20"/>
-      <c r="E142" t="s">
+      <c r="E141" s="4"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="10"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="25" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C143" s="18"/>
-      <c r="D143" s="20"/>
-      <c r="E143" t="s">
+      <c r="E142" s="4"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="10"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="25" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C144" s="18"/>
-      <c r="D144" s="20"/>
-      <c r="E144" t="s">
+      <c r="E143" s="4"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="10"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="25" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C145" s="18"/>
-      <c r="D145" s="20"/>
-      <c r="E145" t="s">
+      <c r="E144" s="4"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="10"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="25" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C146" s="18"/>
-      <c r="D146" s="20"/>
-      <c r="E146" t="s">
+      <c r="E145" s="4"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="10"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="25" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C147" s="18"/>
-      <c r="D147" s="20"/>
-      <c r="E147" t="s">
+      <c r="E146" s="4"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="10"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="25" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C148" s="18"/>
-      <c r="D148" s="20"/>
-      <c r="E148" t="s">
+      <c r="E147" s="4"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="10"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="25" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C149" s="18"/>
-      <c r="D149" s="20"/>
-      <c r="E149" t="s">
+      <c r="E148" s="4"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="10"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="25" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C150" s="18"/>
-      <c r="D150" s="20"/>
-      <c r="E150" t="s">
+      <c r="E149" s="4"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="10"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="25" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C151" s="18"/>
-      <c r="D151" s="20"/>
-      <c r="E151" t="s">
+      <c r="E150" s="4"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="10"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="25" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C152" s="18"/>
-      <c r="D152" s="20"/>
-      <c r="E152" t="s">
+      <c r="E151" s="4"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="10"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="25" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C153" s="18"/>
-      <c r="D153" s="20"/>
-      <c r="E153" t="s">
+      <c r="E152" s="4"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="10"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="25" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C154" s="18"/>
-      <c r="D154" s="20" t="s">
+      <c r="E153" s="4"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="10"/>
+      <c r="C154" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E154" t="s">
+      <c r="D154" s="25" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C155" s="18"/>
-      <c r="D155" s="20"/>
-      <c r="E155" t="s">
+      <c r="E154" s="4"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="10"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="25" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="18"/>
-      <c r="D156" s="20"/>
-      <c r="E156" t="s">
+      <c r="E155" s="4"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="10"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="25" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C157" s="18"/>
-      <c r="D157" s="20"/>
-      <c r="E157" t="s">
+      <c r="E156" s="4"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="10"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="25" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C158" s="18"/>
-      <c r="D158" s="20"/>
-      <c r="E158" t="s">
+      <c r="E157" s="4"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="10"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="25" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C159" s="18"/>
-      <c r="D159" s="20"/>
-      <c r="E159" t="s">
+      <c r="E158" s="4"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="10"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="25" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C160" s="18"/>
-      <c r="D160" s="20"/>
-      <c r="E160" t="s">
+      <c r="E159" s="4"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="10"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="25" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C161" s="18"/>
-      <c r="D161" s="20"/>
-      <c r="E161" t="s">
+      <c r="E160" s="4"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="10"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="25" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C162" s="18"/>
-      <c r="D162" s="20"/>
-      <c r="E162" t="s">
+      <c r="E161" s="4"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="10"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="25" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C163" s="18"/>
-      <c r="D163" s="20"/>
-      <c r="E163" t="s">
+      <c r="E162" s="4"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="10"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="25" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C164" s="18"/>
-      <c r="D164" s="20"/>
-      <c r="E164" t="s">
+      <c r="E163" s="4"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="10"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="25" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="18"/>
-      <c r="D165" s="20" t="s">
+      <c r="E164" s="4"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="10"/>
+      <c r="C165" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E165" t="s">
+      <c r="D165" s="25" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="18"/>
-      <c r="D166" s="20"/>
-      <c r="E166" t="s">
+      <c r="E165" s="4"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="10"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="25" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="18"/>
-      <c r="D167" s="20"/>
-      <c r="E167" t="s">
+      <c r="E166" s="4"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="10"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="25" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="18"/>
-      <c r="D168" s="20"/>
-      <c r="E168" t="s">
+      <c r="E167" s="4"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="10"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="25" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="18"/>
-      <c r="D169" s="20"/>
-      <c r="E169" t="s">
+      <c r="E168" s="4"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="10"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="25" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="18"/>
-      <c r="D170" s="20"/>
-      <c r="E170" t="s">
+      <c r="E169" s="4"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="10"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="25" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="18"/>
-      <c r="D171" s="20"/>
-      <c r="E171" t="s">
+      <c r="E170" s="4"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="10"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="25" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="18"/>
-      <c r="D172" s="20"/>
-      <c r="E172" t="s">
+      <c r="E171" s="4"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="10"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="25" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="18"/>
-      <c r="D173" s="20" t="s">
+      <c r="E172" s="4"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="10"/>
+      <c r="C173" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E173" t="s">
+      <c r="D173" s="25" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="18"/>
-      <c r="D174" s="20"/>
-      <c r="E174" t="s">
+      <c r="E173" s="4"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="10"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="25" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="18"/>
-      <c r="D175" s="20"/>
-      <c r="E175" t="s">
+      <c r="E174" s="4"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="10"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="25" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="18"/>
-      <c r="D176" s="20"/>
-      <c r="E176" t="s">
+      <c r="E175" s="4"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="10"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="25" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="18"/>
-      <c r="D177" s="20"/>
-      <c r="E177" t="s">
+      <c r="E176" s="4"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="10"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="25" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="18"/>
-      <c r="D178" s="20"/>
-      <c r="E178" t="s">
+      <c r="E177" s="4"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="10"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="25" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="18"/>
-      <c r="D179" s="20"/>
-      <c r="E179" t="s">
+      <c r="E178" s="4"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="10"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="25" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="18"/>
-      <c r="D180" s="20"/>
-      <c r="E180" t="s">
+      <c r="E179" s="4"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="10"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="25" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="18"/>
-      <c r="D181" s="20"/>
-      <c r="E181" t="s">
+      <c r="E180" s="4"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="10"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="25" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="18"/>
-      <c r="D182" s="20"/>
-      <c r="E182" t="s">
+      <c r="E181" s="4"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="10"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="25" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="18"/>
-      <c r="D183" s="20"/>
-      <c r="E183" t="s">
+      <c r="E182" s="4"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="10"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="25" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="18"/>
-      <c r="D184" s="20"/>
-      <c r="E184" t="s">
+      <c r="E183" s="4"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="10"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="25" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="18"/>
-      <c r="D185" s="20"/>
-      <c r="E185" t="s">
+      <c r="E184" s="4"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="10"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="25" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="18"/>
-      <c r="D186" s="20"/>
-      <c r="E186" t="s">
+      <c r="E185" s="4"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="10"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="25" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="18"/>
-      <c r="D187" s="20"/>
-      <c r="E187" t="s">
+      <c r="E186" s="4"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="10"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="25" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="18"/>
-      <c r="D188" s="20"/>
-      <c r="E188" t="s">
+      <c r="E187" s="4"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="10"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="25" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="18"/>
-      <c r="D189" s="20" t="s">
+      <c r="E188" s="4"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="10"/>
+      <c r="C189" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E189" t="s">
+      <c r="D189" s="25" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="18"/>
-      <c r="D190" s="20"/>
-      <c r="E190" t="s">
+      <c r="E189" s="4"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="10"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="25" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C191" s="18"/>
-      <c r="D191" s="20"/>
-      <c r="E191" t="s">
+      <c r="E190" s="4"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="10"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C192" s="18"/>
-      <c r="D192" s="20"/>
-      <c r="E192" t="s">
+      <c r="E191" s="4"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="10"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="25" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C193" s="18"/>
-      <c r="D193" s="20"/>
-      <c r="E193" t="s">
+      <c r="E192" s="4"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="10"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="25" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C194" s="18"/>
-      <c r="D194" s="20"/>
-      <c r="E194" t="s">
+      <c r="E193" s="4"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="10"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="25" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C195" s="18"/>
-      <c r="D195" s="20"/>
-      <c r="E195" t="s">
+      <c r="E194" s="4"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="10"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="25" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C196" s="18"/>
-      <c r="D196" s="20"/>
-      <c r="E196" t="s">
+      <c r="E195" s="4"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="10"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="25" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C197" s="18"/>
-      <c r="D197" s="20"/>
-      <c r="E197" t="s">
+      <c r="E196" s="4"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="10"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="25" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C198" s="18"/>
-      <c r="D198" s="20" t="s">
+      <c r="E197" s="4"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="10"/>
+      <c r="C198" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E198" t="s">
+      <c r="D198" s="25" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C199" s="18"/>
-      <c r="D199" s="20"/>
-      <c r="E199" t="s">
+      <c r="E198" s="4"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="10"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="25" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C200" s="18"/>
-      <c r="D200" s="20"/>
-      <c r="E200" t="s">
+      <c r="E199" s="4"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="10"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="25" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C201" s="18"/>
-      <c r="D201" s="20"/>
-      <c r="E201" t="s">
+      <c r="E200" s="4"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="10"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C202" s="18"/>
-      <c r="D202" s="20"/>
-      <c r="E202" t="s">
+      <c r="E201" s="4"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="10"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C203" s="18"/>
-      <c r="D203" s="20"/>
-      <c r="E203" t="s">
+      <c r="E202" s="4"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="10"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="25" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C204" s="18"/>
-      <c r="D204" s="20"/>
-      <c r="E204" t="s">
+      <c r="E203" s="4"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="10"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="25" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C205" s="18"/>
-      <c r="D205" s="20"/>
-      <c r="E205" t="s">
+      <c r="E204" s="4"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="10"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="25" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C206" s="18"/>
-      <c r="D206" s="20"/>
-      <c r="E206" t="s">
+      <c r="E205" s="4"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="10"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="25" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C207" s="18"/>
-      <c r="D207" s="20"/>
-      <c r="E207" t="s">
+      <c r="E206" s="4"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="10"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="25" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C208" s="18"/>
-      <c r="D208" s="20"/>
-      <c r="E208" t="s">
+      <c r="E207" s="4"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="10"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="25" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C209" s="18"/>
-      <c r="D209" s="20"/>
-      <c r="E209" t="s">
+      <c r="E208" s="4"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="10"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="25" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C210" s="18"/>
-      <c r="D210" s="20"/>
-      <c r="E210" t="s">
+      <c r="E209" s="4"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="10"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="25" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C211" s="18"/>
-      <c r="D211" s="20" t="s">
+      <c r="E210" s="4"/>
+      <c r="F210" s="18"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="10"/>
+      <c r="C211" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E211" t="s">
+      <c r="D211" s="25" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C212" s="18"/>
-      <c r="D212" s="20"/>
-      <c r="E212" t="s">
+      <c r="E211" s="4"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="10"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="25" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C213" s="18"/>
-      <c r="D213" s="25" t="s">
+      <c r="E212" s="4"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="10"/>
+      <c r="C213" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E213" s="26" t="s">
+      <c r="D213" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F213" s="11" t="s">
+      <c r="E213" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="G213" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H213" s="7" t="s">
+      <c r="F213" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G213" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C214" s="18"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="26"/>
-      <c r="F214" s="9" t="s">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="10"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="G214" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H214" s="7" t="s">
+      <c r="F214" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G214" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C215" s="18"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="26"/>
-      <c r="F215" s="11" t="s">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="10"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="29"/>
+      <c r="E215" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="G215" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H215" s="7" t="s">
+      <c r="F215" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G215" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C216" s="18"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="9" t="s">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="10"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="29"/>
+      <c r="E216" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="G216" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H216" s="7" t="s">
+      <c r="F216" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C217" s="18"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="11" t="s">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="10"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="G217" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H217" s="7" t="s">
+      <c r="F217" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G217" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C218" s="18"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="9" t="s">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="10"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="G218" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H218" s="7" t="s">
+      <c r="F218" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G218" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="219" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C219" s="18"/>
-      <c r="D219" s="25"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="11" t="s">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="10"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G219" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H219" s="7" t="s">
+      <c r="F219" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G219" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C220" s="18"/>
-      <c r="D220" s="25"/>
-      <c r="E220" s="26"/>
-      <c r="F220" s="9" t="s">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="10"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="G220" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H220" s="7" t="s">
+      <c r="F220" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C221" s="18"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="26"/>
-      <c r="F221" s="11" t="s">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="10"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="G221" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H221" s="7" t="s">
+      <c r="F221" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="222" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C222" s="18"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="26"/>
-      <c r="F222" s="9" t="s">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="10"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G222" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H222" s="7" t="s">
+      <c r="F222" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G222" s="6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="223" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C223" s="18"/>
-      <c r="D223" s="25"/>
-      <c r="E223" s="26"/>
-      <c r="F223" s="11" t="s">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="10"/>
+      <c r="C223" s="9"/>
+      <c r="D223" s="29"/>
+      <c r="E223" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="G223" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H223" s="7" t="s">
+      <c r="F223" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G223" s="6" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C224" s="18"/>
-      <c r="D224" s="25"/>
-      <c r="E224" s="26"/>
-      <c r="F224" s="9" t="s">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="10"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="G224" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H224" s="7" t="s">
+      <c r="F224" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G224" s="6" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C225" s="18"/>
-      <c r="D225" s="25"/>
-      <c r="E225" s="26"/>
-      <c r="F225" s="11" t="s">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="10"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="G225" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H225" s="7" t="s">
+      <c r="F225" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G225" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C226" s="18"/>
-      <c r="D226" s="25"/>
-      <c r="E226" s="26"/>
-      <c r="F226" s="9" t="s">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="10"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="G226" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H226" s="7" t="s">
+      <c r="F226" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G226" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C227" s="18"/>
-      <c r="D227" s="25"/>
-      <c r="E227" s="26"/>
-      <c r="F227" s="11" t="s">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="10"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="G227" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H227" s="7" t="s">
+      <c r="F227" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G227" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C228" s="18"/>
-      <c r="D228" s="25"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="9" t="s">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="10"/>
+      <c r="C228" s="9"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G228" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H228" s="7" t="s">
+      <c r="F228" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="G228" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C229" s="18"/>
-      <c r="D229" s="25"/>
-      <c r="E229" s="9" t="s">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="10"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F229" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G229" s="7" t="s">
+      <c r="E229" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F229" s="20"/>
+      <c r="G229" s="6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="230" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C230" s="18"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="11" t="s">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="10"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="F230" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G230" s="7" t="s">
+      <c r="E230" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F230" s="20"/>
+      <c r="G230" s="6" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C231" s="18"/>
-      <c r="D231" s="25"/>
-      <c r="E231" s="9" t="s">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="10"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F231" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G231" s="7" t="s">
+      <c r="E231" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F231" s="20"/>
+      <c r="G231" s="6" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C232" s="18"/>
-      <c r="D232" s="25"/>
-      <c r="E232" s="16" t="s">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="10"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F232" s="9" t="s">
+      <c r="E232" s="4" t="s">
         <v>554</v>
       </c>
+      <c r="F232" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G232" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H232" s="7" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="233" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C233" s="18"/>
-      <c r="D233" s="25"/>
-      <c r="E233" s="16"/>
-      <c r="F233" s="9" t="s">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="10"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="4" t="s">
         <v>555</v>
       </c>
+      <c r="F233" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G233" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H233" s="7" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="234" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C234" s="18"/>
-      <c r="D234" s="25"/>
-      <c r="E234" s="16"/>
-      <c r="F234" s="9" t="s">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B234" s="10"/>
+      <c r="C234" s="9"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="4" t="s">
         <v>556</v>
       </c>
+      <c r="F234" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G234" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H234" s="7" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="235" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C235" s="18"/>
-      <c r="D235" s="25"/>
-      <c r="E235" s="9" t="s">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B235" s="10"/>
+      <c r="C235" s="9"/>
+      <c r="D235" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F235" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G235" s="8" t="s">
+      <c r="E235" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F235" s="20"/>
+      <c r="G235" s="13" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="236" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C236" s="18"/>
-      <c r="D236" s="25"/>
-      <c r="E236" s="16" t="s">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B236" s="10"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F236" s="9" t="s">
+      <c r="E236" s="4" t="s">
         <v>561</v>
       </c>
+      <c r="F236" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G236" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H236" s="7" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="237" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C237" s="18"/>
-      <c r="D237" s="25"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="9" t="s">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B237" s="10"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="4" t="s">
         <v>562</v>
       </c>
+      <c r="F237" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G237" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H237" s="7" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="238" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C238" s="18"/>
-      <c r="D238" s="25"/>
-      <c r="E238" s="16"/>
-      <c r="F238" s="9" t="s">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B238" s="10"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="4" t="s">
         <v>563</v>
       </c>
+      <c r="F238" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G238" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H238" s="7" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="239" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C239" s="18"/>
-      <c r="D239" s="25"/>
-      <c r="E239" s="16"/>
-      <c r="F239" s="9" t="s">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B239" s="10"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="4" t="s">
         <v>564</v>
       </c>
+      <c r="F239" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G239" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H239" s="7" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="240" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C240" s="18"/>
-      <c r="D240" s="25"/>
-      <c r="E240" s="16"/>
-      <c r="F240" s="9" t="s">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B240" s="10"/>
+      <c r="C240" s="9"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="4" t="s">
         <v>565</v>
       </c>
+      <c r="F240" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G240" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H240" s="7" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="241" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C241" s="18"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="16"/>
-      <c r="F241" s="9" t="s">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B241" s="10"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="F241" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G241" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H241" s="7" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="242" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C242" s="18"/>
-      <c r="D242" s="25"/>
-      <c r="E242" s="9" t="s">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B242" s="10"/>
+      <c r="C242" s="9"/>
+      <c r="D242" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F242" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G242" s="7" t="s">
+      <c r="E242" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F242" s="20"/>
+      <c r="G242" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="243" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C243" s="18"/>
-      <c r="D243" s="25"/>
-      <c r="E243" s="11" t="s">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B243" s="10"/>
+      <c r="C243" s="9"/>
+      <c r="D243" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F243" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G243" s="7" t="s">
+      <c r="E243" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F243" s="20"/>
+      <c r="G243" s="6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="244" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C244" s="18"/>
-      <c r="D244" s="25"/>
-      <c r="E244" s="21" t="s">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B244" s="10"/>
+      <c r="C244" s="9"/>
+      <c r="D244" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F244" s="9" t="s">
+      <c r="E244" s="4" t="s">
         <v>574</v>
       </c>
+      <c r="F244" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G244" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H244" s="7" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C245" s="18"/>
-      <c r="D245" s="25"/>
-      <c r="E245" s="21"/>
-      <c r="F245" s="9" t="s">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B245" s="10"/>
+      <c r="C245" s="9"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="4" t="s">
         <v>575</v>
       </c>
+      <c r="F245" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G245" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H245" s="7" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="246" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C246" s="18"/>
-      <c r="D246" s="25"/>
-      <c r="E246" s="21"/>
-      <c r="F246" s="9" t="s">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B246" s="10"/>
+      <c r="C246" s="9"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="4" t="s">
         <v>576</v>
       </c>
+      <c r="F246" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G246" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H246" s="7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C247" s="18"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="9" t="s">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B247" s="10"/>
+      <c r="C247" s="9"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="4" t="s">
         <v>577</v>
       </c>
+      <c r="F247" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G247" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H247" s="7" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="248" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C248" s="18"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="21"/>
-      <c r="F248" s="9" t="s">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B248" s="10"/>
+      <c r="C248" s="9"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="F248" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G248" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H248" s="7" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C249" s="18"/>
-      <c r="D249" s="25"/>
-      <c r="E249" s="21"/>
-      <c r="F249" s="9" t="s">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B249" s="10"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="4" t="s">
         <v>578</v>
       </c>
+      <c r="F249" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G249" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H249" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C250" s="18"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="21"/>
-      <c r="F250" s="9" t="s">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B250" s="10"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="4" t="s">
         <v>579</v>
       </c>
+      <c r="F250" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="G250" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H250" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C251" s="18"/>
-      <c r="D251" s="25"/>
-      <c r="E251" s="11" t="s">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B251" s="10"/>
+      <c r="C251" s="9"/>
+      <c r="D251" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F251" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G251" s="7" t="s">
+      <c r="E251" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F251" s="20"/>
+      <c r="G251" s="6" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="252" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C252" s="18"/>
-      <c r="D252" s="25"/>
-      <c r="E252" s="9" t="s">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B252" s="10"/>
+      <c r="C252" s="9"/>
+      <c r="D252" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F252" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G252" s="7" t="s">
+      <c r="E252" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F252" s="20"/>
+      <c r="G252" s="6" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C253" s="18"/>
-      <c r="D253" s="25"/>
-      <c r="E253" s="11" t="s">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="10"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F253" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G253" s="7" t="s">
+      <c r="E253" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F253" s="20"/>
+      <c r="G253" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="254" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C254" s="18"/>
-      <c r="D254" s="25"/>
-      <c r="E254" s="9" t="s">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B254" s="10"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F254" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G254" s="7" t="s">
+      <c r="E254" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F254" s="20"/>
+      <c r="G254" s="6" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="255" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C255" s="18"/>
-      <c r="D255" s="25"/>
-      <c r="E255" s="11" t="s">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B255" s="10"/>
+      <c r="C255" s="9"/>
+      <c r="D255" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F255" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G255" s="7" t="s">
+      <c r="E255" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F255" s="20"/>
+      <c r="G255" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="256" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C256" s="18"/>
-      <c r="D256" s="25"/>
-      <c r="E256" s="9" t="s">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="10"/>
+      <c r="C256" s="9"/>
+      <c r="D256" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F256" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G256" s="7" t="s">
+      <c r="E256" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F256" s="20"/>
+      <c r="G256" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C257" s="18"/>
-      <c r="D257" s="25"/>
-      <c r="E257" s="11" t="s">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B257" s="10"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F257" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G257" s="7" t="s">
+      <c r="E257" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F257" s="20"/>
+      <c r="G257" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C258" s="18"/>
-      <c r="D258" s="25"/>
-      <c r="E258" s="9" t="s">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B258" s="10"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F258" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G258" s="7" t="s">
+      <c r="E258" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F258" s="20"/>
+      <c r="G258" s="6" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C259" s="18"/>
-      <c r="D259" s="25"/>
-      <c r="E259" s="11" t="s">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B259" s="10"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F259" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G259" s="7" t="s">
+      <c r="E259" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F259" s="20"/>
+      <c r="G259" s="6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C260" s="18"/>
-      <c r="D260" s="25"/>
-      <c r="E260" s="9" t="s">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B260" s="10"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F260" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G260" s="7" t="s">
+      <c r="E260" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F260" s="20"/>
+      <c r="G260" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C261" s="18"/>
-      <c r="D261" s="25"/>
-      <c r="E261" s="11" t="s">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B261" s="10"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F261" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G261" s="7" t="s">
+      <c r="E261" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F261" s="20"/>
+      <c r="G261" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C262" s="18"/>
-      <c r="D262" s="25"/>
-      <c r="E262" s="9" t="s">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B262" s="10"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F262" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G262" s="7" t="s">
+      <c r="E262" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F262" s="20"/>
+      <c r="G262" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C263" s="18"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="11" t="s">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B263" s="10"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F263" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="G263" s="7" t="s">
+      <c r="E263" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="F263" s="20"/>
+      <c r="G263" s="6" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C264" s="18"/>
-      <c r="D264" s="25"/>
-      <c r="E264" s="9" t="s">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B264" s="10"/>
+      <c r="C264" s="9"/>
+      <c r="D264" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F264" s="12" t="s">
+      <c r="E264" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="G264" s="7" t="s">
+      <c r="F264" s="22"/>
+      <c r="G264" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C265" s="18"/>
-      <c r="D265" s="20" t="s">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B265" s="10"/>
+      <c r="C265" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E265" t="s">
+      <c r="D265" s="25" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C266" s="18"/>
-      <c r="D266" s="20"/>
-      <c r="E266" t="s">
+      <c r="E265" s="4"/>
+      <c r="F265" s="18"/>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B266" s="10"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="25" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C267" s="18"/>
-      <c r="D267" s="20"/>
-      <c r="E267" t="s">
+      <c r="E266" s="4"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B267" s="10"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C268" s="18"/>
-      <c r="D268" s="20"/>
-      <c r="E268" t="s">
+      <c r="E267" s="4"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B268" s="10"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="25" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C269" s="18"/>
-      <c r="D269" s="20"/>
-      <c r="E269" t="s">
+      <c r="E268" s="4"/>
+      <c r="F268" s="18"/>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B269" s="10"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="25" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C270" s="18"/>
-      <c r="D270" s="20"/>
-      <c r="E270" t="s">
+      <c r="E269" s="4"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B270" s="10"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="25" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C271" s="18"/>
-      <c r="D271" s="20"/>
-      <c r="E271" t="s">
+      <c r="E270" s="4"/>
+      <c r="F270" s="18"/>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B271" s="10"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="25" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C272" s="18"/>
-      <c r="D272" s="20"/>
-      <c r="E272" t="s">
+      <c r="E271" s="4"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B272" s="10"/>
+      <c r="C272" s="11"/>
+      <c r="D272" s="25" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C273" s="18"/>
-      <c r="D273" s="20"/>
-      <c r="E273" t="s">
+      <c r="E272" s="4"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B273" s="10"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="25" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C274" s="18"/>
-      <c r="D274" s="20"/>
-      <c r="E274" t="s">
+      <c r="E273" s="4"/>
+      <c r="F273" s="18"/>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B274" s="10"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="25" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C275" s="18"/>
-      <c r="D275" s="20"/>
-      <c r="E275" t="s">
+      <c r="E274" s="4"/>
+      <c r="F274" s="18"/>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B275" s="10"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="25" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C276" s="18"/>
-      <c r="D276" s="20"/>
-      <c r="E276" t="s">
+      <c r="E275" s="4"/>
+      <c r="F275" s="18"/>
+      <c r="G275" s="4"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B276" s="10"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="25" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C277" s="18"/>
-      <c r="D277" s="20"/>
-      <c r="E277" t="s">
+      <c r="E276" s="4"/>
+      <c r="F276" s="18"/>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="10"/>
+      <c r="C277" s="11"/>
+      <c r="D277" s="25" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C278" s="18"/>
-      <c r="D278" s="20"/>
-      <c r="E278" t="s">
+      <c r="E277" s="4"/>
+      <c r="F277" s="18"/>
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B278" s="10"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="25" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C279" s="18"/>
-      <c r="D279" s="20"/>
-      <c r="E279" t="s">
+      <c r="E278" s="4"/>
+      <c r="F278" s="18"/>
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B279" s="10"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="25" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C280" s="18"/>
-      <c r="D280" s="20" t="s">
+      <c r="E279" s="4"/>
+      <c r="F279" s="18"/>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B280" s="10"/>
+      <c r="C280" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E280" t="s">
+      <c r="D280" s="25" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C281" s="18"/>
-      <c r="D281" s="20"/>
-      <c r="E281" t="s">
+      <c r="E280" s="4"/>
+      <c r="F280" s="18"/>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B281" s="10"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="25" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C282" s="18"/>
-      <c r="D282" s="20"/>
-      <c r="E282" t="s">
+      <c r="E281" s="4"/>
+      <c r="F281" s="18"/>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B282" s="10"/>
+      <c r="C282" s="11"/>
+      <c r="D282" s="25" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C283" s="18"/>
-      <c r="D283" s="20"/>
-      <c r="E283" t="s">
+      <c r="E282" s="4"/>
+      <c r="F282" s="18"/>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B283" s="10"/>
+      <c r="C283" s="11"/>
+      <c r="D283" s="25" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C284" s="18"/>
-      <c r="D284" s="20"/>
-      <c r="E284" t="s">
+      <c r="E283" s="4"/>
+      <c r="F283" s="18"/>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B284" s="10"/>
+      <c r="C284" s="11"/>
+      <c r="D284" s="25" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C285" s="18"/>
-      <c r="D285" s="20"/>
-      <c r="E285" t="s">
+      <c r="E284" s="4"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B285" s="10"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="25" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C286" s="18"/>
-      <c r="D286" s="20"/>
-      <c r="E286" t="s">
+      <c r="E285" s="4"/>
+      <c r="F285" s="18"/>
+      <c r="G285" s="4"/>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B286" s="10"/>
+      <c r="C286" s="11"/>
+      <c r="D286" s="25" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C287" s="18"/>
-      <c r="D287" s="20"/>
-      <c r="E287" t="s">
+      <c r="E286" s="4"/>
+      <c r="F286" s="18"/>
+      <c r="G286" s="4"/>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B287" s="10"/>
+      <c r="C287" s="11"/>
+      <c r="D287" s="25" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C288" s="18"/>
-      <c r="D288" s="20"/>
-      <c r="E288" t="s">
+      <c r="E287" s="4"/>
+      <c r="F287" s="18"/>
+      <c r="G287" s="4"/>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" s="10"/>
+      <c r="C288" s="11"/>
+      <c r="D288" s="25" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C289" s="18"/>
-      <c r="D289" s="20" t="s">
+      <c r="E288" s="4"/>
+      <c r="F288" s="18"/>
+      <c r="G288" s="4"/>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="10"/>
+      <c r="C289" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E289" t="s">
+      <c r="D289" s="25" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C290" s="18"/>
-      <c r="D290" s="20"/>
-      <c r="E290" t="s">
+      <c r="E289" s="4"/>
+      <c r="F289" s="18"/>
+      <c r="G289" s="4"/>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="10"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="25" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C291" s="18"/>
-      <c r="D291" s="20"/>
-      <c r="E291" t="s">
+      <c r="E290" s="4"/>
+      <c r="F290" s="18"/>
+      <c r="G290" s="4"/>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="10"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="25" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C292" s="18"/>
-      <c r="D292" s="20"/>
-      <c r="E292" t="s">
+      <c r="E291" s="4"/>
+      <c r="F291" s="18"/>
+      <c r="G291" s="4"/>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B292" s="10"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="25" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C293" s="18"/>
-      <c r="D293" s="20" t="s">
+      <c r="E292" s="4"/>
+      <c r="F292" s="18"/>
+      <c r="G292" s="4"/>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" s="10"/>
+      <c r="C293" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E293" t="s">
+      <c r="D293" s="25" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C294" s="18"/>
-      <c r="D294" s="20"/>
-      <c r="E294" t="s">
+      <c r="E293" s="4"/>
+      <c r="F293" s="18"/>
+      <c r="G293" s="4"/>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B294" s="10"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="25" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C295" s="18"/>
-      <c r="D295" s="20"/>
-      <c r="E295" t="s">
+      <c r="E294" s="4"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="4"/>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B295" s="10"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C296" s="18"/>
-      <c r="D296" s="20"/>
-      <c r="E296" t="s">
+      <c r="E295" s="4"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="4"/>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B296" s="10"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="25" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C297" s="18"/>
-      <c r="D297" s="20"/>
-      <c r="E297" t="s">
+      <c r="E296" s="4"/>
+      <c r="F296" s="18"/>
+      <c r="G296" s="4"/>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B297" s="10"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="25" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C298" s="18"/>
-      <c r="D298" s="20"/>
-      <c r="E298" t="s">
+      <c r="E297" s="4"/>
+      <c r="F297" s="18"/>
+      <c r="G297" s="4"/>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B298" s="10"/>
+      <c r="C298" s="11"/>
+      <c r="D298" s="25" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C299" s="18"/>
-      <c r="D299" s="20"/>
-      <c r="E299" t="s">
+      <c r="E298" s="4"/>
+      <c r="F298" s="18"/>
+      <c r="G298" s="4"/>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B299" s="10"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C300" s="18"/>
-      <c r="D300" s="20"/>
-      <c r="E300" t="s">
+      <c r="E299" s="4"/>
+      <c r="F299" s="18"/>
+      <c r="G299" s="4"/>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B300" s="10"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="25" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C301" s="18"/>
-      <c r="D301" s="20"/>
-      <c r="E301" t="s">
+      <c r="E300" s="4"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="4"/>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B301" s="10"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="25" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C302" s="18"/>
-      <c r="D302" s="20"/>
-      <c r="E302" t="s">
+      <c r="E301" s="4"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="4"/>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B302" s="10"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="303" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C303" s="18"/>
-      <c r="D303" s="20"/>
-      <c r="E303" t="s">
+      <c r="E302" s="4"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B303" s="10"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="25" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="304" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C304" s="18"/>
-      <c r="D304" s="20"/>
-      <c r="E304" t="s">
+      <c r="E303" s="4"/>
+      <c r="F303" s="18"/>
+      <c r="G303" s="4"/>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B304" s="10"/>
+      <c r="C304" s="11"/>
+      <c r="D304" s="25" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C305" s="18"/>
-      <c r="D305" s="20"/>
-      <c r="E305" t="s">
+      <c r="E304" s="4"/>
+      <c r="F304" s="18"/>
+      <c r="G304" s="4"/>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B305" s="10"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="25" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C306" s="18"/>
-      <c r="D306" s="20"/>
-      <c r="E306" t="s">
+      <c r="E305" s="4"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="4"/>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B306" s="10"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="25" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C307" s="18"/>
-      <c r="D307" s="20"/>
-      <c r="E307" t="s">
+      <c r="E306" s="4"/>
+      <c r="F306" s="18"/>
+      <c r="G306" s="4"/>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B307" s="10"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="25" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C308" s="18"/>
-      <c r="D308" s="20" t="s">
+      <c r="E307" s="4"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="4"/>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B308" s="10"/>
+      <c r="C308" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E308" t="s">
+      <c r="D308" s="25" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C309" s="18"/>
-      <c r="D309" s="20"/>
-      <c r="E309" t="s">
+      <c r="E308" s="4"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="4"/>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B309" s="10"/>
+      <c r="C309" s="11"/>
+      <c r="D309" s="25" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C310" s="18"/>
-      <c r="D310" s="20"/>
-      <c r="E310" t="s">
+      <c r="E309" s="4"/>
+      <c r="F309" s="18"/>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B310" s="10"/>
+      <c r="C310" s="11"/>
+      <c r="D310" s="25" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C311" s="18"/>
-      <c r="D311" s="20"/>
-      <c r="E311" t="s">
+      <c r="E310" s="4"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="4"/>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B311" s="10"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="25" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C312" s="18"/>
-      <c r="D312" s="20"/>
-      <c r="E312" t="s">
+      <c r="E311" s="4"/>
+      <c r="F311" s="18"/>
+      <c r="G311" s="4"/>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B312" s="10"/>
+      <c r="C312" s="11"/>
+      <c r="D312" s="25" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="313" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C313" s="18"/>
-      <c r="D313" s="20"/>
-      <c r="E313" t="s">
+      <c r="E312" s="4"/>
+      <c r="F312" s="18"/>
+      <c r="G312" s="4"/>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B313" s="10"/>
+      <c r="C313" s="11"/>
+      <c r="D313" s="25" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C314" s="18"/>
-      <c r="D314" s="20"/>
-      <c r="E314" t="s">
+      <c r="E313" s="4"/>
+      <c r="F313" s="18"/>
+      <c r="G313" s="4"/>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B314" s="10"/>
+      <c r="C314" s="11"/>
+      <c r="D314" s="25" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C315" s="18"/>
-      <c r="D315" s="20"/>
-      <c r="E315" t="s">
+      <c r="E314" s="4"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="4"/>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B315" s="10"/>
+      <c r="C315" s="11"/>
+      <c r="D315" s="25" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C316" s="18"/>
-      <c r="D316" s="20"/>
-      <c r="E316" t="s">
+      <c r="E315" s="4"/>
+      <c r="F315" s="18"/>
+      <c r="G315" s="4"/>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B316" s="10"/>
+      <c r="C316" s="11"/>
+      <c r="D316" s="25" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C317" s="18"/>
-      <c r="D317" s="20"/>
-      <c r="E317" t="s">
+      <c r="E316" s="4"/>
+      <c r="F316" s="18"/>
+      <c r="G316" s="4"/>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B317" s="10"/>
+      <c r="C317" s="11"/>
+      <c r="D317" s="25" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="318" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C318" s="18"/>
-      <c r="D318" s="20"/>
-      <c r="E318" t="s">
+      <c r="E317" s="4"/>
+      <c r="F317" s="18"/>
+      <c r="G317" s="4"/>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B318" s="10"/>
+      <c r="C318" s="11"/>
+      <c r="D318" s="25" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C319" s="18"/>
-      <c r="D319" s="5" t="s">
+      <c r="E318" s="4"/>
+      <c r="F318" s="18"/>
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B319" s="10"/>
+      <c r="C319" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E319" s="4" t="s">
+      <c r="D319" s="30" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C320" s="18"/>
-      <c r="D320" s="20" t="s">
+      <c r="E319" s="4"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="4"/>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B320" s="10"/>
+      <c r="C320" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E320" t="s">
+      <c r="D320" s="25" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="321" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C321" s="18"/>
-      <c r="D321" s="20"/>
-      <c r="E321" t="s">
+      <c r="E320" s="4"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="4"/>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B321" s="10"/>
+      <c r="C321" s="11"/>
+      <c r="D321" s="25" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="322" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C322" s="18"/>
-      <c r="D322" s="20"/>
-      <c r="E322" t="s">
+      <c r="E321" s="4"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="4"/>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B322" s="10"/>
+      <c r="C322" s="11"/>
+      <c r="D322" s="25" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C323" s="18"/>
-      <c r="D323" s="20"/>
-      <c r="E323" t="s">
+      <c r="E322" s="4"/>
+      <c r="F322" s="18"/>
+      <c r="G322" s="4"/>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B323" s="10"/>
+      <c r="C323" s="11"/>
+      <c r="D323" s="25" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C324" s="18"/>
-      <c r="D324" s="20"/>
-      <c r="E324" t="s">
+      <c r="E323" s="4"/>
+      <c r="F323" s="18"/>
+      <c r="G323" s="4"/>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" s="10"/>
+      <c r="C324" s="11"/>
+      <c r="D324" s="25" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="325" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C325" s="18"/>
-      <c r="D325" s="20"/>
-      <c r="E325" t="s">
+      <c r="E324" s="4"/>
+      <c r="F324" s="18"/>
+      <c r="G324" s="4"/>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" s="10"/>
+      <c r="C325" s="11"/>
+      <c r="D325" s="25" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="326" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C326" s="18"/>
-      <c r="D326" s="20"/>
-      <c r="E326" t="s">
+      <c r="E325" s="4"/>
+      <c r="F325" s="18"/>
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" s="10"/>
+      <c r="C326" s="11"/>
+      <c r="D326" s="25" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="327" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C327" s="18"/>
-      <c r="D327" s="20"/>
-      <c r="E327" t="s">
+      <c r="E326" s="4"/>
+      <c r="F326" s="18"/>
+      <c r="G326" s="4"/>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="10"/>
+      <c r="C327" s="11"/>
+      <c r="D327" s="25" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="328" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C328" s="18"/>
-      <c r="D328" s="20" t="s">
+      <c r="E327" s="4"/>
+      <c r="F327" s="18"/>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="10"/>
+      <c r="C328" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E328" t="s">
+      <c r="D328" s="25" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="329" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C329" s="18"/>
-      <c r="D329" s="20"/>
-      <c r="E329" t="s">
+      <c r="E328" s="4"/>
+      <c r="F328" s="18"/>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="10"/>
+      <c r="C329" s="11"/>
+      <c r="D329" s="25" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="330" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C330" s="18"/>
-      <c r="D330" s="20"/>
-      <c r="E330" t="s">
+      <c r="E329" s="4"/>
+      <c r="F329" s="18"/>
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B330" s="10"/>
+      <c r="C330" s="11"/>
+      <c r="D330" s="25" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="331" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C331" s="18"/>
-      <c r="D331" s="20"/>
-      <c r="E331" t="s">
+      <c r="E330" s="4"/>
+      <c r="F330" s="18"/>
+      <c r="G330" s="4"/>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" s="10"/>
+      <c r="C331" s="11"/>
+      <c r="D331" s="25" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="332" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C332" s="18"/>
-      <c r="D332" s="20"/>
-      <c r="E332" t="s">
+      <c r="E331" s="4"/>
+      <c r="F331" s="18"/>
+      <c r="G331" s="4"/>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B332" s="10"/>
+      <c r="C332" s="11"/>
+      <c r="D332" s="25" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="333" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C333" s="18"/>
-      <c r="D333" s="20"/>
-      <c r="E333" t="s">
+      <c r="E332" s="4"/>
+      <c r="F332" s="18"/>
+      <c r="G332" s="4"/>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B333" s="10"/>
+      <c r="C333" s="11"/>
+      <c r="D333" s="25" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="334" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C334" s="18"/>
-      <c r="D334" s="20"/>
-      <c r="E334" t="s">
+      <c r="E333" s="4"/>
+      <c r="F333" s="18"/>
+      <c r="G333" s="4"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" s="10"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="25" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="335" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C335" s="18"/>
-      <c r="D335" s="20"/>
-      <c r="E335" t="s">
+      <c r="E334" s="4"/>
+      <c r="F334" s="18"/>
+      <c r="G334" s="4"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="10"/>
+      <c r="C335" s="11"/>
+      <c r="D335" s="25" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="336" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C336" s="18"/>
-      <c r="D336" s="20"/>
-      <c r="E336" t="s">
+      <c r="E335" s="4"/>
+      <c r="F335" s="18"/>
+      <c r="G335" s="4"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" s="10"/>
+      <c r="C336" s="11"/>
+      <c r="D336" s="25" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="337" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C337" s="18"/>
-      <c r="D337" s="20"/>
-      <c r="E337" t="s">
+      <c r="E336" s="4"/>
+      <c r="F336" s="18"/>
+      <c r="G336" s="4"/>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B337" s="10"/>
+      <c r="C337" s="11"/>
+      <c r="D337" s="25" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="338" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C338" s="18"/>
-      <c r="D338" s="20"/>
-      <c r="E338" t="s">
+      <c r="E337" s="4"/>
+      <c r="F337" s="18"/>
+      <c r="G337" s="4"/>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B338" s="10"/>
+      <c r="C338" s="11"/>
+      <c r="D338" s="25" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="339" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C339" s="18"/>
-      <c r="D339" s="20"/>
-      <c r="E339" t="s">
+      <c r="E338" s="4"/>
+      <c r="F338" s="18"/>
+      <c r="G338" s="4"/>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B339" s="10"/>
+      <c r="C339" s="11"/>
+      <c r="D339" s="25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="340" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C340" s="18"/>
-      <c r="D340" s="20"/>
-      <c r="E340" t="s">
+      <c r="E339" s="4"/>
+      <c r="F339" s="18"/>
+      <c r="G339" s="4"/>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B340" s="10"/>
+      <c r="C340" s="11"/>
+      <c r="D340" s="25" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="341" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C341" s="18"/>
-      <c r="D341" s="20"/>
-      <c r="E341" t="s">
+      <c r="E340" s="4"/>
+      <c r="F340" s="18"/>
+      <c r="G340" s="4"/>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B341" s="10"/>
+      <c r="C341" s="11"/>
+      <c r="D341" s="25" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="342" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C342" s="18"/>
-      <c r="D342" s="23" t="s">
+      <c r="E341" s="4"/>
+      <c r="F341" s="18"/>
+      <c r="G341" s="4"/>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B342" s="10"/>
+      <c r="C342" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E342" t="s">
+      <c r="D342" s="25" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="343" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C343" s="18"/>
-      <c r="D343" s="23"/>
-      <c r="E343" t="s">
+      <c r="E342" s="4"/>
+      <c r="F342" s="18"/>
+      <c r="G342" s="4"/>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B343" s="10"/>
+      <c r="C343" s="15"/>
+      <c r="D343" s="25" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C344" s="18"/>
-      <c r="D344" s="20" t="s">
+      <c r="E343" s="4"/>
+      <c r="F343" s="18"/>
+      <c r="G343" s="4"/>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B344" s="10"/>
+      <c r="C344" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E344" t="s">
+      <c r="D344" s="25" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C345" s="18"/>
-      <c r="D345" s="20"/>
-      <c r="E345" t="s">
+      <c r="E344" s="4"/>
+      <c r="F344" s="18"/>
+      <c r="G344" s="4"/>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B345" s="10"/>
+      <c r="C345" s="11"/>
+      <c r="D345" s="25" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C346" s="18"/>
-      <c r="D346" s="20"/>
-      <c r="E346" t="s">
+      <c r="E345" s="4"/>
+      <c r="F345" s="18"/>
+      <c r="G345" s="4"/>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B346" s="10"/>
+      <c r="C346" s="11"/>
+      <c r="D346" s="25" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C347" s="18"/>
-      <c r="D347" s="20"/>
-      <c r="E347" t="s">
+      <c r="E346" s="4"/>
+      <c r="F346" s="18"/>
+      <c r="G346" s="4"/>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B347" s="10"/>
+      <c r="C347" s="11"/>
+      <c r="D347" s="25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="348" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C348" s="18"/>
-      <c r="D348" s="20"/>
-      <c r="E348" t="s">
+      <c r="E347" s="4"/>
+      <c r="F347" s="18"/>
+      <c r="G347" s="4"/>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B348" s="10"/>
+      <c r="C348" s="11"/>
+      <c r="D348" s="25" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="349" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C349" s="18"/>
-      <c r="D349" s="20"/>
-      <c r="E349" t="s">
+      <c r="E348" s="4"/>
+      <c r="F348" s="18"/>
+      <c r="G348" s="4"/>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B349" s="10"/>
+      <c r="C349" s="11"/>
+      <c r="D349" s="25" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="350" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C350" s="18"/>
-      <c r="D350" s="20"/>
-      <c r="E350" t="s">
+      <c r="E349" s="4"/>
+      <c r="F349" s="18"/>
+      <c r="G349" s="4"/>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B350" s="10"/>
+      <c r="C350" s="11"/>
+      <c r="D350" s="25" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C351" s="18"/>
-      <c r="D351" s="20"/>
-      <c r="E351" t="s">
+      <c r="E350" s="4"/>
+      <c r="F350" s="18"/>
+      <c r="G350" s="4"/>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B351" s="10"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="25" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C352" s="18"/>
-      <c r="D352" s="20"/>
-      <c r="E352" t="s">
+      <c r="E351" s="4"/>
+      <c r="F351" s="18"/>
+      <c r="G351" s="4"/>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B352" s="10"/>
+      <c r="C352" s="11"/>
+      <c r="D352" s="25" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="353" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C353" s="18"/>
-      <c r="D353" s="20"/>
-      <c r="E353" t="s">
+      <c r="E352" s="4"/>
+      <c r="F352" s="18"/>
+      <c r="G352" s="4"/>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B353" s="10"/>
+      <c r="C353" s="11"/>
+      <c r="D353" s="25" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C354" s="18"/>
-      <c r="D354" s="20"/>
-      <c r="E354" t="s">
+      <c r="E353" s="4"/>
+      <c r="F353" s="18"/>
+      <c r="G353" s="4"/>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B354" s="10"/>
+      <c r="C354" s="11"/>
+      <c r="D354" s="25" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="355" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C355" s="18"/>
-      <c r="D355" s="20"/>
-      <c r="E355" t="s">
+      <c r="E354" s="4"/>
+      <c r="F354" s="18"/>
+      <c r="G354" s="4"/>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B355" s="10"/>
+      <c r="C355" s="11"/>
+      <c r="D355" s="25" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="356" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C356" s="18"/>
-      <c r="D356" s="20"/>
-      <c r="E356" t="s">
+      <c r="E355" s="4"/>
+      <c r="F355" s="18"/>
+      <c r="G355" s="4"/>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B356" s="10"/>
+      <c r="C356" s="11"/>
+      <c r="D356" s="25" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="357" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C357" s="18"/>
-      <c r="D357" s="20" t="s">
+      <c r="E356" s="4"/>
+      <c r="F356" s="18"/>
+      <c r="G356" s="4"/>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B357" s="10"/>
+      <c r="C357" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E357" t="s">
+      <c r="D357" s="25" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C358" s="18"/>
-      <c r="D358" s="20"/>
-      <c r="E358" t="s">
+      <c r="E357" s="4"/>
+      <c r="F357" s="18"/>
+      <c r="G357" s="4"/>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B358" s="10"/>
+      <c r="C358" s="11"/>
+      <c r="D358" s="25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="359" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C359" s="18"/>
-      <c r="D359" s="20"/>
-      <c r="E359" t="s">
+      <c r="E358" s="4"/>
+      <c r="F358" s="18"/>
+      <c r="G358" s="4"/>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B359" s="10"/>
+      <c r="C359" s="11"/>
+      <c r="D359" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C360" s="18"/>
-      <c r="D360" s="20"/>
-      <c r="E360" t="s">
+      <c r="E359" s="4"/>
+      <c r="F359" s="18"/>
+      <c r="G359" s="4"/>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B360" s="10"/>
+      <c r="C360" s="11"/>
+      <c r="D360" s="25" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C361" s="18"/>
-      <c r="D361" s="20"/>
-      <c r="E361" t="s">
+      <c r="E360" s="4"/>
+      <c r="F360" s="18"/>
+      <c r="G360" s="4"/>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B361" s="10"/>
+      <c r="C361" s="11"/>
+      <c r="D361" s="25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="362" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C362" s="18"/>
-      <c r="D362" s="20"/>
-      <c r="E362" t="s">
+      <c r="E361" s="4"/>
+      <c r="F361" s="18"/>
+      <c r="G361" s="4"/>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B362" s="10"/>
+      <c r="C362" s="11"/>
+      <c r="D362" s="25" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="363" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C363" s="18"/>
-      <c r="D363" s="20"/>
-      <c r="E363" t="s">
+      <c r="E362" s="4"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="4"/>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B363" s="10"/>
+      <c r="C363" s="11"/>
+      <c r="D363" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C364" s="18"/>
-      <c r="D364" s="20"/>
-      <c r="E364" t="s">
+      <c r="E363" s="4"/>
+      <c r="F363" s="18"/>
+      <c r="G363" s="4"/>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B364" s="10"/>
+      <c r="C364" s="11"/>
+      <c r="D364" s="25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="365" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C365" s="18"/>
-      <c r="D365" s="20"/>
-      <c r="E365" t="s">
+      <c r="E364" s="4"/>
+      <c r="F364" s="18"/>
+      <c r="G364" s="4"/>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B365" s="10"/>
+      <c r="C365" s="11"/>
+      <c r="D365" s="25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="366" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C366" s="18"/>
-      <c r="D366" s="20"/>
-      <c r="E366" t="s">
+      <c r="E365" s="4"/>
+      <c r="F365" s="18"/>
+      <c r="G365" s="4"/>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B366" s="10"/>
+      <c r="C366" s="11"/>
+      <c r="D366" s="25" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="367" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C367" s="18"/>
-      <c r="D367" s="5" t="s">
+      <c r="E366" s="4"/>
+      <c r="F366" s="18"/>
+      <c r="G366" s="4"/>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B367" s="10"/>
+      <c r="C367" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E367" s="6" t="s">
+      <c r="D367" s="31" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="368" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C368" s="18"/>
-      <c r="D368" s="20" t="s">
+      <c r="E367" s="4"/>
+      <c r="F367" s="18"/>
+      <c r="G367" s="4"/>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B368" s="10"/>
+      <c r="C368" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E368" t="s">
+      <c r="D368" s="25" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="369" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C369" s="18"/>
-      <c r="D369" s="20"/>
-      <c r="E369" t="s">
+      <c r="E368" s="4"/>
+      <c r="F368" s="18"/>
+      <c r="G368" s="4"/>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B369" s="10"/>
+      <c r="C369" s="11"/>
+      <c r="D369" s="25" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="370" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C370" s="18"/>
-      <c r="D370" s="20"/>
-      <c r="E370" t="s">
+      <c r="E369" s="4"/>
+      <c r="F369" s="18"/>
+      <c r="G369" s="4"/>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B370" s="10"/>
+      <c r="C370" s="11"/>
+      <c r="D370" s="25" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C371" s="18"/>
-      <c r="D371" s="20"/>
-      <c r="E371" t="s">
+      <c r="E370" s="4"/>
+      <c r="F370" s="18"/>
+      <c r="G370" s="4"/>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B371" s="10"/>
+      <c r="C371" s="11"/>
+      <c r="D371" s="25" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="372" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C372" s="18"/>
-      <c r="D372" s="20"/>
-      <c r="E372" t="s">
+      <c r="E371" s="4"/>
+      <c r="F371" s="18"/>
+      <c r="G371" s="4"/>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B372" s="10"/>
+      <c r="C372" s="11"/>
+      <c r="D372" s="25" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="373" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C373" s="18"/>
-      <c r="D373" s="20"/>
-      <c r="E373" t="s">
+      <c r="E372" s="4"/>
+      <c r="F372" s="18"/>
+      <c r="G372" s="4"/>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B373" s="10"/>
+      <c r="C373" s="11"/>
+      <c r="D373" s="25" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C374" s="18"/>
-      <c r="D374" s="20"/>
-      <c r="E374" t="s">
+      <c r="E373" s="4"/>
+      <c r="F373" s="18"/>
+      <c r="G373" s="4"/>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B374" s="10"/>
+      <c r="C374" s="11"/>
+      <c r="D374" s="25" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="375" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C375" s="18"/>
-      <c r="D375" s="20"/>
-      <c r="E375" t="s">
+      <c r="E374" s="4"/>
+      <c r="F374" s="18"/>
+      <c r="G374" s="4"/>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B375" s="10"/>
+      <c r="C375" s="11"/>
+      <c r="D375" s="25" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="376" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C376" s="18"/>
-      <c r="D376" s="20"/>
-      <c r="E376" t="s">
+      <c r="E375" s="4"/>
+      <c r="F375" s="18"/>
+      <c r="G375" s="4"/>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B376" s="10"/>
+      <c r="C376" s="11"/>
+      <c r="D376" s="25" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C377" s="18"/>
-      <c r="D377" s="20"/>
-      <c r="E377" t="s">
+      <c r="E376" s="4"/>
+      <c r="F376" s="18"/>
+      <c r="G376" s="4"/>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B377" s="10"/>
+      <c r="C377" s="11"/>
+      <c r="D377" s="25" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="378" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C378" s="18"/>
-      <c r="D378" s="20"/>
-      <c r="E378" t="s">
+      <c r="E377" s="4"/>
+      <c r="F377" s="18"/>
+      <c r="G377" s="4"/>
+    </row>
+    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B378" s="10"/>
+      <c r="C378" s="11"/>
+      <c r="D378" s="25" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="379" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C379" s="18"/>
-      <c r="D379" s="20"/>
-      <c r="E379" t="s">
+      <c r="E378" s="4"/>
+      <c r="F378" s="18"/>
+      <c r="G378" s="4"/>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B379" s="10"/>
+      <c r="C379" s="11"/>
+      <c r="D379" s="25" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C380" s="18"/>
-      <c r="D380" s="20"/>
-      <c r="E380" t="s">
+      <c r="E379" s="4"/>
+      <c r="F379" s="18"/>
+      <c r="G379" s="4"/>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B380" s="10"/>
+      <c r="C380" s="11"/>
+      <c r="D380" s="25" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="381" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C381" s="18"/>
-      <c r="D381" s="20"/>
-      <c r="E381" t="s">
+      <c r="E380" s="4"/>
+      <c r="F380" s="18"/>
+      <c r="G380" s="4"/>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B381" s="10"/>
+      <c r="C381" s="11"/>
+      <c r="D381" s="25" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="382" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C382" s="18"/>
-      <c r="D382" s="20"/>
-      <c r="E382" t="s">
+      <c r="E381" s="4"/>
+      <c r="F381" s="18"/>
+      <c r="G381" s="4"/>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B382" s="10"/>
+      <c r="C382" s="11"/>
+      <c r="D382" s="25" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C383" s="18"/>
-      <c r="D383" s="20"/>
-      <c r="E383" t="s">
+      <c r="E382" s="4"/>
+      <c r="F382" s="18"/>
+      <c r="G382" s="4"/>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B383" s="10"/>
+      <c r="C383" s="11"/>
+      <c r="D383" s="25" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="384" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C384" s="18"/>
-      <c r="D384" s="20"/>
-      <c r="E384" t="s">
+      <c r="E383" s="4"/>
+      <c r="F383" s="18"/>
+      <c r="G383" s="4"/>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B384" s="10"/>
+      <c r="C384" s="11"/>
+      <c r="D384" s="25" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="385" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C385" s="18"/>
-      <c r="D385" s="20"/>
-      <c r="E385" t="s">
+      <c r="E384" s="4"/>
+      <c r="F384" s="18"/>
+      <c r="G384" s="4"/>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B385" s="10"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="25" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C386" s="18"/>
-      <c r="D386" s="20"/>
-      <c r="E386" t="s">
+      <c r="E385" s="4"/>
+      <c r="F385" s="18"/>
+      <c r="G385" s="4"/>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B386" s="10"/>
+      <c r="C386" s="11"/>
+      <c r="D386" s="25" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="387" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C387" s="18"/>
-      <c r="D387" s="20"/>
-      <c r="E387" t="s">
+      <c r="E386" s="4"/>
+      <c r="F386" s="18"/>
+      <c r="G386" s="4"/>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B387" s="10"/>
+      <c r="C387" s="11"/>
+      <c r="D387" s="25" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="388" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C388" s="18"/>
-      <c r="D388" s="20"/>
-      <c r="E388" t="s">
+      <c r="E387" s="4"/>
+      <c r="F387" s="18"/>
+      <c r="G387" s="4"/>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B388" s="10"/>
+      <c r="C388" s="11"/>
+      <c r="D388" s="25" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C389" s="18"/>
-      <c r="D389" s="20"/>
-      <c r="E389" t="s">
+      <c r="E388" s="4"/>
+      <c r="F388" s="18"/>
+      <c r="G388" s="4"/>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B389" s="10"/>
+      <c r="C389" s="11"/>
+      <c r="D389" s="25" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="390" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C390" s="18"/>
-      <c r="D390" s="20"/>
-      <c r="E390" t="s">
+      <c r="E389" s="4"/>
+      <c r="F389" s="18"/>
+      <c r="G389" s="4"/>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B390" s="10"/>
+      <c r="C390" s="11"/>
+      <c r="D390" s="25" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="391" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C391" s="18"/>
-      <c r="D391" s="20"/>
-      <c r="E391" t="s">
+      <c r="E390" s="4"/>
+      <c r="F390" s="18"/>
+      <c r="G390" s="4"/>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B391" s="10"/>
+      <c r="C391" s="11"/>
+      <c r="D391" s="25" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C392" s="18"/>
-      <c r="D392" s="20"/>
-      <c r="E392" t="s">
+      <c r="E391" s="4"/>
+      <c r="F391" s="18"/>
+      <c r="G391" s="4"/>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B392" s="10"/>
+      <c r="C392" s="11"/>
+      <c r="D392" s="25" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="393" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C393" s="18"/>
-      <c r="D393" s="20"/>
-      <c r="E393" t="s">
+      <c r="E392" s="4"/>
+      <c r="F392" s="18"/>
+      <c r="G392" s="4"/>
+    </row>
+    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B393" s="10"/>
+      <c r="C393" s="11"/>
+      <c r="D393" s="25" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="394" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C394" s="18"/>
-      <c r="D394" s="20"/>
-      <c r="E394" t="s">
+      <c r="E393" s="4"/>
+      <c r="F393" s="18"/>
+      <c r="G393" s="4"/>
+    </row>
+    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B394" s="10"/>
+      <c r="C394" s="11"/>
+      <c r="D394" s="25" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C395" s="18"/>
-      <c r="D395" s="20"/>
-      <c r="E395" t="s">
+      <c r="E394" s="4"/>
+      <c r="F394" s="18"/>
+      <c r="G394" s="4"/>
+    </row>
+    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B395" s="10"/>
+      <c r="C395" s="11"/>
+      <c r="D395" s="25" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="396" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C396" s="18"/>
-      <c r="D396" s="20"/>
-      <c r="E396" t="s">
+      <c r="E395" s="4"/>
+      <c r="F395" s="18"/>
+      <c r="G395" s="4"/>
+    </row>
+    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B396" s="10"/>
+      <c r="C396" s="11"/>
+      <c r="D396" s="25" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="397" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C397" s="18"/>
-      <c r="D397" s="20"/>
-      <c r="E397" t="s">
+      <c r="E396" s="4"/>
+      <c r="F396" s="18"/>
+      <c r="G396" s="4"/>
+    </row>
+    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B397" s="10"/>
+      <c r="C397" s="11"/>
+      <c r="D397" s="25" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="398" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C398" s="18"/>
-      <c r="D398" s="20"/>
-      <c r="E398" t="s">
+      <c r="E397" s="4"/>
+      <c r="F397" s="18"/>
+      <c r="G397" s="4"/>
+    </row>
+    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B398" s="10"/>
+      <c r="C398" s="11"/>
+      <c r="D398" s="25" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C399" s="18"/>
-      <c r="D399" s="20"/>
-      <c r="E399" t="s">
+      <c r="E398" s="4"/>
+      <c r="F398" s="18"/>
+      <c r="G398" s="4"/>
+    </row>
+    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B399" s="10"/>
+      <c r="C399" s="11"/>
+      <c r="D399" s="25" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="400" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C400" s="18"/>
-      <c r="D400" s="20"/>
-      <c r="E400" t="s">
+      <c r="E399" s="4"/>
+      <c r="F399" s="18"/>
+      <c r="G399" s="4"/>
+    </row>
+    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B400" s="10"/>
+      <c r="C400" s="11"/>
+      <c r="D400" s="25" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C401" s="18"/>
-      <c r="D401" s="20"/>
-      <c r="E401" t="s">
+      <c r="E400" s="4"/>
+      <c r="F400" s="18"/>
+      <c r="G400" s="4"/>
+    </row>
+    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B401" s="10"/>
+      <c r="C401" s="11"/>
+      <c r="D401" s="25" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="402" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C402" s="18"/>
-      <c r="D402" s="20"/>
-      <c r="E402" t="s">
+      <c r="E401" s="4"/>
+      <c r="F401" s="18"/>
+      <c r="G401" s="4"/>
+    </row>
+    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B402" s="10"/>
+      <c r="C402" s="11"/>
+      <c r="D402" s="25" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="403" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C403" s="18"/>
-      <c r="D403" s="20"/>
-      <c r="E403" t="s">
+      <c r="E402" s="4"/>
+      <c r="F402" s="18"/>
+      <c r="G402" s="4"/>
+    </row>
+    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B403" s="10"/>
+      <c r="C403" s="11"/>
+      <c r="D403" s="25" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="404" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C404" s="18"/>
-      <c r="D404" s="20"/>
-      <c r="E404" t="s">
+      <c r="E403" s="4"/>
+      <c r="F403" s="18"/>
+      <c r="G403" s="4"/>
+    </row>
+    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B404" s="10"/>
+      <c r="C404" s="11"/>
+      <c r="D404" s="25" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C405" s="18"/>
-      <c r="D405" s="20"/>
-      <c r="E405" t="s">
+      <c r="E404" s="4"/>
+      <c r="F404" s="18"/>
+      <c r="G404" s="4"/>
+    </row>
+    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B405" s="10"/>
+      <c r="C405" s="11"/>
+      <c r="D405" s="25" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C406" s="18"/>
-      <c r="D406" s="20"/>
-      <c r="E406" t="s">
+      <c r="E405" s="4"/>
+      <c r="F405" s="18"/>
+      <c r="G405" s="4"/>
+    </row>
+    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B406" s="10"/>
+      <c r="C406" s="11"/>
+      <c r="D406" s="25" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C407" s="18"/>
-      <c r="D407" s="20"/>
-      <c r="E407" t="s">
+      <c r="E406" s="4"/>
+      <c r="F406" s="18"/>
+      <c r="G406" s="4"/>
+    </row>
+    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B407" s="10"/>
+      <c r="C407" s="11"/>
+      <c r="D407" s="25" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C408" s="18"/>
-      <c r="D408" s="20"/>
-      <c r="E408" t="s">
+      <c r="E407" s="4"/>
+      <c r="F407" s="18"/>
+      <c r="G407" s="4"/>
+    </row>
+    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B408" s="10"/>
+      <c r="C408" s="11"/>
+      <c r="D408" s="25" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="409" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C409" s="18"/>
-      <c r="D409" s="20"/>
-      <c r="E409" t="s">
+      <c r="E408" s="4"/>
+      <c r="F408" s="18"/>
+      <c r="G408" s="4"/>
+    </row>
+    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B409" s="10"/>
+      <c r="C409" s="11"/>
+      <c r="D409" s="25" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="410" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C410" s="18"/>
-      <c r="D410" s="20"/>
-      <c r="E410" t="s">
+      <c r="E409" s="4"/>
+      <c r="F409" s="18"/>
+      <c r="G409" s="4"/>
+    </row>
+    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B410" s="10"/>
+      <c r="C410" s="11"/>
+      <c r="D410" s="25" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C411" s="18"/>
-      <c r="D411" s="20"/>
-      <c r="E411" t="s">
+      <c r="E410" s="4"/>
+      <c r="F410" s="18"/>
+      <c r="G410" s="4"/>
+    </row>
+    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B411" s="10"/>
+      <c r="C411" s="11"/>
+      <c r="D411" s="25" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="412" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C412" s="18"/>
-      <c r="D412" s="20"/>
-      <c r="E412" t="s">
+      <c r="E411" s="4"/>
+      <c r="F411" s="18"/>
+      <c r="G411" s="4"/>
+    </row>
+    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B412" s="10"/>
+      <c r="C412" s="11"/>
+      <c r="D412" s="25" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="413" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C413" s="18"/>
-      <c r="D413" s="20"/>
-      <c r="E413" t="s">
+      <c r="E412" s="4"/>
+      <c r="F412" s="18"/>
+      <c r="G412" s="4"/>
+    </row>
+    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B413" s="10"/>
+      <c r="C413" s="11"/>
+      <c r="D413" s="25" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="414" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C414" s="18"/>
-      <c r="D414" s="20"/>
-      <c r="E414" t="s">
+      <c r="E413" s="4"/>
+      <c r="F413" s="18"/>
+      <c r="G413" s="4"/>
+    </row>
+    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B414" s="10"/>
+      <c r="C414" s="11"/>
+      <c r="D414" s="25" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="415" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C415" s="18"/>
-      <c r="D415" s="20" t="s">
+      <c r="E414" s="4"/>
+      <c r="F414" s="18"/>
+      <c r="G414" s="4"/>
+    </row>
+    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B415" s="10"/>
+      <c r="C415" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E415" t="s">
+      <c r="D415" s="25" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="416" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C416" s="18"/>
-      <c r="D416" s="20"/>
-      <c r="E416" t="s">
+      <c r="E415" s="4"/>
+      <c r="F415" s="18"/>
+      <c r="G415" s="4"/>
+    </row>
+    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B416" s="10"/>
+      <c r="C416" s="11"/>
+      <c r="D416" s="25" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="417" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C417" s="18"/>
-      <c r="D417" s="20"/>
-      <c r="E417" t="s">
+      <c r="E416" s="4"/>
+      <c r="F416" s="18"/>
+      <c r="G416" s="4"/>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B417" s="10"/>
+      <c r="C417" s="11"/>
+      <c r="D417" s="25" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C418" s="18"/>
-      <c r="D418" s="20"/>
-      <c r="E418" t="s">
+      <c r="E417" s="4"/>
+      <c r="F417" s="18"/>
+      <c r="G417" s="4"/>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B418" s="10"/>
+      <c r="C418" s="11"/>
+      <c r="D418" s="25" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C419" s="18"/>
-      <c r="D419" s="20" t="s">
+      <c r="E418" s="4"/>
+      <c r="F418" s="18"/>
+      <c r="G418" s="4"/>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B419" s="10"/>
+      <c r="C419" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E419" t="s">
+      <c r="D419" s="25" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="420" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C420" s="18"/>
-      <c r="D420" s="20"/>
-      <c r="E420" t="s">
+      <c r="E419" s="4"/>
+      <c r="F419" s="18"/>
+      <c r="G419" s="4"/>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B420" s="10"/>
+      <c r="C420" s="11"/>
+      <c r="D420" s="25" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="421" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C421" s="18"/>
-      <c r="D421" s="20"/>
-      <c r="E421" t="s">
+      <c r="E420" s="4"/>
+      <c r="F420" s="18"/>
+      <c r="G420" s="4"/>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B421" s="10"/>
+      <c r="C421" s="11"/>
+      <c r="D421" s="25" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C422" s="18"/>
-      <c r="D422" s="20" t="s">
+      <c r="E421" s="4"/>
+      <c r="F421" s="18"/>
+      <c r="G421" s="4"/>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B422" s="10"/>
+      <c r="C422" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E422" t="s">
+      <c r="D422" s="25" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="423" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C423" s="18"/>
-      <c r="D423" s="20"/>
-      <c r="E423" t="s">
+      <c r="E422" s="4"/>
+      <c r="F422" s="18"/>
+      <c r="G422" s="4"/>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B423" s="10"/>
+      <c r="C423" s="11"/>
+      <c r="D423" s="25" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C424" s="18"/>
-      <c r="D424" s="20"/>
-      <c r="E424" t="s">
+      <c r="E423" s="4"/>
+      <c r="F423" s="18"/>
+      <c r="G423" s="4"/>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B424" s="10"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="25" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C425" s="18"/>
-      <c r="D425" s="20"/>
-      <c r="E425" t="s">
+      <c r="E424" s="4"/>
+      <c r="F424" s="18"/>
+      <c r="G424" s="4"/>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B425" s="10"/>
+      <c r="C425" s="11"/>
+      <c r="D425" s="25" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="426" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C426" s="18"/>
-      <c r="D426" s="20"/>
-      <c r="E426" t="s">
+      <c r="E425" s="4"/>
+      <c r="F425" s="18"/>
+      <c r="G425" s="4"/>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B426" s="10"/>
+      <c r="C426" s="11"/>
+      <c r="D426" s="25" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C427" s="18"/>
-      <c r="D427" s="20"/>
-      <c r="E427" t="s">
+      <c r="E426" s="4"/>
+      <c r="F426" s="18"/>
+      <c r="G426" s="4"/>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B427" s="10"/>
+      <c r="C427" s="11"/>
+      <c r="D427" s="25" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="428" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C428" s="18"/>
-      <c r="D428" s="20"/>
-      <c r="E428" t="s">
+      <c r="E427" s="4"/>
+      <c r="F427" s="18"/>
+      <c r="G427" s="4"/>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B428" s="10"/>
+      <c r="C428" s="11"/>
+      <c r="D428" s="25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C429" s="18"/>
-      <c r="D429" s="5" t="s">
+      <c r="E428" s="4"/>
+      <c r="F428" s="18"/>
+      <c r="G428" s="4"/>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B429" s="10"/>
+      <c r="C429" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E429" s="4" t="s">
+      <c r="D429" s="30" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C430" s="18"/>
-      <c r="D430" s="5" t="s">
+      <c r="E429" s="4"/>
+      <c r="F429" s="18"/>
+      <c r="G429" s="4"/>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B430" s="10"/>
+      <c r="C430" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E430" s="4" t="s">
+      <c r="D430" s="30" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="431" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C431" s="18"/>
-      <c r="D431" s="20" t="s">
+      <c r="E430" s="4"/>
+      <c r="F430" s="18"/>
+      <c r="G430" s="4"/>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B431" s="10"/>
+      <c r="C431" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E431" t="s">
+      <c r="D431" s="25" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="432" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C432" s="18"/>
-      <c r="D432" s="20"/>
-      <c r="E432" t="s">
+      <c r="E431" s="4"/>
+      <c r="F431" s="18"/>
+      <c r="G431" s="4"/>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B432" s="10"/>
+      <c r="C432" s="11"/>
+      <c r="D432" s="25" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C433" s="18"/>
-      <c r="D433" s="20"/>
-      <c r="E433" t="s">
+      <c r="E432" s="4"/>
+      <c r="F432" s="18"/>
+      <c r="G432" s="4"/>
+    </row>
+    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B433" s="10"/>
+      <c r="C433" s="11"/>
+      <c r="D433" s="25" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C434" s="18"/>
-      <c r="D434" s="20"/>
-      <c r="E434" t="s">
+      <c r="E433" s="4"/>
+      <c r="F433" s="18"/>
+      <c r="G433" s="4"/>
+    </row>
+    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B434" s="10"/>
+      <c r="C434" s="11"/>
+      <c r="D434" s="25" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C435" s="18"/>
-      <c r="D435" s="20"/>
-      <c r="E435" t="s">
+      <c r="E434" s="4"/>
+      <c r="F434" s="18"/>
+      <c r="G434" s="4"/>
+    </row>
+    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B435" s="10"/>
+      <c r="C435" s="11"/>
+      <c r="D435" s="25" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C436" s="18"/>
-      <c r="D436" s="20"/>
-      <c r="E436" t="s">
+      <c r="E435" s="4"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="4"/>
+    </row>
+    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B436" s="10"/>
+      <c r="C436" s="11"/>
+      <c r="D436" s="25" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C437" s="18"/>
-      <c r="D437" s="20"/>
-      <c r="E437" t="s">
+      <c r="E436" s="4"/>
+      <c r="F436" s="18"/>
+      <c r="G436" s="4"/>
+    </row>
+    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B437" s="10"/>
+      <c r="C437" s="11"/>
+      <c r="D437" s="25" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C438" s="18"/>
-      <c r="D438" s="20"/>
-      <c r="E438" t="s">
+      <c r="E437" s="4"/>
+      <c r="F437" s="18"/>
+      <c r="G437" s="4"/>
+    </row>
+    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B438" s="10"/>
+      <c r="C438" s="11"/>
+      <c r="D438" s="25" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C439" s="18"/>
-      <c r="D439" s="20"/>
-      <c r="E439" t="s">
+      <c r="E438" s="4"/>
+      <c r="F438" s="18"/>
+      <c r="G438" s="4"/>
+    </row>
+    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B439" s="10"/>
+      <c r="C439" s="11"/>
+      <c r="D439" s="25" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C440" s="18"/>
-      <c r="D440" s="20"/>
-      <c r="E440" t="s">
+      <c r="E439" s="4"/>
+      <c r="F439" s="18"/>
+      <c r="G439" s="4"/>
+    </row>
+    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B440" s="10"/>
+      <c r="C440" s="11"/>
+      <c r="D440" s="25" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C441" s="18"/>
-      <c r="D441" s="20" t="s">
+      <c r="E440" s="4"/>
+      <c r="F440" s="18"/>
+      <c r="G440" s="4"/>
+    </row>
+    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B441" s="10"/>
+      <c r="C441" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E441" t="s">
+      <c r="D441" s="25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C442" s="18"/>
-      <c r="D442" s="20"/>
-      <c r="E442" t="s">
+      <c r="E441" s="4"/>
+      <c r="F441" s="18"/>
+      <c r="G441" s="4"/>
+    </row>
+    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B442" s="10"/>
+      <c r="C442" s="11"/>
+      <c r="D442" s="25" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C443" s="18"/>
-      <c r="D443" s="20"/>
-      <c r="E443" t="s">
+      <c r="E442" s="4"/>
+      <c r="F442" s="18"/>
+      <c r="G442" s="4"/>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B443" s="10"/>
+      <c r="C443" s="11"/>
+      <c r="D443" s="25" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C444" s="18"/>
-      <c r="D444" s="20"/>
-      <c r="E444" t="s">
+      <c r="E443" s="4"/>
+      <c r="F443" s="18"/>
+      <c r="G443" s="4"/>
+    </row>
+    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B444" s="10"/>
+      <c r="C444" s="11"/>
+      <c r="D444" s="25" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C445" s="18"/>
-      <c r="D445" s="20"/>
-      <c r="E445" t="s">
+      <c r="E444" s="4"/>
+      <c r="F444" s="18"/>
+      <c r="G444" s="4"/>
+    </row>
+    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B445" s="10"/>
+      <c r="C445" s="11"/>
+      <c r="D445" s="25" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C446" s="18"/>
-      <c r="D446" s="20"/>
-      <c r="E446" t="s">
+      <c r="E445" s="4"/>
+      <c r="F445" s="18"/>
+      <c r="G445" s="4"/>
+    </row>
+    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B446" s="10"/>
+      <c r="C446" s="11"/>
+      <c r="D446" s="25" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C447" s="18"/>
-      <c r="D447" s="20"/>
-      <c r="E447" t="s">
+      <c r="E446" s="4"/>
+      <c r="F446" s="18"/>
+      <c r="G446" s="4"/>
+    </row>
+    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B447" s="10"/>
+      <c r="C447" s="11"/>
+      <c r="D447" s="25" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C448" s="18"/>
-      <c r="D448" s="20"/>
-      <c r="E448" t="s">
+      <c r="E447" s="4"/>
+      <c r="F447" s="18"/>
+      <c r="G447" s="4"/>
+    </row>
+    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B448" s="10"/>
+      <c r="C448" s="11"/>
+      <c r="D448" s="25" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="449" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C449" s="18"/>
-      <c r="D449" s="20"/>
-      <c r="E449" t="s">
+      <c r="E448" s="4"/>
+      <c r="F448" s="18"/>
+      <c r="G448" s="4"/>
+    </row>
+    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B449" s="10"/>
+      <c r="C449" s="11"/>
+      <c r="D449" s="25" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="450" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C450" s="18"/>
-      <c r="D450" s="20"/>
-      <c r="E450" t="s">
+      <c r="E449" s="4"/>
+      <c r="F449" s="18"/>
+      <c r="G449" s="4"/>
+    </row>
+    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B450" s="10"/>
+      <c r="C450" s="11"/>
+      <c r="D450" s="25" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="451" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C451" s="18"/>
-      <c r="D451" s="20"/>
-      <c r="E451" t="s">
+      <c r="E450" s="4"/>
+      <c r="F450" s="18"/>
+      <c r="G450" s="4"/>
+    </row>
+    <row r="451" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B451" s="10"/>
+      <c r="C451" s="11"/>
+      <c r="D451" s="25" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="452" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C452" s="18"/>
-      <c r="D452" s="20"/>
-      <c r="E452" t="s">
+      <c r="E451" s="4"/>
+      <c r="F451" s="18"/>
+      <c r="G451" s="4"/>
+    </row>
+    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B452" s="10"/>
+      <c r="C452" s="11"/>
+      <c r="D452" s="25" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="453" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C453" s="18"/>
-      <c r="D453" s="20"/>
-      <c r="E453" t="s">
+      <c r="E452" s="4"/>
+      <c r="F452" s="18"/>
+      <c r="G452" s="4"/>
+    </row>
+    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B453" s="10"/>
+      <c r="C453" s="11"/>
+      <c r="D453" s="25" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="454" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C454" s="18"/>
-      <c r="D454" s="20"/>
-      <c r="E454" t="s">
+      <c r="E453" s="4"/>
+      <c r="F453" s="18"/>
+      <c r="G453" s="4"/>
+    </row>
+    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B454" s="10"/>
+      <c r="C454" s="11"/>
+      <c r="D454" s="25" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="455" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C455" s="18"/>
-      <c r="D455" s="20"/>
-      <c r="E455" t="s">
+      <c r="E454" s="4"/>
+      <c r="F454" s="18"/>
+      <c r="G454" s="4"/>
+    </row>
+    <row r="455" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B455" s="10"/>
+      <c r="C455" s="11"/>
+      <c r="D455" s="25" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="456" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C456" s="18"/>
-      <c r="D456" s="20"/>
-      <c r="E456" t="s">
+      <c r="E455" s="4"/>
+      <c r="F455" s="18"/>
+      <c r="G455" s="4"/>
+    </row>
+    <row r="456" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B456" s="10"/>
+      <c r="C456" s="11"/>
+      <c r="D456" s="25" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="457" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C457" s="18"/>
-      <c r="D457" s="20"/>
-      <c r="E457" t="s">
+      <c r="E456" s="4"/>
+      <c r="F456" s="18"/>
+      <c r="G456" s="4"/>
+    </row>
+    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B457" s="10"/>
+      <c r="C457" s="11"/>
+      <c r="D457" s="25" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="458" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C458" s="18"/>
-      <c r="D458" s="20"/>
-      <c r="E458" t="s">
+      <c r="E457" s="4"/>
+      <c r="F457" s="18"/>
+      <c r="G457" s="4"/>
+    </row>
+    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B458" s="10"/>
+      <c r="C458" s="11"/>
+      <c r="D458" s="25" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="459" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C459" s="18"/>
-      <c r="D459" s="20"/>
-      <c r="E459" t="s">
+      <c r="E458" s="4"/>
+      <c r="F458" s="18"/>
+      <c r="G458" s="4"/>
+    </row>
+    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B459" s="10"/>
+      <c r="C459" s="11"/>
+      <c r="D459" s="25" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="460" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C460" s="18"/>
-      <c r="D460" s="20" t="s">
+      <c r="E459" s="4"/>
+      <c r="F459" s="18"/>
+      <c r="G459" s="4"/>
+    </row>
+    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B460" s="10"/>
+      <c r="C460" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E460" t="s">
+      <c r="D460" s="25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="461" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C461" s="18"/>
-      <c r="D461" s="20"/>
-      <c r="E461" t="s">
+      <c r="E460" s="4"/>
+      <c r="F460" s="18"/>
+      <c r="G460" s="4"/>
+    </row>
+    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B461" s="10"/>
+      <c r="C461" s="11"/>
+      <c r="D461" s="25" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="462" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C462" s="18"/>
-      <c r="D462" s="20" t="s">
+      <c r="E461" s="4"/>
+      <c r="F461" s="18"/>
+      <c r="G461" s="4"/>
+    </row>
+    <row r="462" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B462" s="10"/>
+      <c r="C462" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E462" t="s">
+      <c r="D462" s="25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="463" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C463" s="18"/>
-      <c r="D463" s="20"/>
-      <c r="E463" t="s">
+      <c r="E462" s="4"/>
+      <c r="F462" s="18"/>
+      <c r="G462" s="4"/>
+    </row>
+    <row r="463" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B463" s="10"/>
+      <c r="C463" s="11"/>
+      <c r="D463" s="25" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="464" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C464" s="18"/>
-      <c r="D464" s="20"/>
-      <c r="E464" t="s">
+      <c r="E463" s="4"/>
+      <c r="F463" s="18"/>
+      <c r="G463" s="4"/>
+    </row>
+    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B464" s="10"/>
+      <c r="C464" s="11"/>
+      <c r="D464" s="25" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="465" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C465" s="18"/>
-      <c r="D465" s="20"/>
-      <c r="E465" t="s">
+      <c r="E464" s="4"/>
+      <c r="F464" s="18"/>
+      <c r="G464" s="4"/>
+    </row>
+    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B465" s="10"/>
+      <c r="C465" s="11"/>
+      <c r="D465" s="25" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="466" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C466" s="18"/>
-      <c r="D466" s="20"/>
-      <c r="E466" t="s">
+      <c r="E465" s="4"/>
+      <c r="F465" s="18"/>
+      <c r="G465" s="4"/>
+    </row>
+    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B466" s="10"/>
+      <c r="C466" s="11"/>
+      <c r="D466" s="25" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="467" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C467" s="18"/>
-      <c r="D467" s="20"/>
-      <c r="E467" t="s">
+      <c r="E466" s="4"/>
+      <c r="F466" s="18"/>
+      <c r="G466" s="4"/>
+    </row>
+    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B467" s="10"/>
+      <c r="C467" s="11"/>
+      <c r="D467" s="25" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C468" s="18"/>
-      <c r="D468" s="20" t="s">
+      <c r="E467" s="4"/>
+      <c r="F467" s="18"/>
+      <c r="G467" s="4"/>
+    </row>
+    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B468" s="10"/>
+      <c r="C468" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E468" t="s">
+      <c r="D468" s="25" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C469" s="18"/>
-      <c r="D469" s="20"/>
-      <c r="E469" t="s">
+      <c r="E468" s="4"/>
+      <c r="F468" s="18"/>
+      <c r="G468" s="4"/>
+    </row>
+    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B469" s="10"/>
+      <c r="C469" s="11"/>
+      <c r="D469" s="25" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="470" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C470" s="18"/>
-      <c r="D470" s="20"/>
-      <c r="E470" t="s">
+      <c r="E469" s="4"/>
+      <c r="F469" s="18"/>
+      <c r="G469" s="4"/>
+    </row>
+    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B470" s="10"/>
+      <c r="C470" s="11"/>
+      <c r="D470" s="25" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="471" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C471" s="18"/>
-      <c r="D471" s="20"/>
-      <c r="E471" t="s">
+      <c r="E470" s="4"/>
+      <c r="F470" s="18"/>
+      <c r="G470" s="4"/>
+    </row>
+    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B471" s="10"/>
+      <c r="C471" s="11"/>
+      <c r="D471" s="25" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="472" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C472" s="18"/>
-      <c r="D472" s="20"/>
-      <c r="E472" t="s">
+      <c r="E471" s="4"/>
+      <c r="F471" s="18"/>
+      <c r="G471" s="4"/>
+    </row>
+    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B472" s="10"/>
+      <c r="C472" s="11"/>
+      <c r="D472" s="25" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="473" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C473" s="18"/>
-      <c r="D473" s="20"/>
-      <c r="E473" t="s">
+      <c r="E472" s="4"/>
+      <c r="F472" s="18"/>
+      <c r="G472" s="4"/>
+    </row>
+    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B473" s="10"/>
+      <c r="C473" s="11"/>
+      <c r="D473" s="25" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="474" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C474" s="18"/>
-      <c r="D474" s="20"/>
-      <c r="E474" t="s">
+      <c r="E473" s="4"/>
+      <c r="F473" s="18"/>
+      <c r="G473" s="4"/>
+    </row>
+    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B474" s="10"/>
+      <c r="C474" s="11"/>
+      <c r="D474" s="25" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="475" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C475" s="18"/>
-      <c r="D475" s="20"/>
-      <c r="E475" t="s">
+      <c r="E474" s="4"/>
+      <c r="F474" s="18"/>
+      <c r="G474" s="4"/>
+    </row>
+    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B475" s="10"/>
+      <c r="C475" s="11"/>
+      <c r="D475" s="25" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="476" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C476" s="18"/>
-      <c r="D476" s="20"/>
-      <c r="E476" t="s">
+      <c r="E475" s="4"/>
+      <c r="F475" s="18"/>
+      <c r="G475" s="4"/>
+    </row>
+    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B476" s="10"/>
+      <c r="C476" s="11"/>
+      <c r="D476" s="25" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="477" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C477" s="18"/>
-      <c r="D477" s="20"/>
-      <c r="E477" t="s">
+      <c r="E476" s="4"/>
+      <c r="F476" s="18"/>
+      <c r="G476" s="4"/>
+    </row>
+    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B477" s="10"/>
+      <c r="C477" s="11"/>
+      <c r="D477" s="25" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="478" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C478" s="18"/>
-      <c r="D478" s="20"/>
-      <c r="E478" t="s">
+      <c r="E477" s="4"/>
+      <c r="F477" s="18"/>
+      <c r="G477" s="4"/>
+    </row>
+    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B478" s="10"/>
+      <c r="C478" s="11"/>
+      <c r="D478" s="25" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="479" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C479" s="18"/>
-      <c r="D479" s="20"/>
-      <c r="E479" t="s">
+      <c r="E478" s="4"/>
+      <c r="F478" s="18"/>
+      <c r="G478" s="4"/>
+    </row>
+    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B479" s="10"/>
+      <c r="C479" s="11"/>
+      <c r="D479" s="25" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C480" s="18"/>
-      <c r="D480" s="20"/>
-      <c r="E480" t="s">
+      <c r="E479" s="4"/>
+      <c r="F479" s="18"/>
+      <c r="G479" s="4"/>
+    </row>
+    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B480" s="10"/>
+      <c r="C480" s="11"/>
+      <c r="D480" s="25" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="481" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C481" s="18"/>
-      <c r="D481" s="20"/>
-      <c r="E481" t="s">
+      <c r="E480" s="4"/>
+      <c r="F480" s="18"/>
+      <c r="G480" s="4"/>
+    </row>
+    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B481" s="10"/>
+      <c r="C481" s="11"/>
+      <c r="D481" s="25" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C482" s="18"/>
-      <c r="D482" s="20"/>
-      <c r="E482" t="s">
+      <c r="E481" s="4"/>
+      <c r="F481" s="18"/>
+      <c r="G481" s="4"/>
+    </row>
+    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B482" s="10"/>
+      <c r="C482" s="11"/>
+      <c r="D482" s="25" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="483" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C483" s="18"/>
-      <c r="D483" s="20"/>
-      <c r="E483" t="s">
+      <c r="E482" s="4"/>
+      <c r="F482" s="18"/>
+      <c r="G482" s="4"/>
+    </row>
+    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B483" s="10"/>
+      <c r="C483" s="11"/>
+      <c r="D483" s="25" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C484" s="18"/>
-      <c r="D484" s="20" t="s">
+      <c r="E483" s="4"/>
+      <c r="F483" s="18"/>
+      <c r="G483" s="4"/>
+    </row>
+    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B484" s="10"/>
+      <c r="C484" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E484" t="s">
+      <c r="D484" s="25" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="485" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C485" s="18"/>
-      <c r="D485" s="20"/>
-      <c r="E485" t="s">
+      <c r="E484" s="4"/>
+      <c r="F484" s="18"/>
+      <c r="G484" s="4"/>
+    </row>
+    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B485" s="10"/>
+      <c r="C485" s="11"/>
+      <c r="D485" s="25" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="486" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C486" s="18"/>
-      <c r="D486" s="20"/>
-      <c r="E486" t="s">
+      <c r="E485" s="4"/>
+      <c r="F485" s="18"/>
+      <c r="G485" s="4"/>
+    </row>
+    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B486" s="10"/>
+      <c r="C486" s="11"/>
+      <c r="D486" s="25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="487" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C487" s="18"/>
-      <c r="D487" s="20"/>
-      <c r="E487" t="s">
+      <c r="E486" s="4"/>
+      <c r="F486" s="18"/>
+      <c r="G486" s="4"/>
+    </row>
+    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B487" s="10"/>
+      <c r="C487" s="11"/>
+      <c r="D487" s="25" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="488" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C488" s="18"/>
-      <c r="D488" s="20"/>
-      <c r="E488" t="s">
+      <c r="E487" s="4"/>
+      <c r="F487" s="18"/>
+      <c r="G487" s="4"/>
+    </row>
+    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B488" s="10"/>
+      <c r="C488" s="11"/>
+      <c r="D488" s="25" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="489" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C489" s="18"/>
-      <c r="D489" s="20"/>
-      <c r="E489" t="s">
+      <c r="E488" s="4"/>
+      <c r="F488" s="18"/>
+      <c r="G488" s="4"/>
+    </row>
+    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B489" s="10"/>
+      <c r="C489" s="11"/>
+      <c r="D489" s="25" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="490" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C490" s="18"/>
-      <c r="D490" s="20"/>
-      <c r="E490" t="s">
+      <c r="E489" s="4"/>
+      <c r="F489" s="18"/>
+      <c r="G489" s="4"/>
+    </row>
+    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B490" s="10"/>
+      <c r="C490" s="11"/>
+      <c r="D490" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="491" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C491" s="18"/>
-      <c r="D491" s="20"/>
-      <c r="E491" t="s">
+      <c r="E490" s="4"/>
+      <c r="F490" s="18"/>
+      <c r="G490" s="4"/>
+    </row>
+    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B491" s="10"/>
+      <c r="C491" s="11"/>
+      <c r="D491" s="25" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="492" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C492" s="18"/>
-      <c r="D492" s="20"/>
-      <c r="E492" t="s">
+      <c r="E491" s="4"/>
+      <c r="F491" s="18"/>
+      <c r="G491" s="4"/>
+    </row>
+    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B492" s="10"/>
+      <c r="C492" s="11"/>
+      <c r="D492" s="25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="493" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C493" s="18"/>
-      <c r="D493" s="20"/>
-      <c r="E493" t="s">
+      <c r="E492" s="4"/>
+      <c r="F492" s="18"/>
+      <c r="G492" s="4"/>
+    </row>
+    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B493" s="10"/>
+      <c r="C493" s="11"/>
+      <c r="D493" s="25" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="494" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C494" s="18"/>
-      <c r="D494" s="20"/>
-      <c r="E494" t="s">
+      <c r="E493" s="4"/>
+      <c r="F493" s="18"/>
+      <c r="G493" s="4"/>
+    </row>
+    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B494" s="10"/>
+      <c r="C494" s="11"/>
+      <c r="D494" s="25" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="495" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C495" s="18"/>
-      <c r="D495" s="20"/>
-      <c r="E495" t="s">
+      <c r="E494" s="4"/>
+      <c r="F494" s="18"/>
+      <c r="G494" s="4"/>
+    </row>
+    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B495" s="10"/>
+      <c r="C495" s="11"/>
+      <c r="D495" s="25" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="496" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C496" s="18"/>
-      <c r="D496" s="20"/>
-      <c r="E496" t="s">
+      <c r="E495" s="4"/>
+      <c r="F495" s="18"/>
+      <c r="G495" s="4"/>
+    </row>
+    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B496" s="10"/>
+      <c r="C496" s="11"/>
+      <c r="D496" s="25" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="497" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C497" s="18"/>
-      <c r="D497" s="20" t="s">
+      <c r="E496" s="4"/>
+      <c r="F496" s="18"/>
+      <c r="G496" s="4"/>
+    </row>
+    <row r="497" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B497" s="10"/>
+      <c r="C497" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E497" t="s">
+      <c r="D497" s="25" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="498" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C498" s="18"/>
-      <c r="D498" s="20"/>
-      <c r="E498" t="s">
+      <c r="E497" s="4"/>
+      <c r="F497" s="18"/>
+      <c r="G497" s="4"/>
+    </row>
+    <row r="498" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B498" s="10"/>
+      <c r="C498" s="11"/>
+      <c r="D498" s="25" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="499" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C499" s="18"/>
-      <c r="D499" s="20"/>
-      <c r="E499" t="s">
+      <c r="E498" s="4"/>
+      <c r="F498" s="18"/>
+      <c r="G498" s="4"/>
+    </row>
+    <row r="499" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B499" s="10"/>
+      <c r="C499" s="11"/>
+      <c r="D499" s="25" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="500" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C500" s="18"/>
-      <c r="D500" s="20"/>
-      <c r="E500" t="s">
+      <c r="E499" s="4"/>
+      <c r="F499" s="18"/>
+      <c r="G499" s="4"/>
+    </row>
+    <row r="500" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B500" s="10"/>
+      <c r="C500" s="11"/>
+      <c r="D500" s="25" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="501" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C501" s="18"/>
-      <c r="D501" s="20"/>
-      <c r="E501" t="s">
+      <c r="E500" s="4"/>
+      <c r="F500" s="18"/>
+      <c r="G500" s="4"/>
+    </row>
+    <row r="501" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B501" s="10"/>
+      <c r="C501" s="11"/>
+      <c r="D501" s="25" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="502" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C502" s="18"/>
-      <c r="D502" s="20"/>
-      <c r="E502" t="s">
+      <c r="E501" s="4"/>
+      <c r="F501" s="18"/>
+      <c r="G501" s="4"/>
+    </row>
+    <row r="502" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B502" s="10"/>
+      <c r="C502" s="11"/>
+      <c r="D502" s="25" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="503" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C503" s="18"/>
-      <c r="D503" s="20" t="s">
+      <c r="E502" s="4"/>
+      <c r="F502" s="18"/>
+      <c r="G502" s="4"/>
+    </row>
+    <row r="503" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B503" s="10"/>
+      <c r="C503" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E503" t="s">
+      <c r="D503" s="25" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="504" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C504" s="18"/>
-      <c r="D504" s="20"/>
-      <c r="E504" t="s">
+      <c r="E503" s="4"/>
+      <c r="F503" s="18"/>
+      <c r="G503" s="4"/>
+    </row>
+    <row r="504" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B504" s="10"/>
+      <c r="C504" s="11"/>
+      <c r="D504" s="25" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="505" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C505" s="18"/>
-      <c r="D505" s="20"/>
-      <c r="E505" t="s">
+      <c r="E504" s="4"/>
+      <c r="F504" s="18"/>
+      <c r="G504" s="4"/>
+    </row>
+    <row r="505" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B505" s="10"/>
+      <c r="C505" s="11"/>
+      <c r="D505" s="25" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="506" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C506" s="18"/>
-      <c r="D506" s="20"/>
-      <c r="E506" t="s">
+      <c r="E505" s="4"/>
+      <c r="F505" s="18"/>
+      <c r="G505" s="4"/>
+    </row>
+    <row r="506" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B506" s="10"/>
+      <c r="C506" s="11"/>
+      <c r="D506" s="25" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="507" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C507" s="18"/>
-      <c r="D507" s="20"/>
-      <c r="E507" t="s">
+      <c r="E506" s="4"/>
+      <c r="F506" s="18"/>
+      <c r="G506" s="4"/>
+    </row>
+    <row r="507" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B507" s="10"/>
+      <c r="C507" s="11"/>
+      <c r="D507" s="25" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="508" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C508" s="18"/>
-      <c r="D508" s="20" t="s">
+      <c r="E507" s="4"/>
+      <c r="F507" s="18"/>
+      <c r="G507" s="4"/>
+    </row>
+    <row r="508" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B508" s="10"/>
+      <c r="C508" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E508" t="s">
+      <c r="D508" s="25" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="509" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C509" s="18"/>
-      <c r="D509" s="20"/>
-      <c r="E509" t="s">
+      <c r="E508" s="4"/>
+      <c r="F508" s="18"/>
+      <c r="G508" s="4"/>
+    </row>
+    <row r="509" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B509" s="10"/>
+      <c r="C509" s="11"/>
+      <c r="D509" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="510" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C510" s="18"/>
-      <c r="D510" s="20"/>
-      <c r="E510" t="s">
+      <c r="E509" s="4"/>
+      <c r="F509" s="18"/>
+      <c r="G509" s="4"/>
+    </row>
+    <row r="510" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B510" s="10"/>
+      <c r="C510" s="11"/>
+      <c r="D510" s="25" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="511" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C511" s="18"/>
-      <c r="D511" s="20"/>
-      <c r="E511" t="s">
+      <c r="E510" s="4"/>
+      <c r="F510" s="18"/>
+      <c r="G510" s="4"/>
+    </row>
+    <row r="511" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B511" s="10"/>
+      <c r="C511" s="11"/>
+      <c r="D511" s="25" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="512" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C512" s="18"/>
-      <c r="D512" s="20"/>
-      <c r="E512" t="s">
+      <c r="E511" s="4"/>
+      <c r="F511" s="18"/>
+      <c r="G511" s="4"/>
+    </row>
+    <row r="512" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B512" s="10"/>
+      <c r="C512" s="11"/>
+      <c r="D512" s="25" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="513" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C513" s="18"/>
-      <c r="D513" s="20"/>
-      <c r="E513" t="s">
+      <c r="E512" s="4"/>
+      <c r="F512" s="18"/>
+      <c r="G512" s="4"/>
+    </row>
+    <row r="513" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B513" s="10"/>
+      <c r="C513" s="11"/>
+      <c r="D513" s="25" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="514" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C514" s="18"/>
-      <c r="D514" s="20"/>
-      <c r="E514" t="s">
+      <c r="E513" s="4"/>
+      <c r="F513" s="18"/>
+      <c r="G513" s="4"/>
+    </row>
+    <row r="514" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B514" s="10"/>
+      <c r="C514" s="11"/>
+      <c r="D514" s="25" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="515" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C515" s="18"/>
-      <c r="D515" s="20"/>
-      <c r="E515" t="s">
+      <c r="E514" s="4"/>
+      <c r="F514" s="18"/>
+      <c r="G514" s="4"/>
+    </row>
+    <row r="515" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B515" s="10"/>
+      <c r="C515" s="11"/>
+      <c r="D515" s="25" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="516" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C516" s="18"/>
-      <c r="D516" s="20"/>
-      <c r="E516" t="s">
+      <c r="E515" s="4"/>
+      <c r="F515" s="18"/>
+      <c r="G515" s="4"/>
+    </row>
+    <row r="516" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B516" s="10"/>
+      <c r="C516" s="11"/>
+      <c r="D516" s="25" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="517" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C517" s="18"/>
-      <c r="D517" s="20"/>
-      <c r="E517" t="s">
+      <c r="E516" s="4"/>
+      <c r="F516" s="18"/>
+      <c r="G516" s="4"/>
+    </row>
+    <row r="517" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B517" s="10"/>
+      <c r="C517" s="11"/>
+      <c r="D517" s="25" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="518" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C518" s="18"/>
-      <c r="D518" s="20" t="s">
+      <c r="E517" s="4"/>
+      <c r="F517" s="18"/>
+      <c r="G517" s="4"/>
+    </row>
+    <row r="518" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B518" s="10"/>
+      <c r="C518" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E518" t="s">
+      <c r="D518" s="25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="519" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C519" s="18"/>
-      <c r="D519" s="20"/>
-      <c r="E519" t="s">
+      <c r="E518" s="4"/>
+      <c r="F518" s="18"/>
+      <c r="G518" s="4"/>
+    </row>
+    <row r="519" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B519" s="10"/>
+      <c r="C519" s="11"/>
+      <c r="D519" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="520" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C520" s="18"/>
-      <c r="D520" s="20"/>
-      <c r="E520" t="s">
+      <c r="E519" s="4"/>
+      <c r="F519" s="18"/>
+      <c r="G519" s="4"/>
+    </row>
+    <row r="520" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B520" s="10"/>
+      <c r="C520" s="11"/>
+      <c r="D520" s="25" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="521" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C521" s="18"/>
-      <c r="D521" s="20"/>
-      <c r="E521" t="s">
+      <c r="E520" s="4"/>
+      <c r="F520" s="18"/>
+      <c r="G520" s="4"/>
+    </row>
+    <row r="521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B521" s="10"/>
+      <c r="C521" s="11"/>
+      <c r="D521" s="25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="522" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C522" s="18"/>
-      <c r="D522" s="20"/>
-      <c r="E522" t="s">
+      <c r="E521" s="4"/>
+      <c r="F521" s="18"/>
+      <c r="G521" s="4"/>
+    </row>
+    <row r="522" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B522" s="10"/>
+      <c r="C522" s="11"/>
+      <c r="D522" s="25" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="523" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C523" s="18"/>
-      <c r="D523" s="20"/>
-      <c r="E523" t="s">
+      <c r="E522" s="4"/>
+      <c r="F522" s="18"/>
+      <c r="G522" s="4"/>
+    </row>
+    <row r="523" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B523" s="10"/>
+      <c r="C523" s="11"/>
+      <c r="D523" s="25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C524" s="18"/>
-      <c r="D524" s="20"/>
-      <c r="E524" t="s">
+      <c r="E523" s="4"/>
+      <c r="F523" s="18"/>
+      <c r="G523" s="4"/>
+    </row>
+    <row r="524" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B524" s="10"/>
+      <c r="C524" s="11"/>
+      <c r="D524" s="25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="525" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C525" s="19"/>
-      <c r="D525" s="20"/>
-      <c r="E525" t="s">
+      <c r="E524" s="4"/>
+      <c r="F524" s="18"/>
+      <c r="G524" s="4"/>
+    </row>
+    <row r="525" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B525" s="10"/>
+      <c r="C525" s="11"/>
+      <c r="D525" s="25" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="526" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D526" s="1"/>
-    </row>
-    <row r="527" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D527" s="1"/>
-    </row>
-    <row r="528" spans="3:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D528" s="3"/>
-    </row>
-    <row r="529" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D529" s="1"/>
-    </row>
-    <row r="530" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D530" s="1"/>
-    </row>
-    <row r="531" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D531" s="1"/>
-    </row>
-    <row r="532" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D532" s="1"/>
-    </row>
-    <row r="533" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D533" s="1"/>
-    </row>
-    <row r="534" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D534" s="1"/>
-    </row>
-    <row r="535" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D535" s="1"/>
-    </row>
-    <row r="536" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D536" s="1"/>
-    </row>
-    <row r="537" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D537" s="1"/>
-    </row>
-    <row r="538" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D538" s="1"/>
-    </row>
-    <row r="539" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D539" s="1"/>
-    </row>
-    <row r="540" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D540" s="1"/>
-    </row>
-    <row r="541" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D541" s="1"/>
-    </row>
-    <row r="542" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D542" s="1"/>
-    </row>
-    <row r="543" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D543" s="1"/>
-    </row>
-    <row r="544" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D544" s="1"/>
-    </row>
-    <row r="545" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D545" s="1"/>
-    </row>
-    <row r="546" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D546" s="1"/>
-    </row>
-    <row r="547" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D547" s="1"/>
-    </row>
-    <row r="548" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D548" s="1"/>
-    </row>
-    <row r="549" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D549" s="1"/>
-    </row>
-    <row r="550" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D550" s="1"/>
-    </row>
-    <row r="551" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D551" s="1"/>
-    </row>
-    <row r="552" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D552" s="1"/>
-    </row>
-    <row r="553" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D553" s="1"/>
-    </row>
-    <row r="554" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D554" s="1"/>
-    </row>
-    <row r="555" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D555" s="1"/>
-    </row>
-    <row r="556" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D556" s="1"/>
-    </row>
-    <row r="557" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D557" s="1"/>
-    </row>
-    <row r="558" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D558" s="1"/>
-    </row>
-    <row r="559" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D559" s="1"/>
-    </row>
-    <row r="560" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D560" s="1"/>
-    </row>
-    <row r="561" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D561" s="1"/>
-    </row>
-    <row r="562" spans="4:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D562" s="1"/>
+      <c r="E525" s="4"/>
+      <c r="F525" s="18"/>
+      <c r="G525" s="4"/>
+    </row>
+    <row r="526" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C528" s="3"/>
+    </row>
+    <row r="529" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C540" s="1"/>
+    </row>
+    <row r="541" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C541" s="1"/>
+    </row>
+    <row r="542" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C542" s="1"/>
+    </row>
+    <row r="543" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C543" s="1"/>
+    </row>
+    <row r="544" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C544" s="1"/>
+    </row>
+    <row r="545" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C545" s="1"/>
+    </row>
+    <row r="546" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C546" s="1"/>
+    </row>
+    <row r="547" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C547" s="1"/>
+    </row>
+    <row r="548" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C548" s="1"/>
+    </row>
+    <row r="549" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C549" s="1"/>
+    </row>
+    <row r="550" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C550" s="1"/>
+    </row>
+    <row r="551" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C551" s="1"/>
+    </row>
+    <row r="552" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C552" s="1"/>
+    </row>
+    <row r="553" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C554" s="1"/>
+    </row>
+    <row r="555" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C555" s="1"/>
+    </row>
+    <row r="556" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C556" s="1"/>
+    </row>
+    <row r="557" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C557" s="1"/>
+    </row>
+    <row r="558" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C558" s="1"/>
+    </row>
+    <row r="559" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C559" s="1"/>
+    </row>
+    <row r="560" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C560" s="1"/>
+    </row>
+    <row r="561" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C561" s="1"/>
+    </row>
+    <row r="562" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C562" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="I2:I503">
-    <sortCondition ref="I2"/>
+  <sortState ref="AH2:AH503">
+    <sortCondition ref="AH2"/>
   </sortState>
-  <mergeCells count="53">
-    <mergeCell ref="D518:D525"/>
-    <mergeCell ref="D357:D366"/>
-    <mergeCell ref="D2:D21"/>
-    <mergeCell ref="D293:D307"/>
-    <mergeCell ref="D484:D496"/>
-    <mergeCell ref="D69:D81"/>
-    <mergeCell ref="D82:D112"/>
-    <mergeCell ref="D328:D341"/>
-    <mergeCell ref="D189:D197"/>
-    <mergeCell ref="D131:D153"/>
-    <mergeCell ref="D508:D517"/>
-    <mergeCell ref="D265:D279"/>
-    <mergeCell ref="D165:D172"/>
-    <mergeCell ref="D441:D459"/>
-    <mergeCell ref="D344:D356"/>
-    <mergeCell ref="D503:D507"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D419:D421"/>
-    <mergeCell ref="D422:D428"/>
-    <mergeCell ref="D368:D414"/>
-    <mergeCell ref="D53:D68"/>
-    <mergeCell ref="D280:D288"/>
-    <mergeCell ref="D38:D52"/>
-    <mergeCell ref="D431:D440"/>
-    <mergeCell ref="D462:D467"/>
-    <mergeCell ref="D173:D188"/>
-    <mergeCell ref="D320:D327"/>
-    <mergeCell ref="D308:D318"/>
-    <mergeCell ref="D468:D483"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="D154:D164"/>
-    <mergeCell ref="D415:D418"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="D342:D343"/>
-    <mergeCell ref="D113:D130"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="C2:C525"/>
-    <mergeCell ref="D22:D32"/>
-    <mergeCell ref="D497:D502"/>
-    <mergeCell ref="D198:D210"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="E213:E228"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="E236:E241"/>
-    <mergeCell ref="E244:E250"/>
-    <mergeCell ref="D213:D264"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="E92:E98"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="E104:E110"/>
+  <mergeCells count="79">
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="E252:F252"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="C154:C164"/>
+    <mergeCell ref="C415:C418"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="B2:B525"/>
+    <mergeCell ref="C22:C32"/>
+    <mergeCell ref="C497:C502"/>
+    <mergeCell ref="C198:C210"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="C213:C264"/>
+    <mergeCell ref="C468:C483"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D213:D228"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="D236:D241"/>
+    <mergeCell ref="D244:D250"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D91"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="C431:C440"/>
+    <mergeCell ref="C462:C467"/>
+    <mergeCell ref="C173:C188"/>
+    <mergeCell ref="C320:C327"/>
+    <mergeCell ref="C308:C318"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C419:C421"/>
+    <mergeCell ref="C422:C428"/>
+    <mergeCell ref="C368:C414"/>
+    <mergeCell ref="C53:C68"/>
+    <mergeCell ref="C280:C288"/>
+    <mergeCell ref="C38:C52"/>
+    <mergeCell ref="C113:C130"/>
+    <mergeCell ref="C518:C525"/>
+    <mergeCell ref="C357:C366"/>
+    <mergeCell ref="C2:C21"/>
+    <mergeCell ref="C293:C307"/>
+    <mergeCell ref="C484:C496"/>
+    <mergeCell ref="C69:C81"/>
+    <mergeCell ref="C82:C112"/>
+    <mergeCell ref="C328:C341"/>
+    <mergeCell ref="C189:C197"/>
+    <mergeCell ref="C131:C153"/>
+    <mergeCell ref="C508:C517"/>
+    <mergeCell ref="C265:C279"/>
+    <mergeCell ref="C165:C172"/>
+    <mergeCell ref="C441:C459"/>
+    <mergeCell ref="C344:C356"/>
+    <mergeCell ref="C503:C507"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G229" r:id="rId1" xr:uid="{105A5CE9-5B4A-4D01-BFEB-C6477A1A279C}"/>
     <hyperlink ref="G230" r:id="rId2" xr:uid="{466C4527-3124-4F4F-985F-2F997496309E}"/>
     <hyperlink ref="G231" r:id="rId3" xr:uid="{276A39E1-BAC8-4433-B7C5-45474375BE9E}"/>
-    <hyperlink ref="H232" r:id="rId4" xr:uid="{F7E8E9C9-4FBA-4FFF-A852-BF0634ECA968}"/>
-    <hyperlink ref="H233" r:id="rId5" xr:uid="{AC6E7199-A236-47BE-9C1A-B98A9E05274A}"/>
-    <hyperlink ref="H234" r:id="rId6" xr:uid="{08FFE205-D54C-480D-87B6-14EE6D7C20BD}"/>
+    <hyperlink ref="G232" r:id="rId4" xr:uid="{F7E8E9C9-4FBA-4FFF-A852-BF0634ECA968}"/>
+    <hyperlink ref="G233" r:id="rId5" xr:uid="{AC6E7199-A236-47BE-9C1A-B98A9E05274A}"/>
+    <hyperlink ref="G234" r:id="rId6" xr:uid="{08FFE205-D54C-480D-87B6-14EE6D7C20BD}"/>
     <hyperlink ref="G235" r:id="rId7" xr:uid="{EC8C4C6C-5BEC-48A4-B441-42093D1AD515}"/>
-    <hyperlink ref="H236" r:id="rId8" xr:uid="{E4445D1C-8BB0-4400-A9F5-4DD2DEE62977}"/>
-    <hyperlink ref="H237" r:id="rId9" xr:uid="{547D4191-9C7A-44E4-BC3F-01EB5BA27650}"/>
-    <hyperlink ref="H238" r:id="rId10" xr:uid="{8518BCAC-D96B-41BC-9B67-CB1AAED943F2}"/>
-    <hyperlink ref="H239" r:id="rId11" xr:uid="{2FEC7A6D-4095-4292-BCB1-84D5A29B8115}"/>
-    <hyperlink ref="H240" r:id="rId12" xr:uid="{01BDDE5D-CC57-48D7-A3B1-1A7960246866}"/>
-    <hyperlink ref="H241" r:id="rId13" xr:uid="{2EA09B4C-A271-40EA-8013-3B9A27AB764B}"/>
+    <hyperlink ref="G236" r:id="rId8" xr:uid="{E4445D1C-8BB0-4400-A9F5-4DD2DEE62977}"/>
+    <hyperlink ref="G237" r:id="rId9" xr:uid="{547D4191-9C7A-44E4-BC3F-01EB5BA27650}"/>
+    <hyperlink ref="G238" r:id="rId10" xr:uid="{8518BCAC-D96B-41BC-9B67-CB1AAED943F2}"/>
+    <hyperlink ref="G239" r:id="rId11" xr:uid="{2FEC7A6D-4095-4292-BCB1-84D5A29B8115}"/>
+    <hyperlink ref="G240" r:id="rId12" xr:uid="{01BDDE5D-CC57-48D7-A3B1-1A7960246866}"/>
+    <hyperlink ref="G241" r:id="rId13" xr:uid="{2EA09B4C-A271-40EA-8013-3B9A27AB764B}"/>
     <hyperlink ref="G242" r:id="rId14" xr:uid="{982049F3-D596-496E-84F5-AAA1C918E41D}"/>
     <hyperlink ref="G243" r:id="rId15" xr:uid="{F6B20B95-262F-4358-8CE3-B1D63E9DAE5F}"/>
-    <hyperlink ref="H244" r:id="rId16" xr:uid="{583A7397-32E7-406D-92BA-B8DB19E3B19D}"/>
-    <hyperlink ref="H245" r:id="rId17" xr:uid="{8571B116-DF34-4694-BB0F-1DA938AE346D}"/>
-    <hyperlink ref="H246" r:id="rId18" xr:uid="{3D5E6925-B6CD-4AFA-B5BA-06482A8F251C}"/>
-    <hyperlink ref="H247" r:id="rId19" xr:uid="{E6B6E254-2FA0-49F6-A755-E0F93B3E31B9}"/>
-    <hyperlink ref="H248" r:id="rId20" xr:uid="{861B0653-D84F-4CD7-8BE3-95A300D9E1A1}"/>
-    <hyperlink ref="H249" r:id="rId21" xr:uid="{DCF48719-406A-429C-9697-2B29FF63560A}"/>
-    <hyperlink ref="H250" r:id="rId22" xr:uid="{E61A24D1-0BB7-4A12-AEBB-1F716FED0847}"/>
+    <hyperlink ref="G244" r:id="rId16" xr:uid="{583A7397-32E7-406D-92BA-B8DB19E3B19D}"/>
+    <hyperlink ref="G245" r:id="rId17" xr:uid="{8571B116-DF34-4694-BB0F-1DA938AE346D}"/>
+    <hyperlink ref="G246" r:id="rId18" xr:uid="{3D5E6925-B6CD-4AFA-B5BA-06482A8F251C}"/>
+    <hyperlink ref="G247" r:id="rId19" xr:uid="{E6B6E254-2FA0-49F6-A755-E0F93B3E31B9}"/>
+    <hyperlink ref="G248" r:id="rId20" xr:uid="{861B0653-D84F-4CD7-8BE3-95A300D9E1A1}"/>
+    <hyperlink ref="G249" r:id="rId21" xr:uid="{DCF48719-406A-429C-9697-2B29FF63560A}"/>
+    <hyperlink ref="G250" r:id="rId22" xr:uid="{E61A24D1-0BB7-4A12-AEBB-1F716FED0847}"/>
     <hyperlink ref="G251" r:id="rId23" xr:uid="{41844B19-9B04-4B56-ADE0-1784AC822E3D}"/>
     <hyperlink ref="G252" r:id="rId24" xr:uid="{0992130D-A719-4D20-BF7F-E91867F7889E}"/>
     <hyperlink ref="G253" r:id="rId25" xr:uid="{65DA114E-0A86-4A2F-9A9C-13B1070957FD}"/>
@@ -7418,61 +8818,68 @@
     <hyperlink ref="G262" r:id="rId34" xr:uid="{9DB6CBD5-0338-412D-90E3-4F552A98670D}"/>
     <hyperlink ref="G263" r:id="rId35" xr:uid="{0C20701E-1F4F-47C9-A6B8-007107513D81}"/>
     <hyperlink ref="G264" r:id="rId36" xr:uid="{52FFF85C-9C25-4E56-9A3E-3E0A7DF9ED26}"/>
-    <hyperlink ref="H213" r:id="rId37" xr:uid="{258559DE-5191-4E97-8ADC-E0BDAE29B1F6}"/>
-    <hyperlink ref="H214" r:id="rId38" xr:uid="{52B2E9AE-5D8F-4A8C-A414-D6C010B7970C}"/>
-    <hyperlink ref="H215" r:id="rId39" xr:uid="{B7DCA407-90CF-4B15-921D-E39C74A9F58E}"/>
-    <hyperlink ref="H216" r:id="rId40" xr:uid="{2FB1E3D0-3BE3-43E4-9702-7E6AA551CFC6}"/>
-    <hyperlink ref="H217" r:id="rId41" xr:uid="{EBD8A76B-65A7-4011-95F5-984B90C74F97}"/>
-    <hyperlink ref="H218" r:id="rId42" xr:uid="{5C56E7EC-840B-4E84-AD01-F0E56769D702}"/>
-    <hyperlink ref="H219" r:id="rId43" xr:uid="{B61B6DA5-6C62-434D-98DA-4F540E62CFF3}"/>
-    <hyperlink ref="H220" r:id="rId44" xr:uid="{AA526465-8CD8-4CC2-A7DE-3BAFFC93FABC}"/>
-    <hyperlink ref="H221" r:id="rId45" xr:uid="{D94041E4-3BDF-4CB4-9380-EDB8AD4B3D42}"/>
-    <hyperlink ref="H222" r:id="rId46" xr:uid="{E1F91E81-6F9C-4F49-9845-380E5F43BDCE}"/>
-    <hyperlink ref="H223" r:id="rId47" xr:uid="{92C82964-7CEB-4F7B-A164-FC624A89B3F3}"/>
-    <hyperlink ref="H224" r:id="rId48" xr:uid="{6884D2BE-3FAB-449B-AE4A-E3C477B150DA}"/>
-    <hyperlink ref="H225" r:id="rId49" xr:uid="{F9BDAEE5-8F0F-41A5-95DE-8A784FB0C13A}"/>
-    <hyperlink ref="H226" r:id="rId50" xr:uid="{62FE301A-BA52-40FA-AC1D-79B63FA6BFFD}"/>
-    <hyperlink ref="H227" r:id="rId51" xr:uid="{E79B4D08-D991-41E1-8AD9-885E776AD49A}"/>
-    <hyperlink ref="H228" r:id="rId52" xr:uid="{CC4C666F-5301-4650-940D-EF6BFBA81CCC}"/>
-    <hyperlink ref="H82" r:id="rId53" xr:uid="{5FAB656B-5C22-4B2A-B869-F5A7295A9CCB}"/>
-    <hyperlink ref="H83" r:id="rId54" xr:uid="{E1CE357D-34F6-45D7-8172-E9CDFA491E59}"/>
-    <hyperlink ref="H84" r:id="rId55" xr:uid="{8692DABB-ABBD-4236-B407-4F6376B58D74}"/>
-    <hyperlink ref="H85" r:id="rId56" xr:uid="{28FC9A49-9282-4C68-A6E8-2EC40C9D0E54}"/>
-    <hyperlink ref="H86" r:id="rId57" xr:uid="{215B2C5A-CA3D-4087-937B-8347CAF02882}"/>
-    <hyperlink ref="H87" r:id="rId58" xr:uid="{E4FDD724-1F76-4019-9F90-BCEA809DA474}"/>
-    <hyperlink ref="H88" r:id="rId59" xr:uid="{C157C50C-1F62-471B-8A6D-6AA77E885285}"/>
-    <hyperlink ref="H89" r:id="rId60" xr:uid="{208B4C45-C511-47F6-9B6D-5BBCFBAC05BB}"/>
-    <hyperlink ref="H90" r:id="rId61" xr:uid="{4815EFFF-C3BB-4815-8C27-DD8AE3F43CC1}"/>
-    <hyperlink ref="H91" r:id="rId62" xr:uid="{D6A906DA-E9E2-42BA-A862-7B7A97E91AEB}"/>
-    <hyperlink ref="H99" r:id="rId63" xr:uid="{FCDDF936-09A6-44F8-89FB-7E5E19D9DBC4}"/>
-    <hyperlink ref="H100" r:id="rId64" xr:uid="{F6ADA2DA-73E0-4065-A460-05E648A46285}"/>
-    <hyperlink ref="H101" r:id="rId65" xr:uid="{5C9AB30D-7B8A-4359-A07F-AA52FF316770}"/>
-    <hyperlink ref="H102" r:id="rId66" xr:uid="{7C395C9E-99CE-4C80-A86D-170AB88CF46F}"/>
-    <hyperlink ref="H103" r:id="rId67" xr:uid="{687A3C3C-4E77-47E4-A315-557ABAFA18DA}"/>
+    <hyperlink ref="G213" r:id="rId37" xr:uid="{258559DE-5191-4E97-8ADC-E0BDAE29B1F6}"/>
+    <hyperlink ref="G214" r:id="rId38" xr:uid="{52B2E9AE-5D8F-4A8C-A414-D6C010B7970C}"/>
+    <hyperlink ref="G215" r:id="rId39" xr:uid="{B7DCA407-90CF-4B15-921D-E39C74A9F58E}"/>
+    <hyperlink ref="G216" r:id="rId40" xr:uid="{2FB1E3D0-3BE3-43E4-9702-7E6AA551CFC6}"/>
+    <hyperlink ref="G217" r:id="rId41" xr:uid="{EBD8A76B-65A7-4011-95F5-984B90C74F97}"/>
+    <hyperlink ref="G218" r:id="rId42" xr:uid="{5C56E7EC-840B-4E84-AD01-F0E56769D702}"/>
+    <hyperlink ref="G219" r:id="rId43" xr:uid="{B61B6DA5-6C62-434D-98DA-4F540E62CFF3}"/>
+    <hyperlink ref="G220" r:id="rId44" xr:uid="{AA526465-8CD8-4CC2-A7DE-3BAFFC93FABC}"/>
+    <hyperlink ref="G221" r:id="rId45" xr:uid="{D94041E4-3BDF-4CB4-9380-EDB8AD4B3D42}"/>
+    <hyperlink ref="G222" r:id="rId46" xr:uid="{E1F91E81-6F9C-4F49-9845-380E5F43BDCE}"/>
+    <hyperlink ref="G223" r:id="rId47" xr:uid="{92C82964-7CEB-4F7B-A164-FC624A89B3F3}"/>
+    <hyperlink ref="G224" r:id="rId48" xr:uid="{6884D2BE-3FAB-449B-AE4A-E3C477B150DA}"/>
+    <hyperlink ref="G225" r:id="rId49" xr:uid="{F9BDAEE5-8F0F-41A5-95DE-8A784FB0C13A}"/>
+    <hyperlink ref="G226" r:id="rId50" xr:uid="{62FE301A-BA52-40FA-AC1D-79B63FA6BFFD}"/>
+    <hyperlink ref="G227" r:id="rId51" xr:uid="{E79B4D08-D991-41E1-8AD9-885E776AD49A}"/>
+    <hyperlink ref="G228" r:id="rId52" xr:uid="{CC4C666F-5301-4650-940D-EF6BFBA81CCC}"/>
+    <hyperlink ref="G82" r:id="rId53" xr:uid="{5FAB656B-5C22-4B2A-B869-F5A7295A9CCB}"/>
+    <hyperlink ref="G83" r:id="rId54" xr:uid="{E1CE357D-34F6-45D7-8172-E9CDFA491E59}"/>
+    <hyperlink ref="G84" r:id="rId55" xr:uid="{8692DABB-ABBD-4236-B407-4F6376B58D74}"/>
+    <hyperlink ref="G85" r:id="rId56" xr:uid="{28FC9A49-9282-4C68-A6E8-2EC40C9D0E54}"/>
+    <hyperlink ref="G86" r:id="rId57" xr:uid="{215B2C5A-CA3D-4087-937B-8347CAF02882}"/>
+    <hyperlink ref="G87" r:id="rId58" xr:uid="{E4FDD724-1F76-4019-9F90-BCEA809DA474}"/>
+    <hyperlink ref="G88" r:id="rId59" xr:uid="{C157C50C-1F62-471B-8A6D-6AA77E885285}"/>
+    <hyperlink ref="G89" r:id="rId60" xr:uid="{208B4C45-C511-47F6-9B6D-5BBCFBAC05BB}"/>
+    <hyperlink ref="G90" r:id="rId61" xr:uid="{4815EFFF-C3BB-4815-8C27-DD8AE3F43CC1}"/>
+    <hyperlink ref="G91" r:id="rId62" xr:uid="{D6A906DA-E9E2-42BA-A862-7B7A97E91AEB}"/>
+    <hyperlink ref="G99" r:id="rId63" xr:uid="{FCDDF936-09A6-44F8-89FB-7E5E19D9DBC4}"/>
+    <hyperlink ref="G100" r:id="rId64" xr:uid="{F6ADA2DA-73E0-4065-A460-05E648A46285}"/>
+    <hyperlink ref="G101" r:id="rId65" xr:uid="{5C9AB30D-7B8A-4359-A07F-AA52FF316770}"/>
+    <hyperlink ref="G102" r:id="rId66" xr:uid="{7C395C9E-99CE-4C80-A86D-170AB88CF46F}"/>
+    <hyperlink ref="G103" r:id="rId67" xr:uid="{687A3C3C-4E77-47E4-A315-557ABAFA18DA}"/>
     <hyperlink ref="G111" r:id="rId68" xr:uid="{14671834-2665-42BA-998B-99472D3545ED}"/>
     <hyperlink ref="G112" r:id="rId69" xr:uid="{898FC302-55D5-48F2-96DC-C7D7D4023C85}"/>
-    <hyperlink ref="H92" r:id="rId70" xr:uid="{7CA11115-3858-422E-B343-952CD189034E}"/>
-    <hyperlink ref="H93" r:id="rId71" xr:uid="{BCB69340-85FC-41CD-9D38-74426ABC4B84}"/>
-    <hyperlink ref="H94" r:id="rId72" xr:uid="{6B45E68D-64C8-4357-A7FD-1146FC920BE9}"/>
-    <hyperlink ref="H95" r:id="rId73" xr:uid="{D9F7ACDF-ED64-4EA4-BD87-B6601E3ADAC1}"/>
-    <hyperlink ref="H96" r:id="rId74" xr:uid="{28AAB586-C655-48D0-B120-03CFC66AA600}"/>
-    <hyperlink ref="H97" r:id="rId75" xr:uid="{7B9D2A08-A2A2-4DD1-BE28-8B8853C40B22}"/>
-    <hyperlink ref="H98" r:id="rId76" xr:uid="{833BC703-1C02-4578-911E-FA4093CC5857}"/>
-    <hyperlink ref="H69" r:id="rId77" xr:uid="{0A9FFC9C-AF1D-4DB3-B528-F62612C2761B}"/>
-    <hyperlink ref="H70" r:id="rId78" xr:uid="{D74B5D8C-58CE-45F5-B581-C86C7E235B0C}"/>
-    <hyperlink ref="H71" r:id="rId79" xr:uid="{564FFA23-97D7-4511-A74C-508A52C6CC5E}"/>
+    <hyperlink ref="G92" r:id="rId70" xr:uid="{7CA11115-3858-422E-B343-952CD189034E}"/>
+    <hyperlink ref="G93" r:id="rId71" xr:uid="{BCB69340-85FC-41CD-9D38-74426ABC4B84}"/>
+    <hyperlink ref="G94" r:id="rId72" xr:uid="{6B45E68D-64C8-4357-A7FD-1146FC920BE9}"/>
+    <hyperlink ref="G95" r:id="rId73" xr:uid="{D9F7ACDF-ED64-4EA4-BD87-B6601E3ADAC1}"/>
+    <hyperlink ref="G96" r:id="rId74" xr:uid="{28AAB586-C655-48D0-B120-03CFC66AA600}"/>
+    <hyperlink ref="G97" r:id="rId75" xr:uid="{7B9D2A08-A2A2-4DD1-BE28-8B8853C40B22}"/>
+    <hyperlink ref="G98" r:id="rId76" xr:uid="{833BC703-1C02-4578-911E-FA4093CC5857}"/>
+    <hyperlink ref="G69" r:id="rId77" xr:uid="{0A9FFC9C-AF1D-4DB3-B528-F62612C2761B}"/>
+    <hyperlink ref="G70" r:id="rId78" xr:uid="{D74B5D8C-58CE-45F5-B581-C86C7E235B0C}"/>
+    <hyperlink ref="G71" r:id="rId79" xr:uid="{564FFA23-97D7-4511-A74C-508A52C6CC5E}"/>
     <hyperlink ref="G72" r:id="rId80" xr:uid="{5265C65F-DAC8-464F-BCEE-5A2327E925AE}"/>
-    <hyperlink ref="H73" r:id="rId81" xr:uid="{8B4F6EB2-095A-41A1-A1B2-1FDF670EED62}"/>
-    <hyperlink ref="H74" r:id="rId82" xr:uid="{AF88EF23-43B2-49DE-9ABB-21F8F8F8357D}"/>
-    <hyperlink ref="H75" r:id="rId83" xr:uid="{952D0805-0749-424E-B842-5F25830B278E}"/>
+    <hyperlink ref="G73" r:id="rId81" xr:uid="{8B4F6EB2-095A-41A1-A1B2-1FDF670EED62}"/>
+    <hyperlink ref="G74" r:id="rId82" xr:uid="{AF88EF23-43B2-49DE-9ABB-21F8F8F8357D}"/>
+    <hyperlink ref="G75" r:id="rId83" xr:uid="{952D0805-0749-424E-B842-5F25830B278E}"/>
     <hyperlink ref="G76" r:id="rId84" xr:uid="{D719F279-9568-4372-8C07-03AD9F648173}"/>
-    <hyperlink ref="H77" r:id="rId85" xr:uid="{4689C4FA-6D5B-4301-AA3C-9BF0649BFEFB}"/>
-    <hyperlink ref="H78" r:id="rId86" xr:uid="{F748DE18-BDBB-476E-BE39-25CF496C16A3}"/>
-    <hyperlink ref="H79" r:id="rId87" xr:uid="{879D22BD-3E5F-44EF-8C62-A2377BCB4107}"/>
+    <hyperlink ref="G77" r:id="rId85" xr:uid="{4689C4FA-6D5B-4301-AA3C-9BF0649BFEFB}"/>
+    <hyperlink ref="G78" r:id="rId86" xr:uid="{F748DE18-BDBB-476E-BE39-25CF496C16A3}"/>
+    <hyperlink ref="G79" r:id="rId87" xr:uid="{879D22BD-3E5F-44EF-8C62-A2377BCB4107}"/>
     <hyperlink ref="G80" r:id="rId88" xr:uid="{62A59D78-AAA2-48CA-8F32-8EF08E32B26D}"/>
     <hyperlink ref="G81" r:id="rId89" xr:uid="{F9A58869-C111-42F0-9604-BBDC406741A3}"/>
+    <hyperlink ref="G104" r:id="rId90" xr:uid="{D86E5C05-0AAA-4B29-A352-833722857DF9}"/>
+    <hyperlink ref="G105" r:id="rId91" xr:uid="{CC400764-7295-4CA4-B097-D6976B5EFC8A}"/>
+    <hyperlink ref="G106" r:id="rId92" xr:uid="{17652694-2F45-4E1C-B7A5-EFD4D899E304}"/>
+    <hyperlink ref="G107" r:id="rId93" xr:uid="{445F1A34-E15C-484F-9B7F-B15CE2494188}"/>
+    <hyperlink ref="G108" r:id="rId94" xr:uid="{59BB01D0-F218-4EA2-BF98-08F561529898}"/>
+    <hyperlink ref="G109" r:id="rId95" xr:uid="{3A5F38F2-DC66-4489-A60E-FAED698C2FAA}"/>
+    <hyperlink ref="G110" r:id="rId96" xr:uid="{B52376EF-1052-430D-93F7-5504C6ECE4CF}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId90"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="34" fitToHeight="0" orientation="landscape" r:id="rId97"/>
 </worksheet>
 </file>